--- a/Data/Output/Carl.xlsx
+++ b/Data/Output/Carl.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Panda\Documents\UiPath\Final Project\Data\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F90839E-44F7-4E78-89E8-D5A8B28DF842}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C558A854-1BA8-4142-94D0-5060AF741913}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-13380" yWindow="1575" windowWidth="12120" windowHeight="15555" xr2:uid="{6E549EB1-F08F-49B8-8E8C-636FFDD159C8}"/>
+    <workbookView xWindow="-13380" yWindow="1575" windowWidth="12120" windowHeight="15555" xr2:uid="{EBFCDBA9-82AB-4F22-B524-9B6C22AFF4B8}"/>
   </bookViews>
   <sheets>
     <sheet name="Samsung tablet" sheetId="2" r:id="rId1"/>
@@ -397,7 +397,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D75AF157-64A5-4F40-9CFE-968E4CEAA975}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE6C41A9-3F42-4B38-B100-6746C7C2888B}">
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -424,7 +424,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85C77F6A-CA93-4A38-A595-A1B11C7427EE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{995E2AD5-56A1-4696-9584-CDB5F9F77E57}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/Data/Output/Carl.xlsx
+++ b/Data/Output/Carl.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Panda\Documents\UiPath\Final Project\Data\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12AD5FFD-414D-48A0-A605-66000EF5F62A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE12D312-151C-419E-B88D-A9247006C65C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1335" yWindow="2430" windowWidth="12120" windowHeight="15555" xr2:uid="{6EF87960-6541-413F-8DC3-53CED5018F67}"/>
+    <workbookView xWindow="1335" yWindow="2430" windowWidth="12120" windowHeight="15555" xr2:uid="{9D382384-7E68-45AE-9DC1-E061A5703A1C}"/>
   </bookViews>
   <sheets>
     <sheet name="Samsung tablet" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="68">
   <si>
     <t>Name</t>
   </si>
@@ -52,79 +52,118 @@
     <t>URL</t>
   </si>
   <si>
-    <t>SAMSUNG Galaxy Tab S9+ Plus 12.4” 512GB , WiFi 6E Android Tablet, Snapdragon 8 Gen2 Processor, AMOLED Screen,S Pen, IP68 Rating, US Version,2023,Graphite</t>
+    <t>Galaxy Tab S9+ Plus 12.4” 512GB , WiFi 6E Android Tablet, Snapdragon 8 Gen2 Processor, AMOLED Screen,S Pen, IP68 Rating, US Version,2023,Graphite</t>
   </si>
   <si>
     <t>4.5 out of 5 stars</t>
   </si>
   <si>
-    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MToxODI3MTk3ODE3MzU2MDgwOjE3MTEwMTU5NTg6c3BfYXRmOjMwMDAzMjkzOTAyODYwMjo6MDo6&amp;url=%2FSAMSUNG-Android-Snapdragon-Processor-Graphite%2Fdp%2FB0C4BB67Y8%2Fref%3Dsr_1_3_sspa%3Fcrid%3D3QE79MH0VBJY7%26dib%3DeyJ2IjoiMSJ9.jJO6Tdz4qWTToEKLv-21nMlRhZRnnIV14CeGv30l2dY6v-R8Cd3-iJlXZSzuifM-DGMFIF_S5ym-b8SN2mOsOlwQ_ZRYQqLz5TZo-TA8Vcl8N8GEUzxHjSpY2DJsMZwNONk27DS7SiooDulYSJUFmcWf8xJebelYUzmLrALiJ57B2e-IzSXK3YnjYH8Ou8_Kme8b-sEuRX9ilw8EMFlo-cwYQYV5pTO9AwekT_Ra_PM6yVUyQkswXQuMSgPIljj5sy0t3Cyzd9F4BrtNLqzGNnku0YMkWD0TiAc0EH_VoxU.mkX28vErxXC2oMmQn249OnQ789PfQDVVXNdjkAWkcy8%26dib_tag%3Dse%26keywords%3DSamsung%2Btablet%26qid%3D1711015958%26sprefix%3Dsams%252Caps%252C300%26sr%3D8-3-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGY%26psc%3D1</t>
-  </si>
-  <si>
-    <t>SAMSUNG Galaxy Tab S9+ Plus 12.4” 256GB , WiFi 6E Android Tablet, Snapdragon 8 Gen 2 Processor, AMOLED Screen,S Pen, IP68 Rating, US Version,2023,Graphite</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/SAMSUNG-Android-Snapdragon-Processor-Graphite/dp/B0C4BBNP7R/ref=sr_1_17?crid=3QE79MH0VBJY7&amp;dib=eyJ2IjoiMSJ9.jJO6Tdz4qWTToEKLv-21nMlRhZRnnIV14CeGv30l2dY6v-R8Cd3-iJlXZSzuifM-DGMFIF_S5ym-b8SN2mOsOlwQ_ZRYQqLz5TZo-TA8Vcl8N8GEUzxHjSpY2DJsMZwNONk27DS7SiooDulYSJUFmcWf8xJebelYUzmLrALiJ57B2e-IzSXK3YnjYH8Ou8_Kme8b-sEuRX9ilw8EMFlo-cwYQYV5pTO9AwekT_Ra_PM6yVUyQkswXQuMSgPIljj5sy0t3Cyzd9F4BrtNLqzGNnku0YMkWD0TiAc0EH_VoxU.mkX28vErxXC2oMmQn249OnQ789PfQDVVXNdjkAWkcy8&amp;dib_tag=se&amp;keywords=Samsung+tablet&amp;qid=1711015958&amp;sprefix=sams%2Caps%2C300&amp;sr=8-17</t>
-  </si>
-  <si>
-    <t>SAMSUNG Galaxy Tab S7 FE 12.4” 256GB WiFi Android Tablet, Large Screen, S Pen Included, Multi Device Connectivity, Long Lasting Battery, US Version, 2021, Mystic Pink</t>
+    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MToxNDI0Nzk4NzMzMjg4MDgwOjE3MTEwMTY1ODc6c3BfbXRmOjMwMDAzMjkzOTAyODYwMjo6MDo6&amp;url=%2FSAMSUNG-Android-Snapdragon-Processor-Graphite%2Fdp%2FB0C4BB67Y8%2Fref%3Dsr_1_7_sspa%3Fcrid%3DTR6ZCELH2F89%26dib%3DeyJ2IjoiMSJ9.jJO6Tdz4qWTToEKLv-21nMlRhZRnnIV14CeGv30l2dY6v-R8Cd3-iJlXZSzuifM-DGMFIF_S5ym-b8SN2mOsOoIDpU9q8snFDiQrnivuQH4oiDKmO9TSRMspjwQoQC3FCyMDng1OqBoV0Z1txGFFuJpGFPe_ZiXALcX1eGDWwUdwwnI5dX7MIl0-b960ewB3eStmR-pV_6kJWHmkjaEuvHjtG_tjzpzP9Dsq-GtlVoM.yjhQArGSahUDokrAJ3Z7IyfB57TGcwKDvJewCi_gtoU%26dib_tag%3Dse%26keywords%3DSamsung%2Btablet%26qid%3D1711016587%26sprefix%3Dsams%252Caps%252C305%26sr%3D8-7-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
+  </si>
+  <si>
+    <t>Galaxy Tab S9+ Plus 12.4” 256GB , WiFi 6E Android Tablet, Snapdragon 8 Gen 2 Processor, AMOLED Screen,S Pen, IP68 Rating, US Version,2023,Graphite</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/SAMSUNG-Android-Snapdragon-Processor-Graphite/dp/B0C4BBNP7R/ref=sr_1_15?crid=TR6ZCELH2F89&amp;dib=eyJ2IjoiMSJ9.jJO6Tdz4qWTToEKLv-21nMlRhZRnnIV14CeGv30l2dY6v-R8Cd3-iJlXZSzuifM-DGMFIF_S5ym-b8SN2mOsOoIDpU9q8snFDiQrnivuQH4oiDKmO9TSRMspjwQoQC3FCyMDng1OqBoV0Z1txGFFuJpGFPe_ZiXALcX1eGDWwUdwwnI5dX7MIl0-b960ewB3eStmR-pV_6kJWHmkjaEuvHjtG_tjzpzP9Dsq-GtlVoM.yjhQArGSahUDokrAJ3Z7IyfB57TGcwKDvJewCi_gtoU&amp;dib_tag=se&amp;keywords=Samsung+tablet&amp;qid=1711016587&amp;sprefix=sams%2Caps%2C305&amp;sr=8-15</t>
+  </si>
+  <si>
+    <t>SAMSUNG Galaxy Tab S9 11” 256GB , WiFi 6E Android Tablet, Snapdragon 8 Gen 2 Processor, AMOLED Screen, S Pen, IP68 Rating, US Version, 2023, Beige</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MToyMjE0OTIwODYwOTgyMDgwOjE3MTEwMTY1ODc6c3Bfc2VhcmNoX3RoZW1hdGljOjMwMDAzMjg5NjQ1MzUwMjo6Mjo6&amp;url=%2FSAMSUNG-Android-Snapdragon-Processor-Version%2Fdp%2FB0C4BBF23F%2Fref%3Dsxin_34_pa_sp_search_thematic_sspa%3Fcontent-id%3Damzn1.sym.d4fdc453-1595-4f7b-ba6a-eb2ac554591f%253Aamzn1.sym.d4fdc453-1595-4f7b-ba6a-eb2ac554591f%26crid%3DTR6ZCELH2F89%26cv_ct_cx%3DSamsung%2Btablet%26dib%3DeyJ2IjoiMSJ9.H8IGP6LxMf_08154v6dn8dAOFQnpiBARnjABpeRVREcV7Eox8qhxzh2jjalgw3pG._VVeDa3NK82TZZZ4s8gxPWcxQZ3l6C3R_qBqLB7T3t0%26dib_tag%3Dse%26keywords%3DSamsung%2Btablet%26pd_rd_i%3DB0C4BBF23F%26pd_rd_r%3D3cf22df9-ec8a-403f-83dd-8554010a2467%26pd_rd_w%3Dx4csL%26pd_rd_wg%3DbaDJS%26pf_rd_p%3Dd4fdc453-1595-4f7b-ba6a-eb2ac554591f%26pf_rd_r%3D98X6DHP83KZGNFNHQ1BQ%26qid%3D1711016587%26sbo%3DRZvfv%252F%252FHxDF%252BO5021pAnSA%253D%253D%26sprefix%3Dsams%252Caps%252C305%26sr%3D1-3-364cf978-ce2a-480a-9bb0-bdb96faa0f61-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9zZWFyY2hfdGhlbWF0aWM%26psc%3D1</t>
+  </si>
+  <si>
+    <t>Samsung Galaxy Tab S9 FE+ 12.4” 256GB Android Tablet, IP68 Water- and Dust-Resistant, Long Battery Life, Powerful Processor, S Pen, 8MP Camera, Lightweight Design, US Version, 2023, Silver</t>
+  </si>
+  <si>
+    <t>4.6 out of 5 stars</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MToyMjE0OTIwODYwOTgyMDgwOjE3MTEwMTY1ODc6c3Bfc2VhcmNoX3RoZW1hdGljOjMwMDA5MDkwMTk4MDUwMjo6MTo6&amp;url=%2FSAMSUNG-Dust-Resistant-Powerful-Processor-Lightweight%2Fdp%2FB0CCBNF8BK%2Fref%3Dsxin_34_pa_sp_search_thematic_sspa%3Fcontent-id%3Damzn1.sym.d4fdc453-1595-4f7b-ba6a-eb2ac554591f%253Aamzn1.sym.d4fdc453-1595-4f7b-ba6a-eb2ac554591f%26crid%3DTR6ZCELH2F89%26cv_ct_cx%3DSamsung%2Btablet%26dib%3DeyJ2IjoiMSJ9.H8IGP6LxMf_08154v6dn8dAOFQnpiBARnjABpeRVREcV7Eox8qhxzh2jjalgw3pG._VVeDa3NK82TZZZ4s8gxPWcxQZ3l6C3R_qBqLB7T3t0%26dib_tag%3Dse%26keywords%3DSamsung%2Btablet%26pd_rd_i%3DB0CCBNF8BK%26pd_rd_r%3D3cf22df9-ec8a-403f-83dd-8554010a2467%26pd_rd_w%3Dx4csL%26pd_rd_wg%3DbaDJS%26pf_rd_p%3Dd4fdc453-1595-4f7b-ba6a-eb2ac554591f%26pf_rd_r%3D98X6DHP83KZGNFNHQ1BQ%26qid%3D1711016587%26sbo%3DRZvfv%252F%252FHxDF%252BO5021pAnSA%253D%253D%26sprefix%3Dsams%252Caps%252C305%26sr%3D1-2-364cf978-ce2a-480a-9bb0-bdb96faa0f61-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9zZWFyY2hfdGhlbWF0aWM%26psc%3D1</t>
+  </si>
+  <si>
+    <t>SAMSUNG Galaxy Tab Active3 Enterprise Edition 8” Rugged Multi Purpose Tablet |64GB &amp; WiFi &amp; LTE (Unlocked) | Biometric Security (SM-T577UZKDN14), Black</t>
+  </si>
+  <si>
+    <t>4.4 out of 5 stars</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Enterprise-Unlocked-Biometric-Security-SM-T577UZKDN14/dp/B08T7RMRY9/ref=sxin_12_recs_zoco_stores_brand_identity_bs?content-id=amzn1.sym.7d2e00dd-9358-4f89-aca0-04685eb73811%3Aamzn1.sym.7d2e00dd-9358-4f89-aca0-04685eb73811&amp;crid=TR6ZCELH2F89&amp;cv_ct_cx=Samsung+tablet&amp;dib=eyJ2IjoiMSJ9.TK5JheCabegjh2M4Xyks79YxQdLqnYFiilT6GwHxoP1hkbj7CrUcTKLdNVWcDlKP8zA9vh7J1iegdDqk-EnNPA.GF4BNYM4dU3Gm_z6I9BtgNyEP9ewuOswhQ9uZaW8wRY&amp;dib_tag=se&amp;keywords=Samsung+tablet&amp;pd_rd_i=B08T7RMRY9&amp;pd_rd_r=3cf22df9-ec8a-403f-83dd-8554010a2467&amp;pd_rd_w=Df1mK&amp;pd_rd_wg=baDJS&amp;pf_rd_p=7d2e00dd-9358-4f89-aca0-04685eb73811&amp;pf_rd_r=98X6DHP83KZGNFNHQ1BQ&amp;qid=1711016587&amp;sbo=RZvfv%2F%2FHxDF%2BO5021pAnSA%3D%3D&amp;sprefix=sams%2Caps%2C305&amp;sr=1-5-5f457e4f-4cf5-45bd-948b-58563dcb013a</t>
+  </si>
+  <si>
+    <t>Samsung Galaxy Tab Active3 Enterprise Edition 8” Rugged Multi Purpose Tablet |128GB &amp; WiFi | Biometric Security (SM-T570NZKEN20), Black</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Samsung-Enterprise-Biometric-Security-SM-T570NZKEN20/dp/B08T7V27QJ/ref=sxin_12_recs_zoco_stores_brand_identity_bs?content-id=amzn1.sym.7d2e00dd-9358-4f89-aca0-04685eb73811%3Aamzn1.sym.7d2e00dd-9358-4f89-aca0-04685eb73811&amp;crid=TR6ZCELH2F89&amp;cv_ct_cx=Samsung+tablet&amp;dib=eyJ2IjoiMSJ9.TK5JheCabegjh2M4Xyks79YxQdLqnYFiilT6GwHxoP1hkbj7CrUcTKLdNVWcDlKP8zA9vh7J1iegdDqk-EnNPA.GF4BNYM4dU3Gm_z6I9BtgNyEP9ewuOswhQ9uZaW8wRY&amp;dib_tag=se&amp;keywords=Samsung+tablet&amp;pd_rd_i=B08T7V27QJ&amp;pd_rd_r=3cf22df9-ec8a-403f-83dd-8554010a2467&amp;pd_rd_w=Df1mK&amp;pd_rd_wg=baDJS&amp;pf_rd_p=7d2e00dd-9358-4f89-aca0-04685eb73811&amp;pf_rd_r=98X6DHP83KZGNFNHQ1BQ&amp;qid=1711016587&amp;sbo=RZvfv%2F%2FHxDF%2BO5021pAnSA%3D%3D&amp;sprefix=sams%2Caps%2C305&amp;sr=1-4-5f457e4f-4cf5-45bd-948b-58563dcb013a</t>
+  </si>
+  <si>
+    <t>Galaxy Tab S9 FE Wi-Fi 10.9” 128GB, Android Tablet, IP68 Water- and Dust-Resistant, Long Battery Life, Powerful Processor, S Pen, 8MP Camera, Lightweight Design, US Version, 2023, Mint</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MToxNDI0Nzk4NzMzMjg4MDgwOjE3MTEwMTY1ODc6c3BfYXRmOjMwMDA5MDk3NjM5MDYwMjo6MDo6&amp;url=%2FSAMSUNG-Dust-Resistant-Powerful-Processor-Lightweight%2Fdp%2FB0CCBRP9FD%2Fref%3Dsr_1_2_sspa%3Fcrid%3DTR6ZCELH2F89%26dib%3DeyJ2IjoiMSJ9.jJO6Tdz4qWTToEKLv-21nMlRhZRnnIV14CeGv30l2dY6v-R8Cd3-iJlXZSzuifM-DGMFIF_S5ym-b8SN2mOsOoIDpU9q8snFDiQrnivuQH4oiDKmO9TSRMspjwQoQC3FCyMDng1OqBoV0Z1txGFFuJpGFPe_ZiXALcX1eGDWwUdwwnI5dX7MIl0-b960ewB3eStmR-pV_6kJWHmkjaEuvHjtG_tjzpzP9Dsq-GtlVoM.yjhQArGSahUDokrAJ3Z7IyfB57TGcwKDvJewCi_gtoU%26dib_tag%3Dse%26keywords%3DSamsung%2Btablet%26qid%3D1711016587%26sprefix%3Dsams%252Caps%252C305%26sr%3D8-2-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGY%26psc%3D1</t>
+  </si>
+  <si>
+    <t>Galaxy Tab S9 FE Wi-Fi 10.9” 128GB Android Tablet, IP68 Water- and Dust-Resistant, Long Battery Life, Powerful Processor, S Pen, 8MP Camera, Lightweight Design, US Version, 2023, Gray</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/SAMSUNG-Dust-Resistant-Powerful-Processor-Lightweight/dp/B0CCX11JT6/ref=sr_1_4?crid=TR6ZCELH2F89&amp;dib=eyJ2IjoiMSJ9.jJO6Tdz4qWTToEKLv-21nMlRhZRnnIV14CeGv30l2dY6v-R8Cd3-iJlXZSzuifM-DGMFIF_S5ym-b8SN2mOsOoIDpU9q8snFDiQrnivuQH4oiDKmO9TSRMspjwQoQC3FCyMDng1OqBoV0Z1txGFFuJpGFPe_ZiXALcX1eGDWwUdwwnI5dX7MIl0-b960ewB3eStmR-pV_6kJWHmkjaEuvHjtG_tjzpzP9Dsq-GtlVoM.yjhQArGSahUDokrAJ3Z7IyfB57TGcwKDvJewCi_gtoU&amp;dib_tag=se&amp;keywords=Samsung+tablet&amp;qid=1711016587&amp;sprefix=sams%2Caps%2C305&amp;sr=8-4</t>
+  </si>
+  <si>
+    <t>Galaxy Tab S6 Lite 10.4" 128GB Android Tablet, LCD Screen, S Pen Included, Slim Metal Design, AKG Dual Speakers, 8MP Rear Camera, Long Lasting Battery, US Version, 2022, Angora Blue</t>
   </si>
   <si>
     <t>4.7 out of 5 stars</t>
   </si>
   <si>
-    <t>https://www.amazon.com/SAMSUNG-Android-Included-Connectivity-%E2%80%8ESM-T733NLIFXAR/dp/B09975S1RN/ref=sr_1_27?crid=3QE79MH0VBJY7&amp;dib=eyJ2IjoiMSJ9.jJO6Tdz4qWTToEKLv-21nMlRhZRnnIV14CeGv30l2dY6v-R8Cd3-iJlXZSzuifM-DGMFIF_S5ym-b8SN2mOsOlwQ_ZRYQqLz5TZo-TA8Vcl8N8GEUzxHjSpY2DJsMZwNONk27DS7SiooDulYSJUFmcWf8xJebelYUzmLrALiJ57B2e-IzSXK3YnjYH8Ou8_Kme8b-sEuRX9ilw8EMFlo-cwYQYV5pTO9AwekT_Ra_PM6yVUyQkswXQuMSgPIljj5sy0t3Cyzd9F4BrtNLqzGNnku0YMkWD0TiAc0EH_VoxU.mkX28vErxXC2oMmQn249OnQ789PfQDVVXNdjkAWkcy8&amp;dib_tag=se&amp;keywords=Samsung+tablet&amp;qid=1711015958&amp;sprefix=sams%2Caps%2C300&amp;sr=8-27</t>
-  </si>
-  <si>
-    <t>Samsung Galaxy Tab S9 FE Wi-Fi 10.9” 128GB, Android Tablet, IP68 Water- and Dust-Resistant, Long Battery Life, Powerful Processor, S Pen, 8MP Camera, Lightweight Design, US Version, 2023, Mint</t>
-  </si>
-  <si>
-    <t>4.6 out of 5 stars</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MToxODI3MTk3ODE3MzU2MDgwOjE3MTEwMTU5NTg6c3BfYXRmOjMwMDA5MDk3NjM5MDYwMjo6MDo6&amp;url=%2FSAMSUNG-Dust-Resistant-Powerful-Processor-Lightweight%2Fdp%2FB0CCBRP9FD%2Fref%3Dsr_1_2_sspa%3Fcrid%3D3QE79MH0VBJY7%26dib%3DeyJ2IjoiMSJ9.jJO6Tdz4qWTToEKLv-21nMlRhZRnnIV14CeGv30l2dY6v-R8Cd3-iJlXZSzuifM-DGMFIF_S5ym-b8SN2mOsOlwQ_ZRYQqLz5TZo-TA8Vcl8N8GEUzxHjSpY2DJsMZwNONk27DS7SiooDulYSJUFmcWf8xJebelYUzmLrALiJ57B2e-IzSXK3YnjYH8Ou8_Kme8b-sEuRX9ilw8EMFlo-cwYQYV5pTO9AwekT_Ra_PM6yVUyQkswXQuMSgPIljj5sy0t3Cyzd9F4BrtNLqzGNnku0YMkWD0TiAc0EH_VoxU.mkX28vErxXC2oMmQn249OnQ789PfQDVVXNdjkAWkcy8%26dib_tag%3Dse%26keywords%3DSamsung%2Btablet%26qid%3D1711015958%26sprefix%3Dsams%252Caps%252C300%26sr%3D8-2-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGY%26psc%3D1</t>
-  </si>
-  <si>
-    <t>Samsung Galaxy Tab S9 FE Wi-Fi 10.9” 128GB Android Tablet, IP68 Water- and Dust-Resistant, Long Battery Life, Powerful Processor, S Pen, 8MP Camera, Lightweight Design, US Version, 2023, Gray</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/SAMSUNG-Dust-Resistant-Powerful-Processor-Lightweight/dp/B0CCX11JT6/ref=sr_1_6?crid=3QE79MH0VBJY7&amp;dib=eyJ2IjoiMSJ9.jJO6Tdz4qWTToEKLv-21nMlRhZRnnIV14CeGv30l2dY6v-R8Cd3-iJlXZSzuifM-DGMFIF_S5ym-b8SN2mOsOlwQ_ZRYQqLz5TZo-TA8Vcl8N8GEUzxHjSpY2DJsMZwNONk27DS7SiooDulYSJUFmcWf8xJebelYUzmLrALiJ57B2e-IzSXK3YnjYH8Ou8_Kme8b-sEuRX9ilw8EMFlo-cwYQYV5pTO9AwekT_Ra_PM6yVUyQkswXQuMSgPIljj5sy0t3Cyzd9F4BrtNLqzGNnku0YMkWD0TiAc0EH_VoxU.mkX28vErxXC2oMmQn249OnQ789PfQDVVXNdjkAWkcy8&amp;dib_tag=se&amp;keywords=Samsung+tablet&amp;qid=1711015958&amp;sprefix=sams%2Caps%2C300&amp;sr=8-6</t>
-  </si>
-  <si>
-    <t>SAMSUNG Galaxy Tab S6 Lite 10.4" 128GB Android Tablet, LCD Screen, S Pen Included, Slim Metal Design, AKG Dual Speakers, 8MP Rear Camera, Long Lasting Battery, US Version, 2022, Angora Blue</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/SAMSUNG-Android-Lasting-Included-Speakers/dp/B09WYYW4TR/ref=sr_1_8?crid=3QE79MH0VBJY7&amp;dib=eyJ2IjoiMSJ9.jJO6Tdz4qWTToEKLv-21nMlRhZRnnIV14CeGv30l2dY6v-R8Cd3-iJlXZSzuifM-DGMFIF_S5ym-b8SN2mOsOlwQ_ZRYQqLz5TZo-TA8Vcl8N8GEUzxHjSpY2DJsMZwNONk27DS7SiooDulYSJUFmcWf8xJebelYUzmLrALiJ57B2e-IzSXK3YnjYH8Ou8_Kme8b-sEuRX9ilw8EMFlo-cwYQYV5pTO9AwekT_Ra_PM6yVUyQkswXQuMSgPIljj5sy0t3Cyzd9F4BrtNLqzGNnku0YMkWD0TiAc0EH_VoxU.mkX28vErxXC2oMmQn249OnQ789PfQDVVXNdjkAWkcy8&amp;dib_tag=se&amp;keywords=Samsung+tablet&amp;qid=1711015958&amp;sprefix=sams%2Caps%2C300&amp;sr=8-8</t>
+    <t>https://www.amazon.com/SAMSUNG-Android-Lasting-Included-Speakers/dp/B09WYYW4TR/ref=sr_1_6?crid=TR6ZCELH2F89&amp;dib=eyJ2IjoiMSJ9.jJO6Tdz4qWTToEKLv-21nMlRhZRnnIV14CeGv30l2dY6v-R8Cd3-iJlXZSzuifM-DGMFIF_S5ym-b8SN2mOsOoIDpU9q8snFDiQrnivuQH4oiDKmO9TSRMspjwQoQC3FCyMDng1OqBoV0Z1txGFFuJpGFPe_ZiXALcX1eGDWwUdwwnI5dX7MIl0-b960ewB3eStmR-pV_6kJWHmkjaEuvHjtG_tjzpzP9Dsq-GtlVoM.yjhQArGSahUDokrAJ3Z7IyfB57TGcwKDvJewCi_gtoU&amp;dib_tag=se&amp;keywords=Samsung+tablet&amp;qid=1711016587&amp;sprefix=sams%2Caps%2C305&amp;sr=8-6</t>
   </si>
   <si>
     <t>SAMSUNG 2020 Galaxy Tab A7 10.4’’ (2000x1200) TFT Display Wi-Fi Tablet Bundle, Qualcomm Snapdragon 662, 3GB RAM, Bluetooth, Dolby Atmos Audio, Android 10 OS w/Tigology Accessories (64GB, Gray)</t>
   </si>
   <si>
-    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MToxODI3MTk3ODE3MzU2MDgwOjE3MTEwMTU5NTg6c3BfbXRmOjIwMDA5OTAwNjc1NDkxMTo6MDo6&amp;url=%2FGalaxy-Tab-A7-Snapdragon-Accessories%2Fdp%2FB08NWQGG5B%2Fref%3Dsr_1_13_sspa%3Fcrid%3D3QE79MH0VBJY7%26dib%3DeyJ2IjoiMSJ9.jJO6Tdz4qWTToEKLv-21nMlRhZRnnIV14CeGv30l2dY6v-R8Cd3-iJlXZSzuifM-DGMFIF_S5ym-b8SN2mOsOlwQ_ZRYQqLz5TZo-TA8Vcl8N8GEUzxHjSpY2DJsMZwNONk27DS7SiooDulYSJUFmcWf8xJebelYUzmLrALiJ57B2e-IzSXK3YnjYH8Ou8_Kme8b-sEuRX9ilw8EMFlo-cwYQYV5pTO9AwekT_Ra_PM6yVUyQkswXQuMSgPIljj5sy0t3Cyzd9F4BrtNLqzGNnku0YMkWD0TiAc0EH_VoxU.mkX28vErxXC2oMmQn249OnQ789PfQDVVXNdjkAWkcy8%26dib_tag%3Dse%26keywords%3DSamsung%2Btablet%26qid%3D1711015958%26sprefix%3Dsams%252Caps%252C300%26sr%3D8-13-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
-  </si>
-  <si>
-    <t>SAMSUNG Galaxy Tab A8 10.5" FHD Touchscreen Android Wi-Fi Tablet, Pink Gold, 128GB Internal Memory, Octa-core Processor, 4GB RAM, 8MP Rear + 5MP Front Camera, Bluetooth v5.0 WEPGPY</t>
-  </si>
-  <si>
-    <t>4.4 out of 5 stars</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/SAMSUNG-Tab-A8-Touchscreen-Octa-core/dp/B0CC8QMFCH/ref=sr_1_29?crid=3QE79MH0VBJY7&amp;dib=eyJ2IjoiMSJ9.jJO6Tdz4qWTToEKLv-21nMlRhZRnnIV14CeGv30l2dY6v-R8Cd3-iJlXZSzuifM-DGMFIF_S5ym-b8SN2mOsOlwQ_ZRYQqLz5TZo-TA8Vcl8N8GEUzxHjSpY2DJsMZwNONk27DS7SiooDulYSJUFmcWf8xJebelYUzmLrALiJ57B2e-IzSXK3YnjYH8Ou8_Kme8b-sEuRX9ilw8EMFlo-cwYQYV5pTO9AwekT_Ra_PM6yVUyQkswXQuMSgPIljj5sy0t3Cyzd9F4BrtNLqzGNnku0YMkWD0TiAc0EH_VoxU.mkX28vErxXC2oMmQn249OnQ789PfQDVVXNdjkAWkcy8&amp;dib_tag=se&amp;keywords=Samsung+tablet&amp;qid=1711015958&amp;sprefix=sams%2Caps%2C300&amp;sr=8-29</t>
-  </si>
-  <si>
-    <t>SAMSUNG Galaxy Tab A8 10.5-inch Touchscreen (1920x1200) Wi-Fi Tablet Bundle, Octa-Core Processor, 3GB RAM, 32GB Memory, Bluetooth, 128GB MicroSD Card, Android 11 OS</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MToxODI3MTk3ODE3MzU2MDgwOjE3MTEwMTU5NTg6c3BfYXRmOjIwMDEwNjk2ODM2NDA5ODo6MDo6&amp;url=%2FSamsung-Galaxy-Tab-Touchscreen-Bundle%2Fdp%2FB07VN76C78%2Fref%3Dsr_1_4_sspa%3Fcrid%3D3QE79MH0VBJY7%26dib%3DeyJ2IjoiMSJ9.jJO6Tdz4qWTToEKLv-21nMlRhZRnnIV14CeGv30l2dY6v-R8Cd3-iJlXZSzuifM-DGMFIF_S5ym-b8SN2mOsOlwQ_ZRYQqLz5TZo-TA8Vcl8N8GEUzxHjSpY2DJsMZwNONk27DS7SiooDulYSJUFmcWf8xJebelYUzmLrALiJ57B2e-IzSXK3YnjYH8Ou8_Kme8b-sEuRX9ilw8EMFlo-cwYQYV5pTO9AwekT_Ra_PM6yVUyQkswXQuMSgPIljj5sy0t3Cyzd9F4BrtNLqzGNnku0YMkWD0TiAc0EH_VoxU.mkX28vErxXC2oMmQn249OnQ789PfQDVVXNdjkAWkcy8%26dib_tag%3Dse%26keywords%3DSamsung%2Btablet%26qid%3D1711015958%26sprefix%3Dsams%252Caps%252C300%26sr%3D8-4-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGY%26psc%3D1</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Samsung-Galaxy-Tab-Touchscreen-Bundle/dp/B07VN76C78/ref=sr_1_26?crid=3QE79MH0VBJY7&amp;dib=eyJ2IjoiMSJ9.jJO6Tdz4qWTToEKLv-21nMlRhZRnnIV14CeGv30l2dY6v-R8Cd3-iJlXZSzuifM-DGMFIF_S5ym-b8SN2mOsOlwQ_ZRYQqLz5TZo-TA8Vcl8N8GEUzxHjSpY2DJsMZwNONk27DS7SiooDulYSJUFmcWf8xJebelYUzmLrALiJ57B2e-IzSXK3YnjYH8Ou8_Kme8b-sEuRX9ilw8EMFlo-cwYQYV5pTO9AwekT_Ra_PM6yVUyQkswXQuMSgPIljj5sy0t3Cyzd9F4BrtNLqzGNnku0YMkWD0TiAc0EH_VoxU.mkX28vErxXC2oMmQn249OnQ789PfQDVVXNdjkAWkcy8&amp;dib_tag=se&amp;keywords=Samsung+tablet&amp;qid=1711015958&amp;sprefix=sams%2Caps%2C300&amp;sr=8-26</t>
+    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MToyMjE0OTIwODYwOTgyMDgwOjE3MTEwMTY1ODc6c3Bfc2VhcmNoX3RoZW1hdGljOjIwMDA5OTAwNjc1NDkxMTo6NDo6&amp;url=%2FGalaxy-Tab-A7-Snapdragon-Accessories%2Fdp%2FB08NWQGG5B%2Fref%3Dsxin_34_pa_sp_search_thematic_sspa%3Fcontent-id%3Damzn1.sym.d4fdc453-1595-4f7b-ba6a-eb2ac554591f%253Aamzn1.sym.d4fdc453-1595-4f7b-ba6a-eb2ac554591f%26crid%3DTR6ZCELH2F89%26cv_ct_cx%3DSamsung%2Btablet%26dib%3DeyJ2IjoiMSJ9.H8IGP6LxMf_08154v6dn8dAOFQnpiBARnjABpeRVREcV7Eox8qhxzh2jjalgw3pG._VVeDa3NK82TZZZ4s8gxPWcxQZ3l6C3R_qBqLB7T3t0%26dib_tag%3Dse%26keywords%3DSamsung%2Btablet%26pd_rd_i%3DB08NWQGG5B%26pd_rd_r%3D3cf22df9-ec8a-403f-83dd-8554010a2467%26pd_rd_w%3Dx4csL%26pd_rd_wg%3DbaDJS%26pf_rd_p%3Dd4fdc453-1595-4f7b-ba6a-eb2ac554591f%26pf_rd_r%3D98X6DHP83KZGNFNHQ1BQ%26qid%3D1711016587%26sbo%3DRZvfv%252F%252FHxDF%252BO5021pAnSA%253D%253D%26sprefix%3Dsams%252Caps%252C305%26sr%3D1-4-364cf978-ce2a-480a-9bb0-bdb96faa0f61-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9zZWFyY2hfdGhlbWF0aWM%26psc%3D1</t>
+  </si>
+  <si>
+    <t>Galaxy Tab A8 10.5-inch Touchscreen (1920x1200) Wi-Fi Tablet Bundle, Octa-Core Processor, 3GB RAM, 32GB Memory, Bluetooth, 128GB MicroSD Card, Android 11 OS</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MToxNDI0Nzk4NzMzMjg4MDgwOjE3MTEwMTY1ODc6c3BfbXRmOjIwMDEwNjk2ODM2NDA5ODo6MDo6&amp;url=%2FSamsung-Galaxy-Tab-Touchscreen-Bundle%2Fdp%2FB07VN76C78%2Fref%3Dsr_1_17_sspa%3Fcrid%3DTR6ZCELH2F89%26dib%3DeyJ2IjoiMSJ9.jJO6Tdz4qWTToEKLv-21nMlRhZRnnIV14CeGv30l2dY6v-R8Cd3-iJlXZSzuifM-DGMFIF_S5ym-b8SN2mOsOoIDpU9q8snFDiQrnivuQH4oiDKmO9TSRMspjwQoQC3FCyMDng1OqBoV0Z1txGFFuJpGFPe_ZiXALcX1eGDWwUdwwnI5dX7MIl0-b960ewB3eStmR-pV_6kJWHmkjaEuvHjtG_tjzpzP9Dsq-GtlVoM.yjhQArGSahUDokrAJ3Z7IyfB57TGcwKDvJewCi_gtoU%26dib_tag%3Dse%26keywords%3DSamsung%2Btablet%26qid%3D1711016587%26sprefix%3Dsams%252Caps%252C305%26sr%3D8-17-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Samsung-Galaxy-Tab-Touchscreen-Bundle/dp/B07VN76C78/ref=sr_1_21?crid=TR6ZCELH2F89&amp;dib=eyJ2IjoiMSJ9.jJO6Tdz4qWTToEKLv-21nMlRhZRnnIV14CeGv30l2dY6v-R8Cd3-iJlXZSzuifM-DGMFIF_S5ym-b8SN2mOsOoIDpU9q8snFDiQrnivuQH4oiDKmO9TSRMspjwQoQC3FCyMDng1OqBoV0Z1txGFFuJpGFPe_ZiXALcX1eGDWwUdwwnI5dX7MIl0-b960ewB3eStmR-pV_6kJWHmkjaEuvHjtG_tjzpzP9Dsq-GtlVoM.yjhQArGSahUDokrAJ3Z7IyfB57TGcwKDvJewCi_gtoU&amp;dib_tag=se&amp;keywords=Samsung+tablet&amp;qid=1711016587&amp;sprefix=sams%2Caps%2C305&amp;sr=8-21</t>
+  </si>
+  <si>
+    <t>Galaxy Tab A9+ Tablet 11” 128GB Android Tablet, Big Screen, Quad Speakers, Upgraded Chipset, Multi Window Display, Slim, Light, Durable Design, US Version, 2023, Graphite</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MToxNDI0Nzk4NzMzMjg4MDgwOjE3MTEwMTY1ODc6c3BfYXRmOjMwMDEyMDgzNjEyMjkwMjo6MDo6&amp;url=%2FSAMSUNG-Android-Speakers-Upgraded-Graphite%2Fdp%2FB0CLF2DNMV%2Fref%3Dsr_1_1_sspa%3Fcrid%3DTR6ZCELH2F89%26dib%3DeyJ2IjoiMSJ9.jJO6Tdz4qWTToEKLv-21nMlRhZRnnIV14CeGv30l2dY6v-R8Cd3-iJlXZSzuifM-DGMFIF_S5ym-b8SN2mOsOoIDpU9q8snFDiQrnivuQH4oiDKmO9TSRMspjwQoQC3FCyMDng1OqBoV0Z1txGFFuJpGFPe_ZiXALcX1eGDWwUdwwnI5dX7MIl0-b960ewB3eStmR-pV_6kJWHmkjaEuvHjtG_tjzpzP9Dsq-GtlVoM.yjhQArGSahUDokrAJ3Z7IyfB57TGcwKDvJewCi_gtoU%26dib_tag%3Dse%26keywords%3DSamsung%2Btablet%26qid%3D1711016587%26sprefix%3Dsams%252Caps%252C305%26sr%3D8-1-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGY%26psc%3D1</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/SAMSUNG-Android-Speakers-Upgraded-Graphite/dp/B0CLF2DNMV/ref=sr_1_3?crid=TR6ZCELH2F89&amp;dib=eyJ2IjoiMSJ9.jJO6Tdz4qWTToEKLv-21nMlRhZRnnIV14CeGv30l2dY6v-R8Cd3-iJlXZSzuifM-DGMFIF_S5ym-b8SN2mOsOoIDpU9q8snFDiQrnivuQH4oiDKmO9TSRMspjwQoQC3FCyMDng1OqBoV0Z1txGFFuJpGFPe_ZiXALcX1eGDWwUdwwnI5dX7MIl0-b960ewB3eStmR-pV_6kJWHmkjaEuvHjtG_tjzpzP9Dsq-GtlVoM.yjhQArGSahUDokrAJ3Z7IyfB57TGcwKDvJewCi_gtoU&amp;dib_tag=se&amp;keywords=Samsung+tablet&amp;qid=1711016587&amp;sprefix=sams%2Caps%2C305&amp;sr=8-3</t>
+  </si>
+  <si>
+    <t>SAMSUNG Galaxy Tab A9+ Tablet for Kids, 11” 128GB Android Tablet, Big Screen, Quad Speakers, Upgraded Chipset, Multi Window Display, Slim, Light, Durable Design, US Version, 2023, Silver</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/SAMSUNG-Android-Speakers-Upgraded-Chipset/dp/B0CLF4NVSL/ref=sxin_12_recs_zoco_stores_brand_identity_bs?content-id=amzn1.sym.7d2e00dd-9358-4f89-aca0-04685eb73811%3Aamzn1.sym.7d2e00dd-9358-4f89-aca0-04685eb73811&amp;crid=TR6ZCELH2F89&amp;cv_ct_cx=Samsung+tablet&amp;dib=eyJ2IjoiMSJ9.TK5JheCabegjh2M4Xyks79YxQdLqnYFiilT6GwHxoP1hkbj7CrUcTKLdNVWcDlKP8zA9vh7J1iegdDqk-EnNPA.GF4BNYM4dU3Gm_z6I9BtgNyEP9ewuOswhQ9uZaW8wRY&amp;dib_tag=se&amp;keywords=Samsung+tablet&amp;pd_rd_i=B0CLF4NVSL&amp;pd_rd_r=3cf22df9-ec8a-403f-83dd-8554010a2467&amp;pd_rd_w=Df1mK&amp;pd_rd_wg=baDJS&amp;pf_rd_p=7d2e00dd-9358-4f89-aca0-04685eb73811&amp;pf_rd_r=98X6DHP83KZGNFNHQ1BQ&amp;qid=1711016587&amp;sbo=RZvfv%2F%2FHxDF%2BO5021pAnSA%3D%3D&amp;sprefix=sams%2Caps%2C305&amp;sr=1-2-5f457e4f-4cf5-45bd-948b-58563dcb013a</t>
   </si>
   <si>
     <t>SAMSUNG Galaxy Tab S6 Lite 10.4" 64GB WiFi Android Tablet w/ S Pen Included, Slim Metal Design, Crystal Clear Display, Dual Speakers, Long Lasting Battery, SM-P610NZIAXAR, Chiffon Rose</t>
   </si>
   <si>
-    <t>https://www.amazon.com/SAMSUNG-Android-Included-Speakers-SM-P610NZIAXAR/dp/B086Z3QNBM/ref=sr_1_15?crid=3QE79MH0VBJY7&amp;dib=eyJ2IjoiMSJ9.jJO6Tdz4qWTToEKLv-21nMlRhZRnnIV14CeGv30l2dY6v-R8Cd3-iJlXZSzuifM-DGMFIF_S5ym-b8SN2mOsOlwQ_ZRYQqLz5TZo-TA8Vcl8N8GEUzxHjSpY2DJsMZwNONk27DS7SiooDulYSJUFmcWf8xJebelYUzmLrALiJ57B2e-IzSXK3YnjYH8Ou8_Kme8b-sEuRX9ilw8EMFlo-cwYQYV5pTO9AwekT_Ra_PM6yVUyQkswXQuMSgPIljj5sy0t3Cyzd9F4BrtNLqzGNnku0YMkWD0TiAc0EH_VoxU.mkX28vErxXC2oMmQn249OnQ789PfQDVVXNdjkAWkcy8&amp;dib_tag=se&amp;keywords=Samsung+tablet&amp;qid=1711015958&amp;sprefix=sams%2Caps%2C300&amp;sr=8-15</t>
+    <t>https://www.amazon.com/SAMSUNG-Android-Included-Speakers-SM-P610NZIAXAR/dp/B086Z3QNBM/ref=sr_1_16?crid=TR6ZCELH2F89&amp;dib=eyJ2IjoiMSJ9.jJO6Tdz4qWTToEKLv-21nMlRhZRnnIV14CeGv30l2dY6v-R8Cd3-iJlXZSzuifM-DGMFIF_S5ym-b8SN2mOsOoIDpU9q8snFDiQrnivuQH4oiDKmO9TSRMspjwQoQC3FCyMDng1OqBoV0Z1txGFFuJpGFPe_ZiXALcX1eGDWwUdwwnI5dX7MIl0-b960ewB3eStmR-pV_6kJWHmkjaEuvHjtG_tjzpzP9Dsq-GtlVoM.yjhQArGSahUDokrAJ3Z7IyfB57TGcwKDvJewCi_gtoU&amp;dib_tag=se&amp;keywords=Samsung+tablet&amp;qid=1711016587&amp;sprefix=sams%2Caps%2C305&amp;sr=8-16</t>
+  </si>
+  <si>
+    <t>SAMSUNG Galaxy Tab A9+ Tablet 11” 128GB Android Tablet, Big Screen, Quad Speakers, Upgraded Chipset, Multi Window Display, Slim, Light, Durable Design, US Version, 2023, Graphite</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MToyMjE0OTIwODYwOTgyMDgwOjE3MTEwMTY1ODc6c3Bfc2VhcmNoX3RoZW1hdGljOjMwMDEyMDgzNjEyMjkwMjo6MDo6&amp;url=%2FSAMSUNG-Android-Speakers-Upgraded-Graphite%2Fdp%2FB0CLF2DNMV%2Fref%3Dsxin_34_pa_sp_search_thematic_sspa%3Fcontent-id%3Damzn1.sym.d4fdc453-1595-4f7b-ba6a-eb2ac554591f%253Aamzn1.sym.d4fdc453-1595-4f7b-ba6a-eb2ac554591f%26crid%3DTR6ZCELH2F89%26cv_ct_cx%3DSamsung%2Btablet%26dib%3DeyJ2IjoiMSJ9.H8IGP6LxMf_08154v6dn8dAOFQnpiBARnjABpeRVREcV7Eox8qhxzh2jjalgw3pG._VVeDa3NK82TZZZ4s8gxPWcxQZ3l6C3R_qBqLB7T3t0%26dib_tag%3Dse%26keywords%3DSamsung%2Btablet%26pd_rd_i%3DB0CLF2DNMV%26pd_rd_r%3D3cf22df9-ec8a-403f-83dd-8554010a2467%26pd_rd_w%3Dx4csL%26pd_rd_wg%3DbaDJS%26pf_rd_p%3Dd4fdc453-1595-4f7b-ba6a-eb2ac554591f%26pf_rd_r%3D98X6DHP83KZGNFNHQ1BQ%26qid%3D1711016587%26sbo%3DRZvfv%252F%252FHxDF%252BO5021pAnSA%253D%253D%26sprefix%3Dsams%252Caps%252C305%26sr%3D1-1-364cf978-ce2a-480a-9bb0-bdb96faa0f61-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9zZWFyY2hfdGhlbWF0aWM%26psc%3D1</t>
+  </si>
+  <si>
+    <t>Samsung Galaxy Tab A8 10.5-in 128GB Tablet - Gray SM-X200NZAFXAR (2022)</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Samsung-Galaxy-10-5-128GB-Tablet/dp/B09N3ZC8FL/ref=sxin_12_recs_zoco_stores_brand_identity_bs?content-id=amzn1.sym.7d2e00dd-9358-4f89-aca0-04685eb73811%3Aamzn1.sym.7d2e00dd-9358-4f89-aca0-04685eb73811&amp;crid=TR6ZCELH2F89&amp;cv_ct_cx=Samsung+tablet&amp;dib=eyJ2IjoiMSJ9.TK5JheCabegjh2M4Xyks79YxQdLqnYFiilT6GwHxoP1hkbj7CrUcTKLdNVWcDlKP8zA9vh7J1iegdDqk-EnNPA.GF4BNYM4dU3Gm_z6I9BtgNyEP9ewuOswhQ9uZaW8wRY&amp;dib_tag=se&amp;keywords=Samsung+tablet&amp;pd_rd_i=B09N3ZC8FL&amp;pd_rd_r=3cf22df9-ec8a-403f-83dd-8554010a2467&amp;pd_rd_w=Df1mK&amp;pd_rd_wg=baDJS&amp;pf_rd_p=7d2e00dd-9358-4f89-aca0-04685eb73811&amp;pf_rd_r=98X6DHP83KZGNFNHQ1BQ&amp;qid=1711016587&amp;sbo=RZvfv%2F%2FHxDF%2BO5021pAnSA%3D%3D&amp;sprefix=sams%2Caps%2C305&amp;sr=1-3-5f457e4f-4cf5-45bd-948b-58563dcb013a</t>
   </si>
   <si>
     <t>2024 Newest Tablet Android 13 Tablets 10 Inch, Tablet 128GB ROM+16GB RAM (8+8 Virtual), 2 In 1 Tablet with keyboard, Powerful Octa-Core+13MP Camera, 1TB TF Expandable, FHD IPS Display WiFi Tablet PC</t>
@@ -133,13 +172,28 @@
     <t>4.3 out of 5 stars</t>
   </si>
   <si>
-    <t>https://www.amazon.com/Newest-Tablet-Tablet-keyboard-Octa-Core-Expandable/dp/B0C77MDDNL/ref=sr_1_16?crid=3QE79MH0VBJY7&amp;dib=eyJ2IjoiMSJ9.jJO6Tdz4qWTToEKLv-21nMlRhZRnnIV14CeGv30l2dY6v-R8Cd3-iJlXZSzuifM-DGMFIF_S5ym-b8SN2mOsOlwQ_ZRYQqLz5TZo-TA8Vcl8N8GEUzxHjSpY2DJsMZwNONk27DS7SiooDulYSJUFmcWf8xJebelYUzmLrALiJ57B2e-IzSXK3YnjYH8Ou8_Kme8b-sEuRX9ilw8EMFlo-cwYQYV5pTO9AwekT_Ra_PM6yVUyQkswXQuMSgPIljj5sy0t3Cyzd9F4BrtNLqzGNnku0YMkWD0TiAc0EH_VoxU.mkX28vErxXC2oMmQn249OnQ789PfQDVVXNdjkAWkcy8&amp;dib_tag=se&amp;keywords=Samsung+tablet&amp;qid=1711015958&amp;sprefix=sams%2Caps%2C300&amp;sr=8-16</t>
-  </si>
-  <si>
-    <t>SAMSUNG Galaxy Tab A8 10.5” 64GB Android Tablet, LCD Screen, Kids Content, Smart Switch, Expandable Memory, Long Lasting Battery, Fast Charging, US Version, 2022, Silver, Amazon Exclusive</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/SAMSUNG-Android-Long-Lasting-Expandable-Exclusive/dp/B09N3YS882/ref=sr_1_7?crid=3QE79MH0VBJY7&amp;dib=eyJ2IjoiMSJ9.jJO6Tdz4qWTToEKLv-21nMlRhZRnnIV14CeGv30l2dY6v-R8Cd3-iJlXZSzuifM-DGMFIF_S5ym-b8SN2mOsOlwQ_ZRYQqLz5TZo-TA8Vcl8N8GEUzxHjSpY2DJsMZwNONk27DS7SiooDulYSJUFmcWf8xJebelYUzmLrALiJ57B2e-IzSXK3YnjYH8Ou8_Kme8b-sEuRX9ilw8EMFlo-cwYQYV5pTO9AwekT_Ra_PM6yVUyQkswXQuMSgPIljj5sy0t3Cyzd9F4BrtNLqzGNnku0YMkWD0TiAc0EH_VoxU.mkX28vErxXC2oMmQn249OnQ789PfQDVVXNdjkAWkcy8&amp;dib_tag=se&amp;keywords=Samsung+tablet&amp;qid=1711015958&amp;sprefix=sams%2Caps%2C300&amp;sr=8-7</t>
+    <t>https://www.amazon.com/Newest-Tablet-Tablet-keyboard-Octa-Core-Expandable/dp/B0C77MDDNL/ref=sr_1_11?crid=TR6ZCELH2F89&amp;dib=eyJ2IjoiMSJ9.jJO6Tdz4qWTToEKLv-21nMlRhZRnnIV14CeGv30l2dY6v-R8Cd3-iJlXZSzuifM-DGMFIF_S5ym-b8SN2mOsOoIDpU9q8snFDiQrnivuQH4oiDKmO9TSRMspjwQoQC3FCyMDng1OqBoV0Z1txGFFuJpGFPe_ZiXALcX1eGDWwUdwwnI5dX7MIl0-b960ewB3eStmR-pV_6kJWHmkjaEuvHjtG_tjzpzP9Dsq-GtlVoM.yjhQArGSahUDokrAJ3Z7IyfB57TGcwKDvJewCi_gtoU&amp;dib_tag=se&amp;keywords=Samsung+tablet&amp;qid=1711016587&amp;sprefix=sams%2Caps%2C305&amp;sr=8-11</t>
+  </si>
+  <si>
+    <t>Galaxy Tab A8 10.5” 64GB Android Tablet, LCD Screen, Kids Content, Smart Switch, Expandable Memory, Long Lasting Battery, Fast Charging, US Version, 2022, Silver, Amazon Exclusive</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/SAMSUNG-Android-Long-Lasting-Expandable-Exclusive/dp/B09N3YS882/ref=sr_1_5?crid=TR6ZCELH2F89&amp;dib=eyJ2IjoiMSJ9.jJO6Tdz4qWTToEKLv-21nMlRhZRnnIV14CeGv30l2dY6v-R8Cd3-iJlXZSzuifM-DGMFIF_S5ym-b8SN2mOsOoIDpU9q8snFDiQrnivuQH4oiDKmO9TSRMspjwQoQC3FCyMDng1OqBoV0Z1txGFFuJpGFPe_ZiXALcX1eGDWwUdwwnI5dX7MIl0-b960ewB3eStmR-pV_6kJWHmkjaEuvHjtG_tjzpzP9Dsq-GtlVoM.yjhQArGSahUDokrAJ3Z7IyfB57TGcwKDvJewCi_gtoU&amp;dib_tag=se&amp;keywords=Samsung+tablet&amp;qid=1711016587&amp;sprefix=sams%2Caps%2C305&amp;sr=8-5</t>
+  </si>
+  <si>
+    <t>Galaxy Tab A9 (64GB, 4GB, Wi-Fi Only) 8.7" Android Tablet, All Day Battery, Octa-core (6nm), Dual Speakers, International Model - X110 (256GB SD Bundle, Silver)</t>
+  </si>
+  <si>
+    <t>1.0 out of 5 stars</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/SAMSUNG-Android-Octa-core-Speakers-International/dp/B0CVYYXRRL/ref=sr_1_10?crid=TR6ZCELH2F89&amp;dib=eyJ2IjoiMSJ9.jJO6Tdz4qWTToEKLv-21nMlRhZRnnIV14CeGv30l2dY6v-R8Cd3-iJlXZSzuifM-DGMFIF_S5ym-b8SN2mOsOoIDpU9q8snFDiQrnivuQH4oiDKmO9TSRMspjwQoQC3FCyMDng1OqBoV0Z1txGFFuJpGFPe_ZiXALcX1eGDWwUdwwnI5dX7MIl0-b960ewB3eStmR-pV_6kJWHmkjaEuvHjtG_tjzpzP9Dsq-GtlVoM.yjhQArGSahUDokrAJ3Z7IyfB57TGcwKDvJewCi_gtoU&amp;dib_tag=se&amp;keywords=Samsung+tablet&amp;qid=1711016587&amp;sprefix=sams%2Caps%2C305&amp;sr=8-10</t>
+  </si>
+  <si>
+    <t>SAMSUNG Galaxy Tab A9+ Tablet 11” 64GB Android Tablet, Big Screen, Quad Speakers, Upgraded Chipset, Multi Window Display, Slim, Light, Durable Design, US Version, 2023, Silver</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/SAMSUNG-Android-Speakers-Upgraded-Chipset/dp/B0CLFH7CCV/ref=sxin_12_recs_zoco_stores_brand_identity_bs?content-id=amzn1.sym.7d2e00dd-9358-4f89-aca0-04685eb73811%3Aamzn1.sym.7d2e00dd-9358-4f89-aca0-04685eb73811&amp;crid=TR6ZCELH2F89&amp;cv_ct_cx=Samsung+tablet&amp;dib=eyJ2IjoiMSJ9.TK5JheCabegjh2M4Xyks79YxQdLqnYFiilT6GwHxoP1hkbj7CrUcTKLdNVWcDlKP8zA9vh7J1iegdDqk-EnNPA.GF4BNYM4dU3Gm_z6I9BtgNyEP9ewuOswhQ9uZaW8wRY&amp;dib_tag=se&amp;keywords=Samsung+tablet&amp;pd_rd_i=B0CLFH7CCV&amp;pd_rd_r=3cf22df9-ec8a-403f-83dd-8554010a2467&amp;pd_rd_w=Df1mK&amp;pd_rd_wg=baDJS&amp;pf_rd_p=7d2e00dd-9358-4f89-aca0-04685eb73811&amp;pf_rd_r=98X6DHP83KZGNFNHQ1BQ&amp;qid=1711016587&amp;sbo=RZvfv%2F%2FHxDF%2BO5021pAnSA%3D%3D&amp;sprefix=sams%2Caps%2C305&amp;sr=1-1-5f457e4f-4cf5-45bd-948b-58563dcb013a</t>
   </si>
   <si>
     <t>Tablet 2024 Latest 10.1 Inch Android 12 Tablet with Keyboard, 8GB RAM, 256GB ROM, 1TB Expansion, 2 In 1 Octa-Core Tablet, 5G Wifi &amp; 2.4G Wifi, 6000 mAh Battery, Dual Cameras, Bluetooth/Mouse/Case/GPS</t>
@@ -148,109 +202,43 @@
     <t>4.1 out of 5 stars</t>
   </si>
   <si>
-    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MToxODI3MTk3ODE3MzU2MDgwOjE3MTEwMTU5NTg6c3BfbXRmOjMwMDEzNTgzMjQxMzgwMjo6MDo6&amp;url=%2FAndroid-Keyboard-Expansion-Octa-Core-Bluetooth%2Fdp%2FB0CP4XT8FX%2Fref%3Dsr_1_11_sspa%3Fcrid%3D3QE79MH0VBJY7%26dib%3DeyJ2IjoiMSJ9.jJO6Tdz4qWTToEKLv-21nMlRhZRnnIV14CeGv30l2dY6v-R8Cd3-iJlXZSzuifM-DGMFIF_S5ym-b8SN2mOsOlwQ_ZRYQqLz5TZo-TA8Vcl8N8GEUzxHjSpY2DJsMZwNONk27DS7SiooDulYSJUFmcWf8xJebelYUzmLrALiJ57B2e-IzSXK3YnjYH8Ou8_Kme8b-sEuRX9ilw8EMFlo-cwYQYV5pTO9AwekT_Ra_PM6yVUyQkswXQuMSgPIljj5sy0t3Cyzd9F4BrtNLqzGNnku0YMkWD0TiAc0EH_VoxU.mkX28vErxXC2oMmQn249OnQ789PfQDVVXNdjkAWkcy8%26dib_tag%3Dse%26keywords%3DSamsung%2Btablet%26qid%3D1711015958%26sprefix%3Dsams%252Caps%252C300%26sr%3D8-11-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
-  </si>
-  <si>
-    <t>SAMSUNG 2021 Galaxy Tab A7 Lite 8.7” Inch 32 GB Wi-Fi Android 11 Touchscreen International Tablet Bundle – PU Leather Case, Screen Protector, Stylus and 32GB microSD Card [Silver]</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Samsung-Galaxy-Android-Touchscreen-International/dp/B099KV1D1Q/ref=sr_1_30?crid=3QE79MH0VBJY7&amp;dib=eyJ2IjoiMSJ9.jJO6Tdz4qWTToEKLv-21nMlRhZRnnIV14CeGv30l2dY6v-R8Cd3-iJlXZSzuifM-DGMFIF_S5ym-b8SN2mOsOlwQ_ZRYQqLz5TZo-TA8Vcl8N8GEUzxHjSpY2DJsMZwNONk27DS7SiooDulYSJUFmcWf8xJebelYUzmLrALiJ57B2e-IzSXK3YnjYH8Ou8_Kme8b-sEuRX9ilw8EMFlo-cwYQYV5pTO9AwekT_Ra_PM6yVUyQkswXQuMSgPIljj5sy0t3Cyzd9F4BrtNLqzGNnku0YMkWD0TiAc0EH_VoxU.mkX28vErxXC2oMmQn249OnQ789PfQDVVXNdjkAWkcy8&amp;dib_tag=se&amp;keywords=Samsung+tablet&amp;qid=1711015958&amp;sprefix=sams%2Caps%2C300&amp;sr=8-30</t>
-  </si>
-  <si>
-    <t>SAMSUNG Galaxy Tab A7 Lite (2021, 32GB, 3GB RAM) 8.7" (WiFi + Cellular) 5100mAh Battery, Android 11, 4G LTE Tablet GSM Unlocked, International Model - SM-T225 (Fast Car Charger Bundle, Gray)</t>
+    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MToxNDI0Nzk4NzMzMjg4MDgwOjE3MTEwMTY1ODc6c3BfbXRmOjMwMDEzNTgzMjQxMzgwMjo6MDo6&amp;url=%2FAndroid-Keyboard-Expansion-Octa-Core-Bluetooth%2Fdp%2FB0CP4XT8FX%2Fref%3Dsr_1_12_sspa%3Fcrid%3DTR6ZCELH2F89%26dib%3DeyJ2IjoiMSJ9.jJO6Tdz4qWTToEKLv-21nMlRhZRnnIV14CeGv30l2dY6v-R8Cd3-iJlXZSzuifM-DGMFIF_S5ym-b8SN2mOsOoIDpU9q8snFDiQrnivuQH4oiDKmO9TSRMspjwQoQC3FCyMDng1OqBoV0Z1txGFFuJpGFPe_ZiXALcX1eGDWwUdwwnI5dX7MIl0-b960ewB3eStmR-pV_6kJWHmkjaEuvHjtG_tjzpzP9Dsq-GtlVoM.yjhQArGSahUDokrAJ3Z7IyfB57TGcwKDvJewCi_gtoU%26dib_tag%3Dse%26keywords%3DSamsung%2Btablet%26qid%3D1711016587%26sprefix%3Dsams%252Caps%252C305%26sr%3D8-12-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
+  </si>
+  <si>
+    <t>Galaxy Tab A7 Lite (2021, 32GB, 3GB RAM) 8.7" (WiFi + Cellular) 5100mAh Battery, Android 11, 4G LTE Tablet GSM Unlocked, International Model - SM-T225 (Fast Car Charger Bundle, Gray)</t>
   </si>
   <si>
     <t>4.2 out of 5 stars</t>
   </si>
   <si>
-    <t>https://www.amazon.com/Samsung-Cellular-5100mAh-Unlocked-International/dp/B0973MR9XX/ref=sr_1_18?crid=3QE79MH0VBJY7&amp;dib=eyJ2IjoiMSJ9.jJO6Tdz4qWTToEKLv-21nMlRhZRnnIV14CeGv30l2dY6v-R8Cd3-iJlXZSzuifM-DGMFIF_S5ym-b8SN2mOsOlwQ_ZRYQqLz5TZo-TA8Vcl8N8GEUzxHjSpY2DJsMZwNONk27DS7SiooDulYSJUFmcWf8xJebelYUzmLrALiJ57B2e-IzSXK3YnjYH8Ou8_Kme8b-sEuRX9ilw8EMFlo-cwYQYV5pTO9AwekT_Ra_PM6yVUyQkswXQuMSgPIljj5sy0t3Cyzd9F4BrtNLqzGNnku0YMkWD0TiAc0EH_VoxU.mkX28vErxXC2oMmQn249OnQ789PfQDVVXNdjkAWkcy8&amp;dib_tag=se&amp;keywords=Samsung+tablet&amp;qid=1711015958&amp;sprefix=sams%2Caps%2C300&amp;sr=8-18</t>
-  </si>
-  <si>
-    <t>Samsung Galaxy Tab A7 Lite 8.7" (2021, WiFi + Cellular) 32GB 4G LTE Tablet &amp; Phone (Makes Calls) GSM Unlocked, International Model w/US Charging Cube - SM-T225 (Grey, LTE+WiFi)</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Samsung-Cellular-Unlocked-International-Charging/dp/B0971FL729/ref=sr_1_31?crid=3QE79MH0VBJY7&amp;dib=eyJ2IjoiMSJ9.jJO6Tdz4qWTToEKLv-21nMlRhZRnnIV14CeGv30l2dY6v-R8Cd3-iJlXZSzuifM-DGMFIF_S5ym-b8SN2mOsOlwQ_ZRYQqLz5TZo-TA8Vcl8N8GEUzxHjSpY2DJsMZwNONk27DS7SiooDulYSJUFmcWf8xJebelYUzmLrALiJ57B2e-IzSXK3YnjYH8Ou8_Kme8b-sEuRX9ilw8EMFlo-cwYQYV5pTO9AwekT_Ra_PM6yVUyQkswXQuMSgPIljj5sy0t3Cyzd9F4BrtNLqzGNnku0YMkWD0TiAc0EH_VoxU.mkX28vErxXC2oMmQn249OnQ789PfQDVVXNdjkAWkcy8&amp;dib_tag=se&amp;keywords=Samsung+tablet&amp;qid=1711015958&amp;sprefix=sams%2Caps%2C300&amp;sr=8-31</t>
+    <t>https://www.amazon.com/Samsung-Cellular-5100mAh-Unlocked-International/dp/B0973MR9XX/ref=sr_1_18?crid=TR6ZCELH2F89&amp;dib=eyJ2IjoiMSJ9.jJO6Tdz4qWTToEKLv-21nMlRhZRnnIV14CeGv30l2dY6v-R8Cd3-iJlXZSzuifM-DGMFIF_S5ym-b8SN2mOsOoIDpU9q8snFDiQrnivuQH4oiDKmO9TSRMspjwQoQC3FCyMDng1OqBoV0Z1txGFFuJpGFPe_ZiXALcX1eGDWwUdwwnI5dX7MIl0-b960ewB3eStmR-pV_6kJWHmkjaEuvHjtG_tjzpzP9Dsq-GtlVoM.yjhQArGSahUDokrAJ3Z7IyfB57TGcwKDvJewCi_gtoU&amp;dib_tag=se&amp;keywords=Samsung+tablet&amp;qid=1711016587&amp;sprefix=sams%2Caps%2C305&amp;sr=8-18</t>
   </si>
   <si>
     <t>SAMSUNG SM-T290NZKAXAR, Galaxy Tab A 8.0" 32 GB Wifi Android 9.0 Pie Tablet Black 2019</t>
   </si>
   <si>
-    <t>https://www.amazon.com/Samsung-Galaxy-Android-Tablet-Black/dp/B07VDB92RK/ref=sr_1_25?crid=3QE79MH0VBJY7&amp;dib=eyJ2IjoiMSJ9.jJO6Tdz4qWTToEKLv-21nMlRhZRnnIV14CeGv30l2dY6v-R8Cd3-iJlXZSzuifM-DGMFIF_S5ym-b8SN2mOsOlwQ_ZRYQqLz5TZo-TA8Vcl8N8GEUzxHjSpY2DJsMZwNONk27DS7SiooDulYSJUFmcWf8xJebelYUzmLrALiJ57B2e-IzSXK3YnjYH8Ou8_Kme8b-sEuRX9ilw8EMFlo-cwYQYV5pTO9AwekT_Ra_PM6yVUyQkswXQuMSgPIljj5sy0t3Cyzd9F4BrtNLqzGNnku0YMkWD0TiAc0EH_VoxU.mkX28vErxXC2oMmQn249OnQ789PfQDVVXNdjkAWkcy8&amp;dib_tag=se&amp;keywords=Samsung+tablet&amp;qid=1711015958&amp;sprefix=sams%2Caps%2C300&amp;sr=8-25</t>
-  </si>
-  <si>
-    <t>Android 13 Tablet, 10 inch Tablets with Case, Stylus, 12GB RAM 128GB ROM 1TB Expand, Octa Core Processor, 6000mAh, 2.4G/5G WiFi, GPS, Dual Camera, IPS HD Touch Screen (Blue)</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MToxODI3MTk3ODE3MzU2MDgwOjE3MTEwMTU5NTg6c3BfbXRmOjMwMDE1MTU3MDIyODgwMjo6MDo6&amp;url=%2FAndroid-Tablet-Tablets-Processor-6000mAh%2Fdp%2FB0CQ539HHQ%2Fref%3Dsr_1_21_sspa%3Fcrid%3D3QE79MH0VBJY7%26dib%3DeyJ2IjoiMSJ9.jJO6Tdz4qWTToEKLv-21nMlRhZRnnIV14CeGv30l2dY6v-R8Cd3-iJlXZSzuifM-DGMFIF_S5ym-b8SN2mOsOlwQ_ZRYQqLz5TZo-TA8Vcl8N8GEUzxHjSpY2DJsMZwNONk27DS7SiooDulYSJUFmcWf8xJebelYUzmLrALiJ57B2e-IzSXK3YnjYH8Ou8_Kme8b-sEuRX9ilw8EMFlo-cwYQYV5pTO9AwekT_Ra_PM6yVUyQkswXQuMSgPIljj5sy0t3Cyzd9F4BrtNLqzGNnku0YMkWD0TiAc0EH_VoxU.mkX28vErxXC2oMmQn249OnQ789PfQDVVXNdjkAWkcy8%26dib_tag%3Dse%26keywords%3DSamsung%2Btablet%26qid%3D1711015958%26sprefix%3Dsams%252Caps%252C300%26sr%3D8-21-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
-  </si>
-  <si>
-    <t>Latest Android 13 Tablet, 10.1 Inch Tablet with 2.0 GHz Quad-Core Processor, 64GB ROM, 1TB Expandable, Dual Auto Focus Camera with Face ID Unlock, GPS, Parental Control, 2.4G &amp; 5G WiFi Tableta</t>
-  </si>
-  <si>
-    <t>4.0 out of 5 stars</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MToxODI3MTk3ODE3MzU2MDgwOjE3MTEwMTU5NTg6c3BfbXRmOjMwMDAzOTY4OTkyODYwMjo6MDo6&amp;url=%2FTopsand-Android-13-Tablet-GPS%2Fdp%2FB0CBRHHWL6%2Fref%3Dsr_1_20_sspa%3Fcrid%3D3QE79MH0VBJY7%26dib%3DeyJ2IjoiMSJ9.jJO6Tdz4qWTToEKLv-21nMlRhZRnnIV14CeGv30l2dY6v-R8Cd3-iJlXZSzuifM-DGMFIF_S5ym-b8SN2mOsOlwQ_ZRYQqLz5TZo-TA8Vcl8N8GEUzxHjSpY2DJsMZwNONk27DS7SiooDulYSJUFmcWf8xJebelYUzmLrALiJ57B2e-IzSXK3YnjYH8Ou8_Kme8b-sEuRX9ilw8EMFlo-cwYQYV5pTO9AwekT_Ra_PM6yVUyQkswXQuMSgPIljj5sy0t3Cyzd9F4BrtNLqzGNnku0YMkWD0TiAc0EH_VoxU.mkX28vErxXC2oMmQn249OnQ789PfQDVVXNdjkAWkcy8%26dib_tag%3Dse%26keywords%3DSamsung%2Btablet%26qid%3D1711015958%26sprefix%3Dsams%252Caps%252C300%26sr%3D8-20-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
-  </si>
-  <si>
-    <t>Lenovo Tab M9-2023 - Tablet - Long Battery Life - 9" HD - Front 2MP &amp; Rear 8MP Camera - 3GB Memory - 32GB Storage - Android 12 or Later - Folio Case Included,Gray</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Lenovo-Tab-M9-2023-Battery-Included/dp/B0BYPHZWZK/ref=sr_1_24?crid=3QE79MH0VBJY7&amp;dib=eyJ2IjoiMSJ9.jJO6Tdz4qWTToEKLv-21nMlRhZRnnIV14CeGv30l2dY6v-R8Cd3-iJlXZSzuifM-DGMFIF_S5ym-b8SN2mOsOlwQ_ZRYQqLz5TZo-TA8Vcl8N8GEUzxHjSpY2DJsMZwNONk27DS7SiooDulYSJUFmcWf8xJebelYUzmLrALiJ57B2e-IzSXK3YnjYH8Ou8_Kme8b-sEuRX9ilw8EMFlo-cwYQYV5pTO9AwekT_Ra_PM6yVUyQkswXQuMSgPIljj5sy0t3Cyzd9F4BrtNLqzGNnku0YMkWD0TiAc0EH_VoxU.mkX28vErxXC2oMmQn249OnQ789PfQDVVXNdjkAWkcy8&amp;dib_tag=se&amp;keywords=Samsung+tablet&amp;qid=1711015958&amp;sprefix=sams%2Caps%2C300&amp;sr=8-24</t>
-  </si>
-  <si>
-    <t>Samsung Galaxy Tab A 8.0 T387A 32GB Unlocked AT&amp;T Tablet - Black</t>
+    <t>https://www.amazon.com/Samsung-Galaxy-Android-Tablet-Black/dp/B07VDB92RK/ref=sr_1_20?crid=TR6ZCELH2F89&amp;dib=eyJ2IjoiMSJ9.jJO6Tdz4qWTToEKLv-21nMlRhZRnnIV14CeGv30l2dY6v-R8Cd3-iJlXZSzuifM-DGMFIF_S5ym-b8SN2mOsOoIDpU9q8snFDiQrnivuQH4oiDKmO9TSRMspjwQoQC3FCyMDng1OqBoV0Z1txGFFuJpGFPe_ZiXALcX1eGDWwUdwwnI5dX7MIl0-b960ewB3eStmR-pV_6kJWHmkjaEuvHjtG_tjzpzP9Dsq-GtlVoM.yjhQArGSahUDokrAJ3Z7IyfB57TGcwKDvJewCi_gtoU&amp;dib_tag=se&amp;keywords=Samsung+tablet&amp;qid=1711016587&amp;sprefix=sams%2Caps%2C305&amp;sr=8-20</t>
+  </si>
+  <si>
+    <t>Tab M9-2023 - Tablet - Long Battery Life - 9" HD - Front 2MP &amp; Rear 8MP Camera - 3GB Memory - 32GB Storage - Android 12 or Later - Folio Case Included,Gray</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Lenovo-Tab-M9-2023-Battery-Included/dp/B0BYPHZWZK/ref=sr_1_13?crid=TR6ZCELH2F89&amp;dib=eyJ2IjoiMSJ9.jJO6Tdz4qWTToEKLv-21nMlRhZRnnIV14CeGv30l2dY6v-R8Cd3-iJlXZSzuifM-DGMFIF_S5ym-b8SN2mOsOoIDpU9q8snFDiQrnivuQH4oiDKmO9TSRMspjwQoQC3FCyMDng1OqBoV0Z1txGFFuJpGFPe_ZiXALcX1eGDWwUdwwnI5dX7MIl0-b960ewB3eStmR-pV_6kJWHmkjaEuvHjtG_tjzpzP9Dsq-GtlVoM.yjhQArGSahUDokrAJ3Z7IyfB57TGcwKDvJewCi_gtoU&amp;dib_tag=se&amp;keywords=Samsung+tablet&amp;qid=1711016587&amp;sprefix=sams%2Caps%2C305&amp;sr=8-13</t>
+  </si>
+  <si>
+    <t>Galaxy Tab A 8.0 T387A 32GB Unlocked AT&amp;T Tablet - Black</t>
   </si>
   <si>
     <t>3.9 out of 5 stars</t>
   </si>
   <si>
-    <t>https://www.amazon.com/Samsung-Galaxy-T387A-Unlocked-Tablet/dp/B07XDM26Z3/ref=sr_1_23?crid=3QE79MH0VBJY7&amp;dib=eyJ2IjoiMSJ9.jJO6Tdz4qWTToEKLv-21nMlRhZRnnIV14CeGv30l2dY6v-R8Cd3-iJlXZSzuifM-DGMFIF_S5ym-b8SN2mOsOlwQ_ZRYQqLz5TZo-TA8Vcl8N8GEUzxHjSpY2DJsMZwNONk27DS7SiooDulYSJUFmcWf8xJebelYUzmLrALiJ57B2e-IzSXK3YnjYH8Ou8_Kme8b-sEuRX9ilw8EMFlo-cwYQYV5pTO9AwekT_Ra_PM6yVUyQkswXQuMSgPIljj5sy0t3Cyzd9F4BrtNLqzGNnku0YMkWD0TiAc0EH_VoxU.mkX28vErxXC2oMmQn249OnQ789PfQDVVXNdjkAWkcy8&amp;dib_tag=se&amp;keywords=Samsung+tablet&amp;qid=1711015958&amp;sprefix=sams%2Caps%2C300&amp;sr=8-23</t>
-  </si>
-  <si>
-    <t>Android Tablet, 10.1 Inch Tablet, 4GB+64GB, 1TB Expandable Android 12 Tablet with 8000mAh Battery, 5+8MP Dual Camera, FHD Touch Screen, Bluetooth, WiFi, Google GMS Certified Computer Tablets PC</t>
-  </si>
-  <si>
-    <t>3.5 out of 5 stars</t>
-  </si>
-  <si>
-    <t>https://aax-us-iad.amazon.com/x/c/RHd5EKfLHVde3GnCp9qu8LkAAAGOYH-XjQEAAAH2AQBvbm9fdHhuX2JpZDIgICBvbm9fdHhuX2ltcDEgICB8b-3Z/https://www.amazon.com/Android-Expandable-Bluetooth-Certified-Computer/dp/B0CQP9HTVT/ref=sxin_15_sbv_search_btf?content-id=amzn1.sym.c44d9f79-d706-4fe9-a72f-cc7d2fe3208f%3Aamzn1.sym.c44d9f79-d706-4fe9-a72f-cc7d2fe3208f&amp;crid=3QE79MH0VBJY7&amp;cv_ct_cx=Samsung+tablet&amp;dib=eyJ2IjoiMSJ9.Ewmj8fuZ6EZZlJ11WoCWVw.T_ppRMXtWMWkifTcE3eOmSGUhaMfgNLTzsqzr-bUkTI&amp;dib_tag=se&amp;keywords=Samsung+tablet&amp;pd_rd_i=B0CQP9HTVT&amp;pd_rd_r=2470b98d-933f-4008-af51-9a4af54e5af1&amp;pd_rd_w=FcLKx&amp;pd_rd_wg=1ScGJ&amp;pf_rd_p=c44d9f79-d706-4fe9-a72f-cc7d2fe3208f&amp;pf_rd_r=Q9ZF0B2722WFZKKVTWP4&amp;qid=1711015958&amp;sbo=RZvfv%2F%2FHxDF%2BO5021pAnSA%3D%3D&amp;sprefix=sams%2Caps%2C300&amp;sr=1-1-5190daf0-67e3-427c-bea6-c72c1df98776</t>
-  </si>
-  <si>
-    <t>Kids Tablet 10 inch Tablet for Kids, Android 13 Kid Tablet 6(2+4) GB 64GB, 128GB Expand, Parent Controls, 5+8MP Dual Camera, 5000mAh Android Tablet with Case (Blue)</t>
-  </si>
-  <si>
-    <t>3.7 out of 5 stars</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MToxODI3MTk3ODE3MzU2MDgwOjE3MTEwMTU5NTg6c3BfbXRmOjMwMDE1MTAwNTU2MTMwMjo6MDo6&amp;url=%2FCheerjoy-Tablet-Android-Controls-5000mAh%2Fdp%2FB0CN2XMHYM%2Fref%3Dsr_1_19_sspa%3Fcrid%3D3QE79MH0VBJY7%26dib%3DeyJ2IjoiMSJ9.jJO6Tdz4qWTToEKLv-21nMlRhZRnnIV14CeGv30l2dY6v-R8Cd3-iJlXZSzuifM-DGMFIF_S5ym-b8SN2mOsOlwQ_ZRYQqLz5TZo-TA8Vcl8N8GEUzxHjSpY2DJsMZwNONk27DS7SiooDulYSJUFmcWf8xJebelYUzmLrALiJ57B2e-IzSXK3YnjYH8Ou8_Kme8b-sEuRX9ilw8EMFlo-cwYQYV5pTO9AwekT_Ra_PM6yVUyQkswXQuMSgPIljj5sy0t3Cyzd9F4BrtNLqzGNnku0YMkWD0TiAc0EH_VoxU.mkX28vErxXC2oMmQn249OnQ789PfQDVVXNdjkAWkcy8%26dib_tag%3Dse%26keywords%3DSamsung%2Btablet%26qid%3D1711015958%26sprefix%3Dsams%252Caps%252C300%26sr%3D8-19-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
-  </si>
-  <si>
-    <t>10 inch Tablet Android 13 Tablets, 4GB RAM 64GB ROM 512GB Expand, Quad-Core Processor, 1280x800 IPS HD Touch Screen, GPS, WiFi, Dual Camera, Bluetooth, 6000mAh Battery (Gray)</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MToxODI3MTk3ODE3MzU2MDgwOjE3MTEwMTU5NTg6c3BfbXRmOjMwMDE1MzQ4ODY1MTEwMjo6MDo6&amp;url=%2FAndroid-Quad-Core-Processor-1280x800-Bluetooth%2Fdp%2FB0CRL17YGJ%2Fref%3Dsr_1_12_sspa%3Fcrid%3D3QE79MH0VBJY7%26dib%3DeyJ2IjoiMSJ9.jJO6Tdz4qWTToEKLv-21nMlRhZRnnIV14CeGv30l2dY6v-R8Cd3-iJlXZSzuifM-DGMFIF_S5ym-b8SN2mOsOlwQ_ZRYQqLz5TZo-TA8Vcl8N8GEUzxHjSpY2DJsMZwNONk27DS7SiooDulYSJUFmcWf8xJebelYUzmLrALiJ57B2e-IzSXK3YnjYH8Ou8_Kme8b-sEuRX9ilw8EMFlo-cwYQYV5pTO9AwekT_Ra_PM6yVUyQkswXQuMSgPIljj5sy0t3Cyzd9F4BrtNLqzGNnku0YMkWD0TiAc0EH_VoxU.mkX28vErxXC2oMmQn249OnQ789PfQDVVXNdjkAWkcy8%26dib_tag%3Dse%26keywords%3DSamsung%2Btablet%26qid%3D1711015958%26sprefix%3Dsams%252Caps%252C300%26sr%3D8-12-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
-  </si>
-  <si>
-    <t>Android Tablet, 10.1 inch Android 13 Tablets 6GB RAM 64GB ROM 1TB Expand, 1280x800 IPS HD Touchscreen,6000mAh Battery, Bluetooth, Dual Camera, GMS, WiFi (Black)</t>
-  </si>
-  <si>
-    <t>3.6 out of 5 stars</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MToxODI3MTk3ODE3MzU2MDgwOjE3MTEwMTU5NTg6c3BfbXRmOjMwMDA1ODc3MTk5NzEwMjo6MDo6&amp;url=%2FAndroid-Tablets-1280x800-Touchscreen-Bluetooth%2Fdp%2FB0CGLG2RVT%2Fref%3Dsr_1_14_sspa%3Fcrid%3D3QE79MH0VBJY7%26dib%3DeyJ2IjoiMSJ9.jJO6Tdz4qWTToEKLv-21nMlRhZRnnIV14CeGv30l2dY6v-R8Cd3-iJlXZSzuifM-DGMFIF_S5ym-b8SN2mOsOlwQ_ZRYQqLz5TZo-TA8Vcl8N8GEUzxHjSpY2DJsMZwNONk27DS7SiooDulYSJUFmcWf8xJebelYUzmLrALiJ57B2e-IzSXK3YnjYH8Ou8_Kme8b-sEuRX9ilw8EMFlo-cwYQYV5pTO9AwekT_Ra_PM6yVUyQkswXQuMSgPIljj5sy0t3Cyzd9F4BrtNLqzGNnku0YMkWD0TiAc0EH_VoxU.mkX28vErxXC2oMmQn249OnQ789PfQDVVXNdjkAWkcy8%26dib_tag%3Dse%26keywords%3DSamsung%2Btablet%26qid%3D1711015958%26sprefix%3Dsams%252Caps%252C300%26sr%3D8-14-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
-  </si>
-  <si>
-    <t>Android 13 Tablet, Octa-Core Android Tablet, 10 inch Tablet, 6(4+2) RAM 64GB ROM (1TB TF) Tablet Android with Bluetooth, WiFi, Dual Camera, Fast Charging (Gray)</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MToxODI3MTk3ODE3MzU2MDgwOjE3MTEwMTU5NTg6c3BfbXRmOjMwMDE1MDg4NDg3NjQwMjo6MDo6&amp;url=%2FLville-Android-Octa-Core-Bluetooth-Charging%2Fdp%2FB0CKSJ29N8%2Fref%3Dsr_1_22_sspa%3Fcrid%3D3QE79MH0VBJY7%26dib%3DeyJ2IjoiMSJ9.jJO6Tdz4qWTToEKLv-21nMlRhZRnnIV14CeGv30l2dY6v-R8Cd3-iJlXZSzuifM-DGMFIF_S5ym-b8SN2mOsOlwQ_ZRYQqLz5TZo-TA8Vcl8N8GEUzxHjSpY2DJsMZwNONk27DS7SiooDulYSJUFmcWf8xJebelYUzmLrALiJ57B2e-IzSXK3YnjYH8Ou8_Kme8b-sEuRX9ilw8EMFlo-cwYQYV5pTO9AwekT_Ra_PM6yVUyQkswXQuMSgPIljj5sy0t3Cyzd9F4BrtNLqzGNnku0YMkWD0TiAc0EH_VoxU.mkX28vErxXC2oMmQn249OnQ789PfQDVVXNdjkAWkcy8%26dib_tag%3Dse%26keywords%3DSamsung%2Btablet%26qid%3D1711015958%26sprefix%3Dsams%252Caps%252C300%26sr%3D8-22-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
+    <t>https://www.amazon.com/Samsung-Galaxy-T387A-Unlocked-Tablet/dp/B07XDM26Z3/ref=sr_1_14?crid=TR6ZCELH2F89&amp;dib=eyJ2IjoiMSJ9.jJO6Tdz4qWTToEKLv-21nMlRhZRnnIV14CeGv30l2dY6v-R8Cd3-iJlXZSzuifM-DGMFIF_S5ym-b8SN2mOsOoIDpU9q8snFDiQrnivuQH4oiDKmO9TSRMspjwQoQC3FCyMDng1OqBoV0Z1txGFFuJpGFPe_ZiXALcX1eGDWwUdwwnI5dX7MIl0-b960ewB3eStmR-pV_6kJWHmkjaEuvHjtG_tjzpzP9Dsq-GtlVoM.yjhQArGSahUDokrAJ3Z7IyfB57TGcwKDvJewCi_gtoU&amp;dib_tag=se&amp;keywords=Samsung+tablet&amp;qid=1711016587&amp;sprefix=sams%2Caps%2C305&amp;sr=8-14</t>
   </si>
   <si>
     <t>SAMSUNG Galaxy Tab A7 Lite 8.7" 32GB WiFi Android Tablet, Compact, Portable, Slim Design, Kid Friendly, Sturdy Metal Frame, Expandable Storage, Long Lasting Battery, US Version, 2021, Silver</t>
   </si>
   <si>
-    <t>https://www.amazon.com/SAMSUNG-Android-Compact-Lasting-Battery/dp/B094PXZMP6/ref=sr_1_9?crid=3QE79MH0VBJY7&amp;dib=eyJ2IjoiMSJ9.jJO6Tdz4qWTToEKLv-21nMlRhZRnnIV14CeGv30l2dY6v-R8Cd3-iJlXZSzuifM-DGMFIF_S5ym-b8SN2mOsOlwQ_ZRYQqLz5TZo-TA8Vcl8N8GEUzxHjSpY2DJsMZwNONk27DS7SiooDulYSJUFmcWf8xJebelYUzmLrALiJ57B2e-IzSXK3YnjYH8Ou8_Kme8b-sEuRX9ilw8EMFlo-cwYQYV5pTO9AwekT_Ra_PM6yVUyQkswXQuMSgPIljj5sy0t3Cyzd9F4BrtNLqzGNnku0YMkWD0TiAc0EH_VoxU.mkX28vErxXC2oMmQn249OnQ789PfQDVVXNdjkAWkcy8&amp;dib_tag=se&amp;keywords=Samsung+tablet&amp;qid=1711015958&amp;sprefix=sams%2Caps%2C300&amp;sr=8-9</t>
+    <t>https://www.amazon.com/SAMSUNG-Android-Compact-Lasting-Battery/dp/B094PXZMP6/ref=sr_1_8?crid=TR6ZCELH2F89&amp;dib=eyJ2IjoiMSJ9.jJO6Tdz4qWTToEKLv-21nMlRhZRnnIV14CeGv30l2dY6v-R8Cd3-iJlXZSzuifM-DGMFIF_S5ym-b8SN2mOsOoIDpU9q8snFDiQrnivuQH4oiDKmO9TSRMspjwQoQC3FCyMDng1OqBoV0Z1txGFFuJpGFPe_ZiXALcX1eGDWwUdwwnI5dX7MIl0-b960ewB3eStmR-pV_6kJWHmkjaEuvHjtG_tjzpzP9Dsq-GtlVoM.yjhQArGSahUDokrAJ3Z7IyfB57TGcwKDvJewCi_gtoU&amp;dib_tag=se&amp;keywords=Samsung+tablet&amp;qid=1711016587&amp;sprefix=sams%2Caps%2C305&amp;sr=8-8</t>
   </si>
 </sst>
 </file>
@@ -628,7 +616,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1587605E-EA67-420F-9F0E-38EC437388D9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B1B8907-01C3-4310-98B0-20813031D1D2}">
   <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -660,7 +648,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="51" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -694,86 +682,86 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="1">
-        <v>509</v>
+        <v>796</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="1">
+        <v>398</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="1">
-        <v>6320</v>
-      </c>
-      <c r="E4" s="1" t="s">
+    </row>
+    <row r="5" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="B5" s="1">
+        <v>599</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="B5" s="1">
-        <v>349</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="D5" s="1">
         <v>476</v>
       </c>
       <c r="E5" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="51" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="B6" s="1">
+        <v>569</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="1">
-        <v>349</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="D6" s="1">
-        <v>476</v>
+        <v>291</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="51" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B7" s="1">
+        <v>441</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="1">
         <v>291</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="1">
-        <v>7021</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="51" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B8" s="1">
-        <v>268</v>
+        <v>349</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D8" s="1">
-        <v>1859</v>
+        <v>476</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>21</v>
@@ -784,344 +772,344 @@
         <v>22</v>
       </c>
       <c r="B9" s="1">
-        <v>243</v>
+        <v>349</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="1">
+        <v>476</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="1">
-        <v>323</v>
-      </c>
-      <c r="E9" s="1" t="s">
+    </row>
+    <row r="10" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="B10" s="1">
+        <v>291</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="1">
-        <v>229</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="D10" s="1">
-        <v>250</v>
+        <v>7021</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B11" s="1">
+        <v>268</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1859</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="51" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="1">
         <v>229</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" s="1">
+      <c r="C12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="1">
         <v>250</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12" s="1">
-        <v>219</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" s="1">
-        <v>18145</v>
-      </c>
       <c r="E12" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B13" s="1">
-        <v>199</v>
+        <v>229</v>
       </c>
       <c r="C13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="1">
+        <v>250</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="1">
-        <v>395</v>
-      </c>
-      <c r="E13" s="1" t="s">
+    </row>
+    <row r="14" spans="1:5" ht="51" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+      <c r="B14" s="1">
+        <v>219</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="1">
+        <v>442</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B14" s="1">
-        <v>188</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14" s="1">
-        <v>23026</v>
-      </c>
-      <c r="E14" s="1" t="s">
+    </row>
+    <row r="15" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="1">
+        <v>219</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="1">
+        <v>442</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+    <row r="16" spans="1:5" ht="51" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B15" s="1">
-        <v>169</v>
-      </c>
-      <c r="C15" s="1" t="s">
+      <c r="B16" s="1">
+        <v>219</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="1">
+        <v>442</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="D15" s="1">
-        <v>11</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B16" s="1">
-        <v>164</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D16" s="1">
-        <v>401</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" s="1">
+        <v>219</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" s="1">
+        <v>18145</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" s="1">
+        <v>219</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="1">
+        <v>442</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B17" s="1">
-        <v>157</v>
-      </c>
-      <c r="C17" s="1" t="s">
+    </row>
+    <row r="19" spans="1:5" ht="51" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D17" s="1">
-        <v>422</v>
-      </c>
-      <c r="E17" s="1" t="s">
+      <c r="B19" s="1">
+        <v>210</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="1">
+        <v>23026</v>
+      </c>
+      <c r="E19" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+    <row r="20" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B18" s="1">
-        <v>154</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D18" s="1">
-        <v>1094</v>
-      </c>
-      <c r="E18" s="1" t="s">
+      <c r="B20" s="1">
+        <v>199</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+      <c r="D20" s="1">
+        <v>395</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B19" s="1">
-        <v>148</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D19" s="1">
-        <v>10341</v>
-      </c>
-      <c r="E19" s="1" t="s">
+    </row>
+    <row r="21" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+      <c r="B21" s="1">
+        <v>188</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="1">
+        <v>23026</v>
+      </c>
+      <c r="E21" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="B20" s="1">
-        <v>119</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D20" s="1">
-        <v>4</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B21" s="1">
-        <v>99</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D21" s="1">
-        <v>33</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B22" s="1">
+        <v>179</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D22" s="1">
+        <v>1</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="51" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B23" s="1">
+        <v>169</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" s="1">
+        <v>442</v>
+      </c>
+      <c r="E23" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B22" s="1">
+    </row>
+    <row r="24" spans="1:5" ht="51" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B24" s="1">
+        <v>169</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D24" s="1">
+        <v>11</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B25" s="1">
+        <v>157</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D25" s="1">
+        <v>422</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B26" s="1">
+        <v>148</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26" s="1">
+        <v>10341</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B27" s="1">
         <v>99</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D22" s="1">
+      <c r="C27" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D27" s="1">
         <v>657</v>
       </c>
-      <c r="E22" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B23" s="1">
+      <c r="E27" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B28" s="1">
         <v>94</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D23" s="1">
+      <c r="C28" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D28" s="1">
         <v>565</v>
       </c>
-      <c r="E23" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B24" s="1">
-        <v>79</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D24" s="1">
-        <v>28</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B25" s="1">
-        <v>64</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D25" s="1">
-        <v>12</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B26" s="1">
-        <v>57</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D26" s="1">
-        <v>12</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
+      <c r="E28" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="B27" s="1">
-        <v>56</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D27" s="1">
-        <v>402</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B28" s="1">
-        <v>55</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D28" s="1">
-        <v>90</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>6</v>
@@ -1130,7 +1118,7 @@
         <v>3977</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -1139,7 +1127,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8A8B6E6-1643-4CBC-827B-C7416A5D8D15}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AC6A80D-95F4-4031-862C-D16DA029CE76}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/Data/Output/Carl.xlsx
+++ b/Data/Output/Carl.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Panda\Documents\UiPath\Final Project\Data\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE12D312-151C-419E-B88D-A9247006C65C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2609E844-A950-4CC7-910D-C4DB1BFE2211}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1335" yWindow="2430" windowWidth="12120" windowHeight="15555" xr2:uid="{9D382384-7E68-45AE-9DC1-E061A5703A1C}"/>
+    <workbookView xWindow="1335" yWindow="2430" windowWidth="12120" windowHeight="15555" xr2:uid="{227EF3FB-ED64-4F81-838E-A70E0B973761}"/>
   </bookViews>
   <sheets>
     <sheet name="Samsung tablet" sheetId="2" r:id="rId1"/>
@@ -52,61 +52,61 @@
     <t>URL</t>
   </si>
   <si>
-    <t>Galaxy Tab S9+ Plus 12.4” 512GB , WiFi 6E Android Tablet, Snapdragon 8 Gen2 Processor, AMOLED Screen,S Pen, IP68 Rating, US Version,2023,Graphite</t>
+    <t>SAMSUNG Galaxy Tab S9+ Plus 12.4” 256GB , WiFi 6E Android Tablet, Snapdragon 8 Gen 2 Processor, AMOLED Screen, S Pen, Long Battery Life, IP68 Rating,US Version,2023,Beige</t>
   </si>
   <si>
     <t>4.5 out of 5 stars</t>
   </si>
   <si>
-    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MToxNDI0Nzk4NzMzMjg4MDgwOjE3MTEwMTY1ODc6c3BfbXRmOjMwMDAzMjkzOTAyODYwMjo6MDo6&amp;url=%2FSAMSUNG-Android-Snapdragon-Processor-Graphite%2Fdp%2FB0C4BB67Y8%2Fref%3Dsr_1_7_sspa%3Fcrid%3DTR6ZCELH2F89%26dib%3DeyJ2IjoiMSJ9.jJO6Tdz4qWTToEKLv-21nMlRhZRnnIV14CeGv30l2dY6v-R8Cd3-iJlXZSzuifM-DGMFIF_S5ym-b8SN2mOsOoIDpU9q8snFDiQrnivuQH4oiDKmO9TSRMspjwQoQC3FCyMDng1OqBoV0Z1txGFFuJpGFPe_ZiXALcX1eGDWwUdwwnI5dX7MIl0-b960ewB3eStmR-pV_6kJWHmkjaEuvHjtG_tjzpzP9Dsq-GtlVoM.yjhQArGSahUDokrAJ3Z7IyfB57TGcwKDvJewCi_gtoU%26dib_tag%3Dse%26keywords%3DSamsung%2Btablet%26qid%3D1711016587%26sprefix%3Dsams%252Caps%252C305%26sr%3D8-7-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
+    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo1NjIzMTI2MTE4Mjk4MDgwOjE3MTEwMjQ1OTM6c3Bfc2VhcmNoX3RoZW1hdGljOjMwMDAxOTg0MTEyODAwMjo6Mjo6&amp;url=%2FSAMSUNG-Android-Snapdragon-Processor-Battery%2Fdp%2FB0C4B92LTJ%2Fref%3Dsxin_34_pa_sp_search_thematic_sspa%3Fcontent-id%3Damzn1.sym.d4fdc453-1595-4f7b-ba6a-eb2ac554591f%253Aamzn1.sym.d4fdc453-1595-4f7b-ba6a-eb2ac554591f%26crid%3D2TCNLNNT53CHD%26cv_ct_cx%3DSamsung%2Btablet%26dib%3DeyJ2IjoiMSJ9.H8IGP6LxMf_08154v6dn8UNDAiUG-IzZ4nBgpEHHsusV7Eox8qhxzh2jjalgw3pG.8fhnNTOnPIEXzWuHNeXjNSu0-XUsFRNcD9ie18YLcLI%26dib_tag%3Dse%26keywords%3DSamsung%2Btablet%26pd_rd_i%3DB0C4B92LTJ%26pd_rd_r%3Dbea877a3-a3a2-4ef3-9f36-33d8075765a5%26pd_rd_w%3DaGCgT%26pd_rd_wg%3DbMBg5%26pf_rd_p%3Dd4fdc453-1595-4f7b-ba6a-eb2ac554591f%26pf_rd_r%3D883RDQQ367SZD53Y2E2E%26qid%3D1711024593%26sbo%3DRZvfv%252F%252FHxDF%252BO5021pAnSA%253D%253D%26sprefix%3Dsams%252Caps%252C328%26sr%3D1-3-364cf978-ce2a-480a-9bb0-bdb96faa0f61-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9zZWFyY2hfdGhlbWF0aWM%26psc%3D1</t>
   </si>
   <si>
     <t>Galaxy Tab S9+ Plus 12.4” 256GB , WiFi 6E Android Tablet, Snapdragon 8 Gen 2 Processor, AMOLED Screen,S Pen, IP68 Rating, US Version,2023,Graphite</t>
   </si>
   <si>
-    <t>https://www.amazon.com/SAMSUNG-Android-Snapdragon-Processor-Graphite/dp/B0C4BBNP7R/ref=sr_1_15?crid=TR6ZCELH2F89&amp;dib=eyJ2IjoiMSJ9.jJO6Tdz4qWTToEKLv-21nMlRhZRnnIV14CeGv30l2dY6v-R8Cd3-iJlXZSzuifM-DGMFIF_S5ym-b8SN2mOsOoIDpU9q8snFDiQrnivuQH4oiDKmO9TSRMspjwQoQC3FCyMDng1OqBoV0Z1txGFFuJpGFPe_ZiXALcX1eGDWwUdwwnI5dX7MIl0-b960ewB3eStmR-pV_6kJWHmkjaEuvHjtG_tjzpzP9Dsq-GtlVoM.yjhQArGSahUDokrAJ3Z7IyfB57TGcwKDvJewCi_gtoU&amp;dib_tag=se&amp;keywords=Samsung+tablet&amp;qid=1711016587&amp;sprefix=sams%2Caps%2C305&amp;sr=8-15</t>
-  </si>
-  <si>
-    <t>SAMSUNG Galaxy Tab S9 11” 256GB , WiFi 6E Android Tablet, Snapdragon 8 Gen 2 Processor, AMOLED Screen, S Pen, IP68 Rating, US Version, 2023, Beige</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MToyMjE0OTIwODYwOTgyMDgwOjE3MTEwMTY1ODc6c3Bfc2VhcmNoX3RoZW1hdGljOjMwMDAzMjg5NjQ1MzUwMjo6Mjo6&amp;url=%2FSAMSUNG-Android-Snapdragon-Processor-Version%2Fdp%2FB0C4BBF23F%2Fref%3Dsxin_34_pa_sp_search_thematic_sspa%3Fcontent-id%3Damzn1.sym.d4fdc453-1595-4f7b-ba6a-eb2ac554591f%253Aamzn1.sym.d4fdc453-1595-4f7b-ba6a-eb2ac554591f%26crid%3DTR6ZCELH2F89%26cv_ct_cx%3DSamsung%2Btablet%26dib%3DeyJ2IjoiMSJ9.H8IGP6LxMf_08154v6dn8dAOFQnpiBARnjABpeRVREcV7Eox8qhxzh2jjalgw3pG._VVeDa3NK82TZZZ4s8gxPWcxQZ3l6C3R_qBqLB7T3t0%26dib_tag%3Dse%26keywords%3DSamsung%2Btablet%26pd_rd_i%3DB0C4BBF23F%26pd_rd_r%3D3cf22df9-ec8a-403f-83dd-8554010a2467%26pd_rd_w%3Dx4csL%26pd_rd_wg%3DbaDJS%26pf_rd_p%3Dd4fdc453-1595-4f7b-ba6a-eb2ac554591f%26pf_rd_r%3D98X6DHP83KZGNFNHQ1BQ%26qid%3D1711016587%26sbo%3DRZvfv%252F%252FHxDF%252BO5021pAnSA%253D%253D%26sprefix%3Dsams%252Caps%252C305%26sr%3D1-3-364cf978-ce2a-480a-9bb0-bdb96faa0f61-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9zZWFyY2hfdGhlbWF0aWM%26psc%3D1</t>
-  </si>
-  <si>
-    <t>Samsung Galaxy Tab S9 FE+ 12.4” 256GB Android Tablet, IP68 Water- and Dust-Resistant, Long Battery Life, Powerful Processor, S Pen, 8MP Camera, Lightweight Design, US Version, 2023, Silver</t>
+    <t>https://www.amazon.com/SAMSUNG-Android-Snapdragon-Processor-Graphite/dp/B0C4BBNP7R/ref=sr_1_13?crid=2TCNLNNT53CHD&amp;dib=eyJ2IjoiMSJ9.jJO6Tdz4qWTToEKLv-21nMlRhZRnnIV14CeGv30l2dY6v-R8Cd3-iJlXZSzuifM-DGMFIF_S5ym-b8SN2mOsOl2hXg9AWBVFsqY5U-t9Y9TfF9lxUIJ4OKlb-wwzu6sxFF-FM54pEDc98gtFnxWlZ3KoxStnUPM071Nu9FSGW76wDZsAu6SwyxF7H8TETdX2z5RuFCH6fM6FOf0LUWFxR3jtG_tjzpzP9Dsq-GtlVoM.pU-9Fqm61UgkIuv8I9r2PkOvxfFujI4mEQtq-FhsYdI&amp;dib_tag=se&amp;keywords=Samsung+tablet&amp;qid=1711024593&amp;sprefix=sams%2Caps%2C328&amp;sr=8-13</t>
+  </si>
+  <si>
+    <t>Galaxy Tab S9 11” 256GB , WiFi 6E Android Tablet, Snapdragon 8 Gen 2 Processor, AMOLED Screen, S Pen, IP68 Rating, US Version, 2023, Beige</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo0MDY3NTcxMDY5NjM2MDgwOjE3MTEwMjQ1OTM6c3BfbXRmOjMwMDAzMjg5NjQ1MzUwMjo6MDo6&amp;url=%2FSAMSUNG-Android-Snapdragon-Processor-Version%2Fdp%2FB0C4BBF23F%2Fref%3Dsr_1_7_sspa%3Fcrid%3D2TCNLNNT53CHD%26dib%3DeyJ2IjoiMSJ9.jJO6Tdz4qWTToEKLv-21nMlRhZRnnIV14CeGv30l2dY6v-R8Cd3-iJlXZSzuifM-DGMFIF_S5ym-b8SN2mOsOl2hXg9AWBVFsqY5U-t9Y9TfF9lxUIJ4OKlb-wwzu6sxFF-FM54pEDc98gtFnxWlZ3KoxStnUPM071Nu9FSGW76wDZsAu6SwyxF7H8TETdX2z5RuFCH6fM6FOf0LUWFxR3jtG_tjzpzP9Dsq-GtlVoM.pU-9Fqm61UgkIuv8I9r2PkOvxfFujI4mEQtq-FhsYdI%26dib_tag%3Dse%26keywords%3DSamsung%2Btablet%26qid%3D1711024593%26sprefix%3Dsams%252Caps%252C328%26sr%3D8-7-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
+  </si>
+  <si>
+    <t>SAMSUNG Galaxy Tab Active3 Enterprise Edition 8” Rugged Multi Purpose Tablet |64GB &amp; WiFi &amp; LTE (Unlocked) | Biometric Security (SM-T577UZKDN14), Black</t>
+  </si>
+  <si>
+    <t>4.4 out of 5 stars</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Enterprise-Unlocked-Biometric-Security-SM-T577UZKDN14/dp/B08T7RMRY9/ref=sxin_12_recs_zoco_stores_brand_identity_bs?content-id=amzn1.sym.7d2e00dd-9358-4f89-aca0-04685eb73811%3Aamzn1.sym.7d2e00dd-9358-4f89-aca0-04685eb73811&amp;crid=2TCNLNNT53CHD&amp;cv_ct_cx=Samsung+tablet&amp;dib=eyJ2IjoiMSJ9.TK5JheCabegjh2M4Xyks79YxQdLqnYFiilT6GwHxoP1hkbj7CrUcTKLdNVWcDlKP8zA9vh7J1iegdDqk-EnNPA.GF4BNYM4dU3Gm_z6I9BtgNyEP9ewuOswhQ9uZaW8wRY&amp;dib_tag=se&amp;keywords=Samsung+tablet&amp;pd_rd_i=B08T7RMRY9&amp;pd_rd_r=bea877a3-a3a2-4ef3-9f36-33d8075765a5&amp;pd_rd_w=v1296&amp;pd_rd_wg=bMBg5&amp;pf_rd_p=7d2e00dd-9358-4f89-aca0-04685eb73811&amp;pf_rd_r=883RDQQ367SZD53Y2E2E&amp;qid=1711024593&amp;sbo=RZvfv%2F%2FHxDF%2BO5021pAnSA%3D%3D&amp;sprefix=sams%2Caps%2C328&amp;sr=1-5-5f457e4f-4cf5-45bd-948b-58563dcb013a</t>
+  </si>
+  <si>
+    <t>Samsung Galaxy Tab Active3 Enterprise Edition 8” Rugged Multi Purpose Tablet |128GB &amp; WiFi | Biometric Security (SM-T570NZKEN20), Black</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Samsung-Enterprise-Biometric-Security-SM-T570NZKEN20/dp/B08T7V27QJ/ref=sxin_12_recs_zoco_stores_brand_identity_bs?content-id=amzn1.sym.7d2e00dd-9358-4f89-aca0-04685eb73811%3Aamzn1.sym.7d2e00dd-9358-4f89-aca0-04685eb73811&amp;crid=2TCNLNNT53CHD&amp;cv_ct_cx=Samsung+tablet&amp;dib=eyJ2IjoiMSJ9.TK5JheCabegjh2M4Xyks79YxQdLqnYFiilT6GwHxoP1hkbj7CrUcTKLdNVWcDlKP8zA9vh7J1iegdDqk-EnNPA.GF4BNYM4dU3Gm_z6I9BtgNyEP9ewuOswhQ9uZaW8wRY&amp;dib_tag=se&amp;keywords=Samsung+tablet&amp;pd_rd_i=B08T7V27QJ&amp;pd_rd_r=bea877a3-a3a2-4ef3-9f36-33d8075765a5&amp;pd_rd_w=v1296&amp;pd_rd_wg=bMBg5&amp;pf_rd_p=7d2e00dd-9358-4f89-aca0-04685eb73811&amp;pf_rd_r=883RDQQ367SZD53Y2E2E&amp;qid=1711024593&amp;sbo=RZvfv%2F%2FHxDF%2BO5021pAnSA%3D%3D&amp;sprefix=sams%2Caps%2C328&amp;sr=1-4-5f457e4f-4cf5-45bd-948b-58563dcb013a</t>
+  </si>
+  <si>
+    <t>Galaxy Tab S9 FE Wi-Fi 10.9” 128GB, Android Tablet, IP68 Water- and Dust-Resistant, Long Battery Life, Powerful Processor, S Pen, 8MP Camera, Lightweight Design, US Version, 2023, Mint</t>
   </si>
   <si>
     <t>4.6 out of 5 stars</t>
   </si>
   <si>
-    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MToyMjE0OTIwODYwOTgyMDgwOjE3MTEwMTY1ODc6c3Bfc2VhcmNoX3RoZW1hdGljOjMwMDA5MDkwMTk4MDUwMjo6MTo6&amp;url=%2FSAMSUNG-Dust-Resistant-Powerful-Processor-Lightweight%2Fdp%2FB0CCBNF8BK%2Fref%3Dsxin_34_pa_sp_search_thematic_sspa%3Fcontent-id%3Damzn1.sym.d4fdc453-1595-4f7b-ba6a-eb2ac554591f%253Aamzn1.sym.d4fdc453-1595-4f7b-ba6a-eb2ac554591f%26crid%3DTR6ZCELH2F89%26cv_ct_cx%3DSamsung%2Btablet%26dib%3DeyJ2IjoiMSJ9.H8IGP6LxMf_08154v6dn8dAOFQnpiBARnjABpeRVREcV7Eox8qhxzh2jjalgw3pG._VVeDa3NK82TZZZ4s8gxPWcxQZ3l6C3R_qBqLB7T3t0%26dib_tag%3Dse%26keywords%3DSamsung%2Btablet%26pd_rd_i%3DB0CCBNF8BK%26pd_rd_r%3D3cf22df9-ec8a-403f-83dd-8554010a2467%26pd_rd_w%3Dx4csL%26pd_rd_wg%3DbaDJS%26pf_rd_p%3Dd4fdc453-1595-4f7b-ba6a-eb2ac554591f%26pf_rd_r%3D98X6DHP83KZGNFNHQ1BQ%26qid%3D1711016587%26sbo%3DRZvfv%252F%252FHxDF%252BO5021pAnSA%253D%253D%26sprefix%3Dsams%252Caps%252C305%26sr%3D1-2-364cf978-ce2a-480a-9bb0-bdb96faa0f61-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9zZWFyY2hfdGhlbWF0aWM%26psc%3D1</t>
-  </si>
-  <si>
-    <t>SAMSUNG Galaxy Tab Active3 Enterprise Edition 8” Rugged Multi Purpose Tablet |64GB &amp; WiFi &amp; LTE (Unlocked) | Biometric Security (SM-T577UZKDN14), Black</t>
-  </si>
-  <si>
-    <t>4.4 out of 5 stars</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Enterprise-Unlocked-Biometric-Security-SM-T577UZKDN14/dp/B08T7RMRY9/ref=sxin_12_recs_zoco_stores_brand_identity_bs?content-id=amzn1.sym.7d2e00dd-9358-4f89-aca0-04685eb73811%3Aamzn1.sym.7d2e00dd-9358-4f89-aca0-04685eb73811&amp;crid=TR6ZCELH2F89&amp;cv_ct_cx=Samsung+tablet&amp;dib=eyJ2IjoiMSJ9.TK5JheCabegjh2M4Xyks79YxQdLqnYFiilT6GwHxoP1hkbj7CrUcTKLdNVWcDlKP8zA9vh7J1iegdDqk-EnNPA.GF4BNYM4dU3Gm_z6I9BtgNyEP9ewuOswhQ9uZaW8wRY&amp;dib_tag=se&amp;keywords=Samsung+tablet&amp;pd_rd_i=B08T7RMRY9&amp;pd_rd_r=3cf22df9-ec8a-403f-83dd-8554010a2467&amp;pd_rd_w=Df1mK&amp;pd_rd_wg=baDJS&amp;pf_rd_p=7d2e00dd-9358-4f89-aca0-04685eb73811&amp;pf_rd_r=98X6DHP83KZGNFNHQ1BQ&amp;qid=1711016587&amp;sbo=RZvfv%2F%2FHxDF%2BO5021pAnSA%3D%3D&amp;sprefix=sams%2Caps%2C305&amp;sr=1-5-5f457e4f-4cf5-45bd-948b-58563dcb013a</t>
-  </si>
-  <si>
-    <t>Samsung Galaxy Tab Active3 Enterprise Edition 8” Rugged Multi Purpose Tablet |128GB &amp; WiFi | Biometric Security (SM-T570NZKEN20), Black</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Samsung-Enterprise-Biometric-Security-SM-T570NZKEN20/dp/B08T7V27QJ/ref=sxin_12_recs_zoco_stores_brand_identity_bs?content-id=amzn1.sym.7d2e00dd-9358-4f89-aca0-04685eb73811%3Aamzn1.sym.7d2e00dd-9358-4f89-aca0-04685eb73811&amp;crid=TR6ZCELH2F89&amp;cv_ct_cx=Samsung+tablet&amp;dib=eyJ2IjoiMSJ9.TK5JheCabegjh2M4Xyks79YxQdLqnYFiilT6GwHxoP1hkbj7CrUcTKLdNVWcDlKP8zA9vh7J1iegdDqk-EnNPA.GF4BNYM4dU3Gm_z6I9BtgNyEP9ewuOswhQ9uZaW8wRY&amp;dib_tag=se&amp;keywords=Samsung+tablet&amp;pd_rd_i=B08T7V27QJ&amp;pd_rd_r=3cf22df9-ec8a-403f-83dd-8554010a2467&amp;pd_rd_w=Df1mK&amp;pd_rd_wg=baDJS&amp;pf_rd_p=7d2e00dd-9358-4f89-aca0-04685eb73811&amp;pf_rd_r=98X6DHP83KZGNFNHQ1BQ&amp;qid=1711016587&amp;sbo=RZvfv%2F%2FHxDF%2BO5021pAnSA%3D%3D&amp;sprefix=sams%2Caps%2C305&amp;sr=1-4-5f457e4f-4cf5-45bd-948b-58563dcb013a</t>
-  </si>
-  <si>
-    <t>Galaxy Tab S9 FE Wi-Fi 10.9” 128GB, Android Tablet, IP68 Water- and Dust-Resistant, Long Battery Life, Powerful Processor, S Pen, 8MP Camera, Lightweight Design, US Version, 2023, Mint</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MToxNDI0Nzk4NzMzMjg4MDgwOjE3MTEwMTY1ODc6c3BfYXRmOjMwMDA5MDk3NjM5MDYwMjo6MDo6&amp;url=%2FSAMSUNG-Dust-Resistant-Powerful-Processor-Lightweight%2Fdp%2FB0CCBRP9FD%2Fref%3Dsr_1_2_sspa%3Fcrid%3DTR6ZCELH2F89%26dib%3DeyJ2IjoiMSJ9.jJO6Tdz4qWTToEKLv-21nMlRhZRnnIV14CeGv30l2dY6v-R8Cd3-iJlXZSzuifM-DGMFIF_S5ym-b8SN2mOsOoIDpU9q8snFDiQrnivuQH4oiDKmO9TSRMspjwQoQC3FCyMDng1OqBoV0Z1txGFFuJpGFPe_ZiXALcX1eGDWwUdwwnI5dX7MIl0-b960ewB3eStmR-pV_6kJWHmkjaEuvHjtG_tjzpzP9Dsq-GtlVoM.yjhQArGSahUDokrAJ3Z7IyfB57TGcwKDvJewCi_gtoU%26dib_tag%3Dse%26keywords%3DSamsung%2Btablet%26qid%3D1711016587%26sprefix%3Dsams%252Caps%252C305%26sr%3D8-2-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGY%26psc%3D1</t>
+    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo0MDY3NTcxMDY5NjM2MDgwOjE3MTEwMjQ1OTM6c3BfYXRmOjMwMDA5MDk3NjM5MDYwMjo6MDo6&amp;url=%2FSAMSUNG-Dust-Resistant-Powerful-Processor-Lightweight%2Fdp%2FB0CCBRP9FD%2Fref%3Dsr_1_2_sspa%3Fcrid%3D2TCNLNNT53CHD%26dib%3DeyJ2IjoiMSJ9.jJO6Tdz4qWTToEKLv-21nMlRhZRnnIV14CeGv30l2dY6v-R8Cd3-iJlXZSzuifM-DGMFIF_S5ym-b8SN2mOsOl2hXg9AWBVFsqY5U-t9Y9TfF9lxUIJ4OKlb-wwzu6sxFF-FM54pEDc98gtFnxWlZ3KoxStnUPM071Nu9FSGW76wDZsAu6SwyxF7H8TETdX2z5RuFCH6fM6FOf0LUWFxR3jtG_tjzpzP9Dsq-GtlVoM.pU-9Fqm61UgkIuv8I9r2PkOvxfFujI4mEQtq-FhsYdI%26dib_tag%3Dse%26keywords%3DSamsung%2Btablet%26qid%3D1711024593%26sprefix%3Dsams%252Caps%252C328%26sr%3D8-2-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGY%26psc%3D1</t>
   </si>
   <si>
     <t>Galaxy Tab S9 FE Wi-Fi 10.9” 128GB Android Tablet, IP68 Water- and Dust-Resistant, Long Battery Life, Powerful Processor, S Pen, 8MP Camera, Lightweight Design, US Version, 2023, Gray</t>
   </si>
   <si>
-    <t>https://www.amazon.com/SAMSUNG-Dust-Resistant-Powerful-Processor-Lightweight/dp/B0CCX11JT6/ref=sr_1_4?crid=TR6ZCELH2F89&amp;dib=eyJ2IjoiMSJ9.jJO6Tdz4qWTToEKLv-21nMlRhZRnnIV14CeGv30l2dY6v-R8Cd3-iJlXZSzuifM-DGMFIF_S5ym-b8SN2mOsOoIDpU9q8snFDiQrnivuQH4oiDKmO9TSRMspjwQoQC3FCyMDng1OqBoV0Z1txGFFuJpGFPe_ZiXALcX1eGDWwUdwwnI5dX7MIl0-b960ewB3eStmR-pV_6kJWHmkjaEuvHjtG_tjzpzP9Dsq-GtlVoM.yjhQArGSahUDokrAJ3Z7IyfB57TGcwKDvJewCi_gtoU&amp;dib_tag=se&amp;keywords=Samsung+tablet&amp;qid=1711016587&amp;sprefix=sams%2Caps%2C305&amp;sr=8-4</t>
+    <t>https://www.amazon.com/SAMSUNG-Dust-Resistant-Powerful-Processor-Lightweight/dp/B0CCX11JT6/ref=sr_1_4?crid=2TCNLNNT53CHD&amp;dib=eyJ2IjoiMSJ9.jJO6Tdz4qWTToEKLv-21nMlRhZRnnIV14CeGv30l2dY6v-R8Cd3-iJlXZSzuifM-DGMFIF_S5ym-b8SN2mOsOl2hXg9AWBVFsqY5U-t9Y9TfF9lxUIJ4OKlb-wwzu6sxFF-FM54pEDc98gtFnxWlZ3KoxStnUPM071Nu9FSGW76wDZsAu6SwyxF7H8TETdX2z5RuFCH6fM6FOf0LUWFxR3jtG_tjzpzP9Dsq-GtlVoM.pU-9Fqm61UgkIuv8I9r2PkOvxfFujI4mEQtq-FhsYdI&amp;dib_tag=se&amp;keywords=Samsung+tablet&amp;qid=1711024593&amp;sprefix=sams%2Caps%2C328&amp;sr=8-4</t>
+  </si>
+  <si>
+    <t>Samsung Galaxy Tab S9 FE Wi-Fi 10.9” 128GB, Android Tablet, IP68 Water- and Dust-Resistant, Long Battery Life, Powerful Processor, S Pen, 8MP Camera, Lightweight Design, US Version, 2023, Mint</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo1NjIzMTI2MTE4Mjk4MDgwOjE3MTEwMjQ1OTM6c3Bfc2VhcmNoX3RoZW1hdGljOjMwMDA5MDk3NjM5MDYwMjo6MTo6&amp;url=%2FSAMSUNG-Dust-Resistant-Powerful-Processor-Lightweight%2Fdp%2FB0CCBRP9FD%2Fref%3Dsxin_34_pa_sp_search_thematic_sspa%3Fcontent-id%3Damzn1.sym.d4fdc453-1595-4f7b-ba6a-eb2ac554591f%253Aamzn1.sym.d4fdc453-1595-4f7b-ba6a-eb2ac554591f%26crid%3D2TCNLNNT53CHD%26cv_ct_cx%3DSamsung%2Btablet%26dib%3DeyJ2IjoiMSJ9.H8IGP6LxMf_08154v6dn8UNDAiUG-IzZ4nBgpEHHsusV7Eox8qhxzh2jjalgw3pG.8fhnNTOnPIEXzWuHNeXjNSu0-XUsFRNcD9ie18YLcLI%26dib_tag%3Dse%26keywords%3DSamsung%2Btablet%26pd_rd_i%3DB0CCBRP9FD%26pd_rd_r%3Dbea877a3-a3a2-4ef3-9f36-33d8075765a5%26pd_rd_w%3DaGCgT%26pd_rd_wg%3DbMBg5%26pf_rd_p%3Dd4fdc453-1595-4f7b-ba6a-eb2ac554591f%26pf_rd_r%3D883RDQQ367SZD53Y2E2E%26qid%3D1711024593%26sbo%3DRZvfv%252F%252FHxDF%252BO5021pAnSA%253D%253D%26sprefix%3Dsams%252Caps%252C328%26sr%3D1-2-364cf978-ce2a-480a-9bb0-bdb96faa0f61-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9zZWFyY2hfdGhlbWF0aWM%26psc%3D1</t>
   </si>
   <si>
     <t>Galaxy Tab S6 Lite 10.4" 128GB Android Tablet, LCD Screen, S Pen Included, Slim Metal Design, AKG Dual Speakers, 8MP Rear Camera, Long Lasting Battery, US Version, 2022, Angora Blue</t>
@@ -115,55 +115,55 @@
     <t>4.7 out of 5 stars</t>
   </si>
   <si>
-    <t>https://www.amazon.com/SAMSUNG-Android-Lasting-Included-Speakers/dp/B09WYYW4TR/ref=sr_1_6?crid=TR6ZCELH2F89&amp;dib=eyJ2IjoiMSJ9.jJO6Tdz4qWTToEKLv-21nMlRhZRnnIV14CeGv30l2dY6v-R8Cd3-iJlXZSzuifM-DGMFIF_S5ym-b8SN2mOsOoIDpU9q8snFDiQrnivuQH4oiDKmO9TSRMspjwQoQC3FCyMDng1OqBoV0Z1txGFFuJpGFPe_ZiXALcX1eGDWwUdwwnI5dX7MIl0-b960ewB3eStmR-pV_6kJWHmkjaEuvHjtG_tjzpzP9Dsq-GtlVoM.yjhQArGSahUDokrAJ3Z7IyfB57TGcwKDvJewCi_gtoU&amp;dib_tag=se&amp;keywords=Samsung+tablet&amp;qid=1711016587&amp;sprefix=sams%2Caps%2C305&amp;sr=8-6</t>
+    <t>https://www.amazon.com/SAMSUNG-Android-Lasting-Included-Speakers/dp/B09WYYW4TR/ref=sr_1_6?crid=2TCNLNNT53CHD&amp;dib=eyJ2IjoiMSJ9.jJO6Tdz4qWTToEKLv-21nMlRhZRnnIV14CeGv30l2dY6v-R8Cd3-iJlXZSzuifM-DGMFIF_S5ym-b8SN2mOsOl2hXg9AWBVFsqY5U-t9Y9TfF9lxUIJ4OKlb-wwzu6sxFF-FM54pEDc98gtFnxWlZ3KoxStnUPM071Nu9FSGW76wDZsAu6SwyxF7H8TETdX2z5RuFCH6fM6FOf0LUWFxR3jtG_tjzpzP9Dsq-GtlVoM.pU-9Fqm61UgkIuv8I9r2PkOvxfFujI4mEQtq-FhsYdI&amp;dib_tag=se&amp;keywords=Samsung+tablet&amp;qid=1711024593&amp;sprefix=sams%2Caps%2C328&amp;sr=8-6</t>
   </si>
   <si>
     <t>SAMSUNG 2020 Galaxy Tab A7 10.4’’ (2000x1200) TFT Display Wi-Fi Tablet Bundle, Qualcomm Snapdragon 662, 3GB RAM, Bluetooth, Dolby Atmos Audio, Android 10 OS w/Tigology Accessories (64GB, Gray)</t>
   </si>
   <si>
-    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MToyMjE0OTIwODYwOTgyMDgwOjE3MTEwMTY1ODc6c3Bfc2VhcmNoX3RoZW1hdGljOjIwMDA5OTAwNjc1NDkxMTo6NDo6&amp;url=%2FGalaxy-Tab-A7-Snapdragon-Accessories%2Fdp%2FB08NWQGG5B%2Fref%3Dsxin_34_pa_sp_search_thematic_sspa%3Fcontent-id%3Damzn1.sym.d4fdc453-1595-4f7b-ba6a-eb2ac554591f%253Aamzn1.sym.d4fdc453-1595-4f7b-ba6a-eb2ac554591f%26crid%3DTR6ZCELH2F89%26cv_ct_cx%3DSamsung%2Btablet%26dib%3DeyJ2IjoiMSJ9.H8IGP6LxMf_08154v6dn8dAOFQnpiBARnjABpeRVREcV7Eox8qhxzh2jjalgw3pG._VVeDa3NK82TZZZ4s8gxPWcxQZ3l6C3R_qBqLB7T3t0%26dib_tag%3Dse%26keywords%3DSamsung%2Btablet%26pd_rd_i%3DB08NWQGG5B%26pd_rd_r%3D3cf22df9-ec8a-403f-83dd-8554010a2467%26pd_rd_w%3Dx4csL%26pd_rd_wg%3DbaDJS%26pf_rd_p%3Dd4fdc453-1595-4f7b-ba6a-eb2ac554591f%26pf_rd_r%3D98X6DHP83KZGNFNHQ1BQ%26qid%3D1711016587%26sbo%3DRZvfv%252F%252FHxDF%252BO5021pAnSA%253D%253D%26sprefix%3Dsams%252Caps%252C305%26sr%3D1-4-364cf978-ce2a-480a-9bb0-bdb96faa0f61-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9zZWFyY2hfdGhlbWF0aWM%26psc%3D1</t>
+    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo1NjIzMTI2MTE4Mjk4MDgwOjE3MTEwMjQ1OTM6c3Bfc2VhcmNoX3RoZW1hdGljOjIwMDA5OTAwNjc1NDkxMTo6NDo6&amp;url=%2FGalaxy-Tab-A7-Snapdragon-Accessories%2Fdp%2FB08NWQGG5B%2Fref%3Dsxin_34_pa_sp_search_thematic_sspa%3Fcontent-id%3Damzn1.sym.d4fdc453-1595-4f7b-ba6a-eb2ac554591f%253Aamzn1.sym.d4fdc453-1595-4f7b-ba6a-eb2ac554591f%26crid%3D2TCNLNNT53CHD%26cv_ct_cx%3DSamsung%2Btablet%26dib%3DeyJ2IjoiMSJ9.H8IGP6LxMf_08154v6dn8UNDAiUG-IzZ4nBgpEHHsusV7Eox8qhxzh2jjalgw3pG.8fhnNTOnPIEXzWuHNeXjNSu0-XUsFRNcD9ie18YLcLI%26dib_tag%3Dse%26keywords%3DSamsung%2Btablet%26pd_rd_i%3DB08NWQGG5B%26pd_rd_r%3Dbea877a3-a3a2-4ef3-9f36-33d8075765a5%26pd_rd_w%3DaGCgT%26pd_rd_wg%3DbMBg5%26pf_rd_p%3Dd4fdc453-1595-4f7b-ba6a-eb2ac554591f%26pf_rd_r%3D883RDQQ367SZD53Y2E2E%26qid%3D1711024593%26sbo%3DRZvfv%252F%252FHxDF%252BO5021pAnSA%253D%253D%26sprefix%3Dsams%252Caps%252C328%26sr%3D1-4-364cf978-ce2a-480a-9bb0-bdb96faa0f61-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9zZWFyY2hfdGhlbWF0aWM%26psc%3D1</t>
   </si>
   <si>
     <t>Galaxy Tab A8 10.5-inch Touchscreen (1920x1200) Wi-Fi Tablet Bundle, Octa-Core Processor, 3GB RAM, 32GB Memory, Bluetooth, 128GB MicroSD Card, Android 11 OS</t>
   </si>
   <si>
-    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MToxNDI0Nzk4NzMzMjg4MDgwOjE3MTEwMTY1ODc6c3BfbXRmOjIwMDEwNjk2ODM2NDA5ODo6MDo6&amp;url=%2FSamsung-Galaxy-Tab-Touchscreen-Bundle%2Fdp%2FB07VN76C78%2Fref%3Dsr_1_17_sspa%3Fcrid%3DTR6ZCELH2F89%26dib%3DeyJ2IjoiMSJ9.jJO6Tdz4qWTToEKLv-21nMlRhZRnnIV14CeGv30l2dY6v-R8Cd3-iJlXZSzuifM-DGMFIF_S5ym-b8SN2mOsOoIDpU9q8snFDiQrnivuQH4oiDKmO9TSRMspjwQoQC3FCyMDng1OqBoV0Z1txGFFuJpGFPe_ZiXALcX1eGDWwUdwwnI5dX7MIl0-b960ewB3eStmR-pV_6kJWHmkjaEuvHjtG_tjzpzP9Dsq-GtlVoM.yjhQArGSahUDokrAJ3Z7IyfB57TGcwKDvJewCi_gtoU%26dib_tag%3Dse%26keywords%3DSamsung%2Btablet%26qid%3D1711016587%26sprefix%3Dsams%252Caps%252C305%26sr%3D8-17-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Samsung-Galaxy-Tab-Touchscreen-Bundle/dp/B07VN76C78/ref=sr_1_21?crid=TR6ZCELH2F89&amp;dib=eyJ2IjoiMSJ9.jJO6Tdz4qWTToEKLv-21nMlRhZRnnIV14CeGv30l2dY6v-R8Cd3-iJlXZSzuifM-DGMFIF_S5ym-b8SN2mOsOoIDpU9q8snFDiQrnivuQH4oiDKmO9TSRMspjwQoQC3FCyMDng1OqBoV0Z1txGFFuJpGFPe_ZiXALcX1eGDWwUdwwnI5dX7MIl0-b960ewB3eStmR-pV_6kJWHmkjaEuvHjtG_tjzpzP9Dsq-GtlVoM.yjhQArGSahUDokrAJ3Z7IyfB57TGcwKDvJewCi_gtoU&amp;dib_tag=se&amp;keywords=Samsung+tablet&amp;qid=1711016587&amp;sprefix=sams%2Caps%2C305&amp;sr=8-21</t>
+    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo0MDY3NTcxMDY5NjM2MDgwOjE3MTEwMjQ1OTM6c3BfbXRmOjIwMDEwNjk2ODM2NDA5ODo6MDo6&amp;url=%2FSamsung-Galaxy-Tab-Touchscreen-Bundle%2Fdp%2FB07VN76C78%2Fref%3Dsr_1_17_sspa%3Fcrid%3D2TCNLNNT53CHD%26dib%3DeyJ2IjoiMSJ9.jJO6Tdz4qWTToEKLv-21nMlRhZRnnIV14CeGv30l2dY6v-R8Cd3-iJlXZSzuifM-DGMFIF_S5ym-b8SN2mOsOl2hXg9AWBVFsqY5U-t9Y9TfF9lxUIJ4OKlb-wwzu6sxFF-FM54pEDc98gtFnxWlZ3KoxStnUPM071Nu9FSGW76wDZsAu6SwyxF7H8TETdX2z5RuFCH6fM6FOf0LUWFxR3jtG_tjzpzP9Dsq-GtlVoM.pU-9Fqm61UgkIuv8I9r2PkOvxfFujI4mEQtq-FhsYdI%26dib_tag%3Dse%26keywords%3DSamsung%2Btablet%26qid%3D1711024593%26sprefix%3Dsams%252Caps%252C328%26sr%3D8-17-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Samsung-Galaxy-Tab-Touchscreen-Bundle/dp/B07VN76C78/ref=sr_1_21?crid=2TCNLNNT53CHD&amp;dib=eyJ2IjoiMSJ9.jJO6Tdz4qWTToEKLv-21nMlRhZRnnIV14CeGv30l2dY6v-R8Cd3-iJlXZSzuifM-DGMFIF_S5ym-b8SN2mOsOl2hXg9AWBVFsqY5U-t9Y9TfF9lxUIJ4OKlb-wwzu6sxFF-FM54pEDc98gtFnxWlZ3KoxStnUPM071Nu9FSGW76wDZsAu6SwyxF7H8TETdX2z5RuFCH6fM6FOf0LUWFxR3jtG_tjzpzP9Dsq-GtlVoM.pU-9Fqm61UgkIuv8I9r2PkOvxfFujI4mEQtq-FhsYdI&amp;dib_tag=se&amp;keywords=Samsung+tablet&amp;qid=1711024593&amp;sprefix=sams%2Caps%2C328&amp;sr=8-21</t>
+  </si>
+  <si>
+    <t>SAMSUNG Galaxy Tab S6 Lite 10.4" 64GB WiFi Android Tablet w/ S Pen Included, Slim Metal Design, Crystal Clear Display, Dual Speakers, Long Lasting Battery, SM-P610NZIAXAR, Chiffon Rose</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/SAMSUNG-Android-Included-Speakers-SM-P610NZIAXAR/dp/B086Z3QNBM/ref=sr_1_14?crid=2TCNLNNT53CHD&amp;dib=eyJ2IjoiMSJ9.jJO6Tdz4qWTToEKLv-21nMlRhZRnnIV14CeGv30l2dY6v-R8Cd3-iJlXZSzuifM-DGMFIF_S5ym-b8SN2mOsOl2hXg9AWBVFsqY5U-t9Y9TfF9lxUIJ4OKlb-wwzu6sxFF-FM54pEDc98gtFnxWlZ3KoxStnUPM071Nu9FSGW76wDZsAu6SwyxF7H8TETdX2z5RuFCH6fM6FOf0LUWFxR3jtG_tjzpzP9Dsq-GtlVoM.pU-9Fqm61UgkIuv8I9r2PkOvxfFujI4mEQtq-FhsYdI&amp;dib_tag=se&amp;keywords=Samsung+tablet&amp;qid=1711024593&amp;sprefix=sams%2Caps%2C328&amp;sr=8-14</t>
   </si>
   <si>
     <t>Galaxy Tab A9+ Tablet 11” 128GB Android Tablet, Big Screen, Quad Speakers, Upgraded Chipset, Multi Window Display, Slim, Light, Durable Design, US Version, 2023, Graphite</t>
   </si>
   <si>
-    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MToxNDI0Nzk4NzMzMjg4MDgwOjE3MTEwMTY1ODc6c3BfYXRmOjMwMDEyMDgzNjEyMjkwMjo6MDo6&amp;url=%2FSAMSUNG-Android-Speakers-Upgraded-Graphite%2Fdp%2FB0CLF2DNMV%2Fref%3Dsr_1_1_sspa%3Fcrid%3DTR6ZCELH2F89%26dib%3DeyJ2IjoiMSJ9.jJO6Tdz4qWTToEKLv-21nMlRhZRnnIV14CeGv30l2dY6v-R8Cd3-iJlXZSzuifM-DGMFIF_S5ym-b8SN2mOsOoIDpU9q8snFDiQrnivuQH4oiDKmO9TSRMspjwQoQC3FCyMDng1OqBoV0Z1txGFFuJpGFPe_ZiXALcX1eGDWwUdwwnI5dX7MIl0-b960ewB3eStmR-pV_6kJWHmkjaEuvHjtG_tjzpzP9Dsq-GtlVoM.yjhQArGSahUDokrAJ3Z7IyfB57TGcwKDvJewCi_gtoU%26dib_tag%3Dse%26keywords%3DSamsung%2Btablet%26qid%3D1711016587%26sprefix%3Dsams%252Caps%252C305%26sr%3D8-1-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGY%26psc%3D1</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/SAMSUNG-Android-Speakers-Upgraded-Graphite/dp/B0CLF2DNMV/ref=sr_1_3?crid=TR6ZCELH2F89&amp;dib=eyJ2IjoiMSJ9.jJO6Tdz4qWTToEKLv-21nMlRhZRnnIV14CeGv30l2dY6v-R8Cd3-iJlXZSzuifM-DGMFIF_S5ym-b8SN2mOsOoIDpU9q8snFDiQrnivuQH4oiDKmO9TSRMspjwQoQC3FCyMDng1OqBoV0Z1txGFFuJpGFPe_ZiXALcX1eGDWwUdwwnI5dX7MIl0-b960ewB3eStmR-pV_6kJWHmkjaEuvHjtG_tjzpzP9Dsq-GtlVoM.yjhQArGSahUDokrAJ3Z7IyfB57TGcwKDvJewCi_gtoU&amp;dib_tag=se&amp;keywords=Samsung+tablet&amp;qid=1711016587&amp;sprefix=sams%2Caps%2C305&amp;sr=8-3</t>
+    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo0MDY3NTcxMDY5NjM2MDgwOjE3MTEwMjQ1OTM6c3BfYXRmOjMwMDEyMDgzNjEyMjkwMjo6MDo6&amp;url=%2FSAMSUNG-Android-Speakers-Upgraded-Graphite%2Fdp%2FB0CLF2DNMV%2Fref%3Dsr_1_1_sspa%3Fcrid%3D2TCNLNNT53CHD%26dib%3DeyJ2IjoiMSJ9.jJO6Tdz4qWTToEKLv-21nMlRhZRnnIV14CeGv30l2dY6v-R8Cd3-iJlXZSzuifM-DGMFIF_S5ym-b8SN2mOsOl2hXg9AWBVFsqY5U-t9Y9TfF9lxUIJ4OKlb-wwzu6sxFF-FM54pEDc98gtFnxWlZ3KoxStnUPM071Nu9FSGW76wDZsAu6SwyxF7H8TETdX2z5RuFCH6fM6FOf0LUWFxR3jtG_tjzpzP9Dsq-GtlVoM.pU-9Fqm61UgkIuv8I9r2PkOvxfFujI4mEQtq-FhsYdI%26dib_tag%3Dse%26keywords%3DSamsung%2Btablet%26qid%3D1711024593%26sprefix%3Dsams%252Caps%252C328%26sr%3D8-1-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGY%26psc%3D1</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/SAMSUNG-Android-Speakers-Upgraded-Graphite/dp/B0CLF2DNMV/ref=sr_1_3?crid=2TCNLNNT53CHD&amp;dib=eyJ2IjoiMSJ9.jJO6Tdz4qWTToEKLv-21nMlRhZRnnIV14CeGv30l2dY6v-R8Cd3-iJlXZSzuifM-DGMFIF_S5ym-b8SN2mOsOl2hXg9AWBVFsqY5U-t9Y9TfF9lxUIJ4OKlb-wwzu6sxFF-FM54pEDc98gtFnxWlZ3KoxStnUPM071Nu9FSGW76wDZsAu6SwyxF7H8TETdX2z5RuFCH6fM6FOf0LUWFxR3jtG_tjzpzP9Dsq-GtlVoM.pU-9Fqm61UgkIuv8I9r2PkOvxfFujI4mEQtq-FhsYdI&amp;dib_tag=se&amp;keywords=Samsung+tablet&amp;qid=1711024593&amp;sprefix=sams%2Caps%2C328&amp;sr=8-3</t>
   </si>
   <si>
     <t>SAMSUNG Galaxy Tab A9+ Tablet for Kids, 11” 128GB Android Tablet, Big Screen, Quad Speakers, Upgraded Chipset, Multi Window Display, Slim, Light, Durable Design, US Version, 2023, Silver</t>
   </si>
   <si>
-    <t>https://www.amazon.com/SAMSUNG-Android-Speakers-Upgraded-Chipset/dp/B0CLF4NVSL/ref=sxin_12_recs_zoco_stores_brand_identity_bs?content-id=amzn1.sym.7d2e00dd-9358-4f89-aca0-04685eb73811%3Aamzn1.sym.7d2e00dd-9358-4f89-aca0-04685eb73811&amp;crid=TR6ZCELH2F89&amp;cv_ct_cx=Samsung+tablet&amp;dib=eyJ2IjoiMSJ9.TK5JheCabegjh2M4Xyks79YxQdLqnYFiilT6GwHxoP1hkbj7CrUcTKLdNVWcDlKP8zA9vh7J1iegdDqk-EnNPA.GF4BNYM4dU3Gm_z6I9BtgNyEP9ewuOswhQ9uZaW8wRY&amp;dib_tag=se&amp;keywords=Samsung+tablet&amp;pd_rd_i=B0CLF4NVSL&amp;pd_rd_r=3cf22df9-ec8a-403f-83dd-8554010a2467&amp;pd_rd_w=Df1mK&amp;pd_rd_wg=baDJS&amp;pf_rd_p=7d2e00dd-9358-4f89-aca0-04685eb73811&amp;pf_rd_r=98X6DHP83KZGNFNHQ1BQ&amp;qid=1711016587&amp;sbo=RZvfv%2F%2FHxDF%2BO5021pAnSA%3D%3D&amp;sprefix=sams%2Caps%2C305&amp;sr=1-2-5f457e4f-4cf5-45bd-948b-58563dcb013a</t>
-  </si>
-  <si>
-    <t>SAMSUNG Galaxy Tab S6 Lite 10.4" 64GB WiFi Android Tablet w/ S Pen Included, Slim Metal Design, Crystal Clear Display, Dual Speakers, Long Lasting Battery, SM-P610NZIAXAR, Chiffon Rose</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/SAMSUNG-Android-Included-Speakers-SM-P610NZIAXAR/dp/B086Z3QNBM/ref=sr_1_16?crid=TR6ZCELH2F89&amp;dib=eyJ2IjoiMSJ9.jJO6Tdz4qWTToEKLv-21nMlRhZRnnIV14CeGv30l2dY6v-R8Cd3-iJlXZSzuifM-DGMFIF_S5ym-b8SN2mOsOoIDpU9q8snFDiQrnivuQH4oiDKmO9TSRMspjwQoQC3FCyMDng1OqBoV0Z1txGFFuJpGFPe_ZiXALcX1eGDWwUdwwnI5dX7MIl0-b960ewB3eStmR-pV_6kJWHmkjaEuvHjtG_tjzpzP9Dsq-GtlVoM.yjhQArGSahUDokrAJ3Z7IyfB57TGcwKDvJewCi_gtoU&amp;dib_tag=se&amp;keywords=Samsung+tablet&amp;qid=1711016587&amp;sprefix=sams%2Caps%2C305&amp;sr=8-16</t>
+    <t>https://www.amazon.com/SAMSUNG-Android-Speakers-Upgraded-Chipset/dp/B0CLF4NVSL/ref=sxin_12_recs_zoco_stores_brand_identity_bs?content-id=amzn1.sym.7d2e00dd-9358-4f89-aca0-04685eb73811%3Aamzn1.sym.7d2e00dd-9358-4f89-aca0-04685eb73811&amp;crid=2TCNLNNT53CHD&amp;cv_ct_cx=Samsung+tablet&amp;dib=eyJ2IjoiMSJ9.TK5JheCabegjh2M4Xyks79YxQdLqnYFiilT6GwHxoP1hkbj7CrUcTKLdNVWcDlKP8zA9vh7J1iegdDqk-EnNPA.GF4BNYM4dU3Gm_z6I9BtgNyEP9ewuOswhQ9uZaW8wRY&amp;dib_tag=se&amp;keywords=Samsung+tablet&amp;pd_rd_i=B0CLF4NVSL&amp;pd_rd_r=bea877a3-a3a2-4ef3-9f36-33d8075765a5&amp;pd_rd_w=v1296&amp;pd_rd_wg=bMBg5&amp;pf_rd_p=7d2e00dd-9358-4f89-aca0-04685eb73811&amp;pf_rd_r=883RDQQ367SZD53Y2E2E&amp;qid=1711024593&amp;sbo=RZvfv%2F%2FHxDF%2BO5021pAnSA%3D%3D&amp;sprefix=sams%2Caps%2C328&amp;sr=1-2-5f457e4f-4cf5-45bd-948b-58563dcb013a</t>
   </si>
   <si>
     <t>SAMSUNG Galaxy Tab A9+ Tablet 11” 128GB Android Tablet, Big Screen, Quad Speakers, Upgraded Chipset, Multi Window Display, Slim, Light, Durable Design, US Version, 2023, Graphite</t>
   </si>
   <si>
-    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MToyMjE0OTIwODYwOTgyMDgwOjE3MTEwMTY1ODc6c3Bfc2VhcmNoX3RoZW1hdGljOjMwMDEyMDgzNjEyMjkwMjo6MDo6&amp;url=%2FSAMSUNG-Android-Speakers-Upgraded-Graphite%2Fdp%2FB0CLF2DNMV%2Fref%3Dsxin_34_pa_sp_search_thematic_sspa%3Fcontent-id%3Damzn1.sym.d4fdc453-1595-4f7b-ba6a-eb2ac554591f%253Aamzn1.sym.d4fdc453-1595-4f7b-ba6a-eb2ac554591f%26crid%3DTR6ZCELH2F89%26cv_ct_cx%3DSamsung%2Btablet%26dib%3DeyJ2IjoiMSJ9.H8IGP6LxMf_08154v6dn8dAOFQnpiBARnjABpeRVREcV7Eox8qhxzh2jjalgw3pG._VVeDa3NK82TZZZ4s8gxPWcxQZ3l6C3R_qBqLB7T3t0%26dib_tag%3Dse%26keywords%3DSamsung%2Btablet%26pd_rd_i%3DB0CLF2DNMV%26pd_rd_r%3D3cf22df9-ec8a-403f-83dd-8554010a2467%26pd_rd_w%3Dx4csL%26pd_rd_wg%3DbaDJS%26pf_rd_p%3Dd4fdc453-1595-4f7b-ba6a-eb2ac554591f%26pf_rd_r%3D98X6DHP83KZGNFNHQ1BQ%26qid%3D1711016587%26sbo%3DRZvfv%252F%252FHxDF%252BO5021pAnSA%253D%253D%26sprefix%3Dsams%252Caps%252C305%26sr%3D1-1-364cf978-ce2a-480a-9bb0-bdb96faa0f61-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9zZWFyY2hfdGhlbWF0aWM%26psc%3D1</t>
+    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo1NjIzMTI2MTE4Mjk4MDgwOjE3MTEwMjQ1OTM6c3Bfc2VhcmNoX3RoZW1hdGljOjMwMDEyMDgzNjEyMjkwMjo6MDo6&amp;url=%2FSAMSUNG-Android-Speakers-Upgraded-Graphite%2Fdp%2FB0CLF2DNMV%2Fref%3Dsxin_34_pa_sp_search_thematic_sspa%3Fcontent-id%3Damzn1.sym.d4fdc453-1595-4f7b-ba6a-eb2ac554591f%253Aamzn1.sym.d4fdc453-1595-4f7b-ba6a-eb2ac554591f%26crid%3D2TCNLNNT53CHD%26cv_ct_cx%3DSamsung%2Btablet%26dib%3DeyJ2IjoiMSJ9.H8IGP6LxMf_08154v6dn8UNDAiUG-IzZ4nBgpEHHsusV7Eox8qhxzh2jjalgw3pG.8fhnNTOnPIEXzWuHNeXjNSu0-XUsFRNcD9ie18YLcLI%26dib_tag%3Dse%26keywords%3DSamsung%2Btablet%26pd_rd_i%3DB0CLF2DNMV%26pd_rd_r%3Dbea877a3-a3a2-4ef3-9f36-33d8075765a5%26pd_rd_w%3DaGCgT%26pd_rd_wg%3DbMBg5%26pf_rd_p%3Dd4fdc453-1595-4f7b-ba6a-eb2ac554591f%26pf_rd_r%3D883RDQQ367SZD53Y2E2E%26qid%3D1711024593%26sbo%3DRZvfv%252F%252FHxDF%252BO5021pAnSA%253D%253D%26sprefix%3Dsams%252Caps%252C328%26sr%3D1-1-364cf978-ce2a-480a-9bb0-bdb96faa0f61-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9zZWFyY2hfdGhlbWF0aWM%26psc%3D1</t>
   </si>
   <si>
     <t>Samsung Galaxy Tab A8 10.5-in 128GB Tablet - Gray SM-X200NZAFXAR (2022)</t>
   </si>
   <si>
-    <t>https://www.amazon.com/Samsung-Galaxy-10-5-128GB-Tablet/dp/B09N3ZC8FL/ref=sxin_12_recs_zoco_stores_brand_identity_bs?content-id=amzn1.sym.7d2e00dd-9358-4f89-aca0-04685eb73811%3Aamzn1.sym.7d2e00dd-9358-4f89-aca0-04685eb73811&amp;crid=TR6ZCELH2F89&amp;cv_ct_cx=Samsung+tablet&amp;dib=eyJ2IjoiMSJ9.TK5JheCabegjh2M4Xyks79YxQdLqnYFiilT6GwHxoP1hkbj7CrUcTKLdNVWcDlKP8zA9vh7J1iegdDqk-EnNPA.GF4BNYM4dU3Gm_z6I9BtgNyEP9ewuOswhQ9uZaW8wRY&amp;dib_tag=se&amp;keywords=Samsung+tablet&amp;pd_rd_i=B09N3ZC8FL&amp;pd_rd_r=3cf22df9-ec8a-403f-83dd-8554010a2467&amp;pd_rd_w=Df1mK&amp;pd_rd_wg=baDJS&amp;pf_rd_p=7d2e00dd-9358-4f89-aca0-04685eb73811&amp;pf_rd_r=98X6DHP83KZGNFNHQ1BQ&amp;qid=1711016587&amp;sbo=RZvfv%2F%2FHxDF%2BO5021pAnSA%3D%3D&amp;sprefix=sams%2Caps%2C305&amp;sr=1-3-5f457e4f-4cf5-45bd-948b-58563dcb013a</t>
+    <t>https://www.amazon.com/Samsung-Galaxy-10-5-128GB-Tablet/dp/B09N3ZC8FL/ref=sxin_12_recs_zoco_stores_brand_identity_bs?content-id=amzn1.sym.7d2e00dd-9358-4f89-aca0-04685eb73811%3Aamzn1.sym.7d2e00dd-9358-4f89-aca0-04685eb73811&amp;crid=2TCNLNNT53CHD&amp;cv_ct_cx=Samsung+tablet&amp;dib=eyJ2IjoiMSJ9.TK5JheCabegjh2M4Xyks79YxQdLqnYFiilT6GwHxoP1hkbj7CrUcTKLdNVWcDlKP8zA9vh7J1iegdDqk-EnNPA.GF4BNYM4dU3Gm_z6I9BtgNyEP9ewuOswhQ9uZaW8wRY&amp;dib_tag=se&amp;keywords=Samsung+tablet&amp;pd_rd_i=B09N3ZC8FL&amp;pd_rd_r=bea877a3-a3a2-4ef3-9f36-33d8075765a5&amp;pd_rd_w=v1296&amp;pd_rd_wg=bMBg5&amp;pf_rd_p=7d2e00dd-9358-4f89-aca0-04685eb73811&amp;pf_rd_r=883RDQQ367SZD53Y2E2E&amp;qid=1711024593&amp;sbo=RZvfv%2F%2FHxDF%2BO5021pAnSA%3D%3D&amp;sprefix=sams%2Caps%2C328&amp;sr=1-3-5f457e4f-4cf5-45bd-948b-58563dcb013a</t>
   </si>
   <si>
     <t>2024 Newest Tablet Android 13 Tablets 10 Inch, Tablet 128GB ROM+16GB RAM (8+8 Virtual), 2 In 1 Tablet with keyboard, Powerful Octa-Core+13MP Camera, 1TB TF Expandable, FHD IPS Display WiFi Tablet PC</t>
@@ -172,28 +172,28 @@
     <t>4.3 out of 5 stars</t>
   </si>
   <si>
-    <t>https://www.amazon.com/Newest-Tablet-Tablet-keyboard-Octa-Core-Expandable/dp/B0C77MDDNL/ref=sr_1_11?crid=TR6ZCELH2F89&amp;dib=eyJ2IjoiMSJ9.jJO6Tdz4qWTToEKLv-21nMlRhZRnnIV14CeGv30l2dY6v-R8Cd3-iJlXZSzuifM-DGMFIF_S5ym-b8SN2mOsOoIDpU9q8snFDiQrnivuQH4oiDKmO9TSRMspjwQoQC3FCyMDng1OqBoV0Z1txGFFuJpGFPe_ZiXALcX1eGDWwUdwwnI5dX7MIl0-b960ewB3eStmR-pV_6kJWHmkjaEuvHjtG_tjzpzP9Dsq-GtlVoM.yjhQArGSahUDokrAJ3Z7IyfB57TGcwKDvJewCi_gtoU&amp;dib_tag=se&amp;keywords=Samsung+tablet&amp;qid=1711016587&amp;sprefix=sams%2Caps%2C305&amp;sr=8-11</t>
+    <t>https://www.amazon.com/Newest-Tablet-Tablet-keyboard-Octa-Core-Expandable/dp/B0C77MDDNL/ref=sr_1_10?crid=2TCNLNNT53CHD&amp;dib=eyJ2IjoiMSJ9.jJO6Tdz4qWTToEKLv-21nMlRhZRnnIV14CeGv30l2dY6v-R8Cd3-iJlXZSzuifM-DGMFIF_S5ym-b8SN2mOsOl2hXg9AWBVFsqY5U-t9Y9TfF9lxUIJ4OKlb-wwzu6sxFF-FM54pEDc98gtFnxWlZ3KoxStnUPM071Nu9FSGW76wDZsAu6SwyxF7H8TETdX2z5RuFCH6fM6FOf0LUWFxR3jtG_tjzpzP9Dsq-GtlVoM.pU-9Fqm61UgkIuv8I9r2PkOvxfFujI4mEQtq-FhsYdI&amp;dib_tag=se&amp;keywords=Samsung+tablet&amp;qid=1711024593&amp;sprefix=sams%2Caps%2C328&amp;sr=8-10</t>
   </si>
   <si>
     <t>Galaxy Tab A8 10.5” 64GB Android Tablet, LCD Screen, Kids Content, Smart Switch, Expandable Memory, Long Lasting Battery, Fast Charging, US Version, 2022, Silver, Amazon Exclusive</t>
   </si>
   <si>
-    <t>https://www.amazon.com/SAMSUNG-Android-Long-Lasting-Expandable-Exclusive/dp/B09N3YS882/ref=sr_1_5?crid=TR6ZCELH2F89&amp;dib=eyJ2IjoiMSJ9.jJO6Tdz4qWTToEKLv-21nMlRhZRnnIV14CeGv30l2dY6v-R8Cd3-iJlXZSzuifM-DGMFIF_S5ym-b8SN2mOsOoIDpU9q8snFDiQrnivuQH4oiDKmO9TSRMspjwQoQC3FCyMDng1OqBoV0Z1txGFFuJpGFPe_ZiXALcX1eGDWwUdwwnI5dX7MIl0-b960ewB3eStmR-pV_6kJWHmkjaEuvHjtG_tjzpzP9Dsq-GtlVoM.yjhQArGSahUDokrAJ3Z7IyfB57TGcwKDvJewCi_gtoU&amp;dib_tag=se&amp;keywords=Samsung+tablet&amp;qid=1711016587&amp;sprefix=sams%2Caps%2C305&amp;sr=8-5</t>
-  </si>
-  <si>
-    <t>Galaxy Tab A9 (64GB, 4GB, Wi-Fi Only) 8.7" Android Tablet, All Day Battery, Octa-core (6nm), Dual Speakers, International Model - X110 (256GB SD Bundle, Silver)</t>
+    <t>https://www.amazon.com/SAMSUNG-Android-Long-Lasting-Expandable-Exclusive/dp/B09N3YS882/ref=sr_1_5?crid=2TCNLNNT53CHD&amp;dib=eyJ2IjoiMSJ9.jJO6Tdz4qWTToEKLv-21nMlRhZRnnIV14CeGv30l2dY6v-R8Cd3-iJlXZSzuifM-DGMFIF_S5ym-b8SN2mOsOl2hXg9AWBVFsqY5U-t9Y9TfF9lxUIJ4OKlb-wwzu6sxFF-FM54pEDc98gtFnxWlZ3KoxStnUPM071Nu9FSGW76wDZsAu6SwyxF7H8TETdX2z5RuFCH6fM6FOf0LUWFxR3jtG_tjzpzP9Dsq-GtlVoM.pU-9Fqm61UgkIuv8I9r2PkOvxfFujI4mEQtq-FhsYdI&amp;dib_tag=se&amp;keywords=Samsung+tablet&amp;qid=1711024593&amp;sprefix=sams%2Caps%2C328&amp;sr=8-5</t>
+  </si>
+  <si>
+    <t>Galaxy Tab A9 (64GB, 4GB, Wi-Fi Only) 8.7" Android Tablet, All Day Battery, Octa-core (6nm), Dual Speakers, International Model - X110 (256GB SD Bundle, Graphite)</t>
   </si>
   <si>
     <t>1.0 out of 5 stars</t>
   </si>
   <si>
-    <t>https://www.amazon.com/SAMSUNG-Android-Octa-core-Speakers-International/dp/B0CVYYXRRL/ref=sr_1_10?crid=TR6ZCELH2F89&amp;dib=eyJ2IjoiMSJ9.jJO6Tdz4qWTToEKLv-21nMlRhZRnnIV14CeGv30l2dY6v-R8Cd3-iJlXZSzuifM-DGMFIF_S5ym-b8SN2mOsOoIDpU9q8snFDiQrnivuQH4oiDKmO9TSRMspjwQoQC3FCyMDng1OqBoV0Z1txGFFuJpGFPe_ZiXALcX1eGDWwUdwwnI5dX7MIl0-b960ewB3eStmR-pV_6kJWHmkjaEuvHjtG_tjzpzP9Dsq-GtlVoM.yjhQArGSahUDokrAJ3Z7IyfB57TGcwKDvJewCi_gtoU&amp;dib_tag=se&amp;keywords=Samsung+tablet&amp;qid=1711016587&amp;sprefix=sams%2Caps%2C305&amp;sr=8-10</t>
+    <t>https://www.amazon.com/SAMSUNG-Android-Octa-core-Speakers-International/dp/B0CVYYM57H/ref=sr_1_19?crid=2TCNLNNT53CHD&amp;dib=eyJ2IjoiMSJ9.jJO6Tdz4qWTToEKLv-21nMlRhZRnnIV14CeGv30l2dY6v-R8Cd3-iJlXZSzuifM-DGMFIF_S5ym-b8SN2mOsOl2hXg9AWBVFsqY5U-t9Y9TfF9lxUIJ4OKlb-wwzu6sxFF-FM54pEDc98gtFnxWlZ3KoxStnUPM071Nu9FSGW76wDZsAu6SwyxF7H8TETdX2z5RuFCH6fM6FOf0LUWFxR3jtG_tjzpzP9Dsq-GtlVoM.pU-9Fqm61UgkIuv8I9r2PkOvxfFujI4mEQtq-FhsYdI&amp;dib_tag=se&amp;keywords=Samsung+tablet&amp;qid=1711024593&amp;sprefix=sams%2Caps%2C328&amp;sr=8-19</t>
   </si>
   <si>
     <t>SAMSUNG Galaxy Tab A9+ Tablet 11” 64GB Android Tablet, Big Screen, Quad Speakers, Upgraded Chipset, Multi Window Display, Slim, Light, Durable Design, US Version, 2023, Silver</t>
   </si>
   <si>
-    <t>https://www.amazon.com/SAMSUNG-Android-Speakers-Upgraded-Chipset/dp/B0CLFH7CCV/ref=sxin_12_recs_zoco_stores_brand_identity_bs?content-id=amzn1.sym.7d2e00dd-9358-4f89-aca0-04685eb73811%3Aamzn1.sym.7d2e00dd-9358-4f89-aca0-04685eb73811&amp;crid=TR6ZCELH2F89&amp;cv_ct_cx=Samsung+tablet&amp;dib=eyJ2IjoiMSJ9.TK5JheCabegjh2M4Xyks79YxQdLqnYFiilT6GwHxoP1hkbj7CrUcTKLdNVWcDlKP8zA9vh7J1iegdDqk-EnNPA.GF4BNYM4dU3Gm_z6I9BtgNyEP9ewuOswhQ9uZaW8wRY&amp;dib_tag=se&amp;keywords=Samsung+tablet&amp;pd_rd_i=B0CLFH7CCV&amp;pd_rd_r=3cf22df9-ec8a-403f-83dd-8554010a2467&amp;pd_rd_w=Df1mK&amp;pd_rd_wg=baDJS&amp;pf_rd_p=7d2e00dd-9358-4f89-aca0-04685eb73811&amp;pf_rd_r=98X6DHP83KZGNFNHQ1BQ&amp;qid=1711016587&amp;sbo=RZvfv%2F%2FHxDF%2BO5021pAnSA%3D%3D&amp;sprefix=sams%2Caps%2C305&amp;sr=1-1-5f457e4f-4cf5-45bd-948b-58563dcb013a</t>
+    <t>https://www.amazon.com/SAMSUNG-Android-Speakers-Upgraded-Chipset/dp/B0CLFH7CCV/ref=sxin_12_recs_zoco_stores_brand_identity_bs?content-id=amzn1.sym.7d2e00dd-9358-4f89-aca0-04685eb73811%3Aamzn1.sym.7d2e00dd-9358-4f89-aca0-04685eb73811&amp;crid=2TCNLNNT53CHD&amp;cv_ct_cx=Samsung+tablet&amp;dib=eyJ2IjoiMSJ9.TK5JheCabegjh2M4Xyks79YxQdLqnYFiilT6GwHxoP1hkbj7CrUcTKLdNVWcDlKP8zA9vh7J1iegdDqk-EnNPA.GF4BNYM4dU3Gm_z6I9BtgNyEP9ewuOswhQ9uZaW8wRY&amp;dib_tag=se&amp;keywords=Samsung+tablet&amp;pd_rd_i=B0CLFH7CCV&amp;pd_rd_r=bea877a3-a3a2-4ef3-9f36-33d8075765a5&amp;pd_rd_w=v1296&amp;pd_rd_wg=bMBg5&amp;pf_rd_p=7d2e00dd-9358-4f89-aca0-04685eb73811&amp;pf_rd_r=883RDQQ367SZD53Y2E2E&amp;qid=1711024593&amp;sbo=RZvfv%2F%2FHxDF%2BO5021pAnSA%3D%3D&amp;sprefix=sams%2Caps%2C328&amp;sr=1-1-5f457e4f-4cf5-45bd-948b-58563dcb013a</t>
   </si>
   <si>
     <t>Tablet 2024 Latest 10.1 Inch Android 12 Tablet with Keyboard, 8GB RAM, 256GB ROM, 1TB Expansion, 2 In 1 Octa-Core Tablet, 5G Wifi &amp; 2.4G Wifi, 6000 mAh Battery, Dual Cameras, Bluetooth/Mouse/Case/GPS</t>
@@ -202,7 +202,7 @@
     <t>4.1 out of 5 stars</t>
   </si>
   <si>
-    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MToxNDI0Nzk4NzMzMjg4MDgwOjE3MTEwMTY1ODc6c3BfbXRmOjMwMDEzNTgzMjQxMzgwMjo6MDo6&amp;url=%2FAndroid-Keyboard-Expansion-Octa-Core-Bluetooth%2Fdp%2FB0CP4XT8FX%2Fref%3Dsr_1_12_sspa%3Fcrid%3DTR6ZCELH2F89%26dib%3DeyJ2IjoiMSJ9.jJO6Tdz4qWTToEKLv-21nMlRhZRnnIV14CeGv30l2dY6v-R8Cd3-iJlXZSzuifM-DGMFIF_S5ym-b8SN2mOsOoIDpU9q8snFDiQrnivuQH4oiDKmO9TSRMspjwQoQC3FCyMDng1OqBoV0Z1txGFFuJpGFPe_ZiXALcX1eGDWwUdwwnI5dX7MIl0-b960ewB3eStmR-pV_6kJWHmkjaEuvHjtG_tjzpzP9Dsq-GtlVoM.yjhQArGSahUDokrAJ3Z7IyfB57TGcwKDvJewCi_gtoU%26dib_tag%3Dse%26keywords%3DSamsung%2Btablet%26qid%3D1711016587%26sprefix%3Dsams%252Caps%252C305%26sr%3D8-12-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
+    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo0MDY3NTcxMDY5NjM2MDgwOjE3MTEwMjQ1OTM6c3BfbXRmOjMwMDEzNTgzMjQxMzgwMjo6MDo6&amp;url=%2FAndroid-Keyboard-Expansion-Octa-Core-Bluetooth%2Fdp%2FB0CP4XT8FX%2Fref%3Dsr_1_12_sspa%3Fcrid%3D2TCNLNNT53CHD%26dib%3DeyJ2IjoiMSJ9.jJO6Tdz4qWTToEKLv-21nMlRhZRnnIV14CeGv30l2dY6v-R8Cd3-iJlXZSzuifM-DGMFIF_S5ym-b8SN2mOsOl2hXg9AWBVFsqY5U-t9Y9TfF9lxUIJ4OKlb-wwzu6sxFF-FM54pEDc98gtFnxWlZ3KoxStnUPM071Nu9FSGW76wDZsAu6SwyxF7H8TETdX2z5RuFCH6fM6FOf0LUWFxR3jtG_tjzpzP9Dsq-GtlVoM.pU-9Fqm61UgkIuv8I9r2PkOvxfFujI4mEQtq-FhsYdI%26dib_tag%3Dse%26keywords%3DSamsung%2Btablet%26qid%3D1711024593%26sprefix%3Dsams%252Caps%252C328%26sr%3D8-12-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
   </si>
   <si>
     <t>Galaxy Tab A7 Lite (2021, 32GB, 3GB RAM) 8.7" (WiFi + Cellular) 5100mAh Battery, Android 11, 4G LTE Tablet GSM Unlocked, International Model - SM-T225 (Fast Car Charger Bundle, Gray)</t>
@@ -211,19 +211,19 @@
     <t>4.2 out of 5 stars</t>
   </si>
   <si>
-    <t>https://www.amazon.com/Samsung-Cellular-5100mAh-Unlocked-International/dp/B0973MR9XX/ref=sr_1_18?crid=TR6ZCELH2F89&amp;dib=eyJ2IjoiMSJ9.jJO6Tdz4qWTToEKLv-21nMlRhZRnnIV14CeGv30l2dY6v-R8Cd3-iJlXZSzuifM-DGMFIF_S5ym-b8SN2mOsOoIDpU9q8snFDiQrnivuQH4oiDKmO9TSRMspjwQoQC3FCyMDng1OqBoV0Z1txGFFuJpGFPe_ZiXALcX1eGDWwUdwwnI5dX7MIl0-b960ewB3eStmR-pV_6kJWHmkjaEuvHjtG_tjzpzP9Dsq-GtlVoM.yjhQArGSahUDokrAJ3Z7IyfB57TGcwKDvJewCi_gtoU&amp;dib_tag=se&amp;keywords=Samsung+tablet&amp;qid=1711016587&amp;sprefix=sams%2Caps%2C305&amp;sr=8-18</t>
+    <t>https://www.amazon.com/Samsung-Cellular-5100mAh-Unlocked-International/dp/B0973MR9XX/ref=sr_1_15?crid=2TCNLNNT53CHD&amp;dib=eyJ2IjoiMSJ9.jJO6Tdz4qWTToEKLv-21nMlRhZRnnIV14CeGv30l2dY6v-R8Cd3-iJlXZSzuifM-DGMFIF_S5ym-b8SN2mOsOl2hXg9AWBVFsqY5U-t9Y9TfF9lxUIJ4OKlb-wwzu6sxFF-FM54pEDc98gtFnxWlZ3KoxStnUPM071Nu9FSGW76wDZsAu6SwyxF7H8TETdX2z5RuFCH6fM6FOf0LUWFxR3jtG_tjzpzP9Dsq-GtlVoM.pU-9Fqm61UgkIuv8I9r2PkOvxfFujI4mEQtq-FhsYdI&amp;dib_tag=se&amp;keywords=Samsung+tablet&amp;qid=1711024593&amp;sprefix=sams%2Caps%2C328&amp;sr=8-15</t>
   </si>
   <si>
     <t>SAMSUNG SM-T290NZKAXAR, Galaxy Tab A 8.0" 32 GB Wifi Android 9.0 Pie Tablet Black 2019</t>
   </si>
   <si>
-    <t>https://www.amazon.com/Samsung-Galaxy-Android-Tablet-Black/dp/B07VDB92RK/ref=sr_1_20?crid=TR6ZCELH2F89&amp;dib=eyJ2IjoiMSJ9.jJO6Tdz4qWTToEKLv-21nMlRhZRnnIV14CeGv30l2dY6v-R8Cd3-iJlXZSzuifM-DGMFIF_S5ym-b8SN2mOsOoIDpU9q8snFDiQrnivuQH4oiDKmO9TSRMspjwQoQC3FCyMDng1OqBoV0Z1txGFFuJpGFPe_ZiXALcX1eGDWwUdwwnI5dX7MIl0-b960ewB3eStmR-pV_6kJWHmkjaEuvHjtG_tjzpzP9Dsq-GtlVoM.yjhQArGSahUDokrAJ3Z7IyfB57TGcwKDvJewCi_gtoU&amp;dib_tag=se&amp;keywords=Samsung+tablet&amp;qid=1711016587&amp;sprefix=sams%2Caps%2C305&amp;sr=8-20</t>
+    <t>https://www.amazon.com/Samsung-Galaxy-Android-Tablet-Black/dp/B07VDB92RK/ref=sr_1_20?crid=2TCNLNNT53CHD&amp;dib=eyJ2IjoiMSJ9.jJO6Tdz4qWTToEKLv-21nMlRhZRnnIV14CeGv30l2dY6v-R8Cd3-iJlXZSzuifM-DGMFIF_S5ym-b8SN2mOsOl2hXg9AWBVFsqY5U-t9Y9TfF9lxUIJ4OKlb-wwzu6sxFF-FM54pEDc98gtFnxWlZ3KoxStnUPM071Nu9FSGW76wDZsAu6SwyxF7H8TETdX2z5RuFCH6fM6FOf0LUWFxR3jtG_tjzpzP9Dsq-GtlVoM.pU-9Fqm61UgkIuv8I9r2PkOvxfFujI4mEQtq-FhsYdI&amp;dib_tag=se&amp;keywords=Samsung+tablet&amp;qid=1711024593&amp;sprefix=sams%2Caps%2C328&amp;sr=8-20</t>
   </si>
   <si>
     <t>Tab M9-2023 - Tablet - Long Battery Life - 9" HD - Front 2MP &amp; Rear 8MP Camera - 3GB Memory - 32GB Storage - Android 12 or Later - Folio Case Included,Gray</t>
   </si>
   <si>
-    <t>https://www.amazon.com/Lenovo-Tab-M9-2023-Battery-Included/dp/B0BYPHZWZK/ref=sr_1_13?crid=TR6ZCELH2F89&amp;dib=eyJ2IjoiMSJ9.jJO6Tdz4qWTToEKLv-21nMlRhZRnnIV14CeGv30l2dY6v-R8Cd3-iJlXZSzuifM-DGMFIF_S5ym-b8SN2mOsOoIDpU9q8snFDiQrnivuQH4oiDKmO9TSRMspjwQoQC3FCyMDng1OqBoV0Z1txGFFuJpGFPe_ZiXALcX1eGDWwUdwwnI5dX7MIl0-b960ewB3eStmR-pV_6kJWHmkjaEuvHjtG_tjzpzP9Dsq-GtlVoM.yjhQArGSahUDokrAJ3Z7IyfB57TGcwKDvJewCi_gtoU&amp;dib_tag=se&amp;keywords=Samsung+tablet&amp;qid=1711016587&amp;sprefix=sams%2Caps%2C305&amp;sr=8-13</t>
+    <t>https://www.amazon.com/Lenovo-Tab-M9-2023-Battery-Included/dp/B0BYPHZWZK/ref=sr_1_11?crid=2TCNLNNT53CHD&amp;dib=eyJ2IjoiMSJ9.jJO6Tdz4qWTToEKLv-21nMlRhZRnnIV14CeGv30l2dY6v-R8Cd3-iJlXZSzuifM-DGMFIF_S5ym-b8SN2mOsOl2hXg9AWBVFsqY5U-t9Y9TfF9lxUIJ4OKlb-wwzu6sxFF-FM54pEDc98gtFnxWlZ3KoxStnUPM071Nu9FSGW76wDZsAu6SwyxF7H8TETdX2z5RuFCH6fM6FOf0LUWFxR3jtG_tjzpzP9Dsq-GtlVoM.pU-9Fqm61UgkIuv8I9r2PkOvxfFujI4mEQtq-FhsYdI&amp;dib_tag=se&amp;keywords=Samsung+tablet&amp;qid=1711024593&amp;sprefix=sams%2Caps%2C328&amp;sr=8-11</t>
   </si>
   <si>
     <t>Galaxy Tab A 8.0 T387A 32GB Unlocked AT&amp;T Tablet - Black</t>
@@ -232,13 +232,13 @@
     <t>3.9 out of 5 stars</t>
   </si>
   <si>
-    <t>https://www.amazon.com/Samsung-Galaxy-T387A-Unlocked-Tablet/dp/B07XDM26Z3/ref=sr_1_14?crid=TR6ZCELH2F89&amp;dib=eyJ2IjoiMSJ9.jJO6Tdz4qWTToEKLv-21nMlRhZRnnIV14CeGv30l2dY6v-R8Cd3-iJlXZSzuifM-DGMFIF_S5ym-b8SN2mOsOoIDpU9q8snFDiQrnivuQH4oiDKmO9TSRMspjwQoQC3FCyMDng1OqBoV0Z1txGFFuJpGFPe_ZiXALcX1eGDWwUdwwnI5dX7MIl0-b960ewB3eStmR-pV_6kJWHmkjaEuvHjtG_tjzpzP9Dsq-GtlVoM.yjhQArGSahUDokrAJ3Z7IyfB57TGcwKDvJewCi_gtoU&amp;dib_tag=se&amp;keywords=Samsung+tablet&amp;qid=1711016587&amp;sprefix=sams%2Caps%2C305&amp;sr=8-14</t>
+    <t>https://www.amazon.com/Samsung-Galaxy-T387A-Unlocked-Tablet/dp/B07XDM26Z3/ref=sr_1_16?crid=2TCNLNNT53CHD&amp;dib=eyJ2IjoiMSJ9.jJO6Tdz4qWTToEKLv-21nMlRhZRnnIV14CeGv30l2dY6v-R8Cd3-iJlXZSzuifM-DGMFIF_S5ym-b8SN2mOsOl2hXg9AWBVFsqY5U-t9Y9TfF9lxUIJ4OKlb-wwzu6sxFF-FM54pEDc98gtFnxWlZ3KoxStnUPM071Nu9FSGW76wDZsAu6SwyxF7H8TETdX2z5RuFCH6fM6FOf0LUWFxR3jtG_tjzpzP9Dsq-GtlVoM.pU-9Fqm61UgkIuv8I9r2PkOvxfFujI4mEQtq-FhsYdI&amp;dib_tag=se&amp;keywords=Samsung+tablet&amp;qid=1711024593&amp;sprefix=sams%2Caps%2C328&amp;sr=8-16</t>
   </si>
   <si>
     <t>SAMSUNG Galaxy Tab A7 Lite 8.7" 32GB WiFi Android Tablet, Compact, Portable, Slim Design, Kid Friendly, Sturdy Metal Frame, Expandable Storage, Long Lasting Battery, US Version, 2021, Silver</t>
   </si>
   <si>
-    <t>https://www.amazon.com/SAMSUNG-Android-Compact-Lasting-Battery/dp/B094PXZMP6/ref=sr_1_8?crid=TR6ZCELH2F89&amp;dib=eyJ2IjoiMSJ9.jJO6Tdz4qWTToEKLv-21nMlRhZRnnIV14CeGv30l2dY6v-R8Cd3-iJlXZSzuifM-DGMFIF_S5ym-b8SN2mOsOoIDpU9q8snFDiQrnivuQH4oiDKmO9TSRMspjwQoQC3FCyMDng1OqBoV0Z1txGFFuJpGFPe_ZiXALcX1eGDWwUdwwnI5dX7MIl0-b960ewB3eStmR-pV_6kJWHmkjaEuvHjtG_tjzpzP9Dsq-GtlVoM.yjhQArGSahUDokrAJ3Z7IyfB57TGcwKDvJewCi_gtoU&amp;dib_tag=se&amp;keywords=Samsung+tablet&amp;qid=1711016587&amp;sprefix=sams%2Caps%2C305&amp;sr=8-8</t>
+    <t>https://www.amazon.com/SAMSUNG-Android-Compact-Lasting-Battery/dp/B094PXZMP6/ref=sr_1_8?crid=2TCNLNNT53CHD&amp;dib=eyJ2IjoiMSJ9.jJO6Tdz4qWTToEKLv-21nMlRhZRnnIV14CeGv30l2dY6v-R8Cd3-iJlXZSzuifM-DGMFIF_S5ym-b8SN2mOsOl2hXg9AWBVFsqY5U-t9Y9TfF9lxUIJ4OKlb-wwzu6sxFF-FM54pEDc98gtFnxWlZ3KoxStnUPM071Nu9FSGW76wDZsAu6SwyxF7H8TETdX2z5RuFCH6fM6FOf0LUWFxR3jtG_tjzpzP9Dsq-GtlVoM.pU-9Fqm61UgkIuv8I9r2PkOvxfFujI4mEQtq-FhsYdI&amp;dib_tag=se&amp;keywords=Samsung+tablet&amp;qid=1711024593&amp;sprefix=sams%2Caps%2C328&amp;sr=8-8</t>
   </si>
 </sst>
 </file>
@@ -616,7 +616,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B1B8907-01C3-4310-98B0-20813031D1D2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4F1B8DB-8A5B-4FF2-881C-3E40F2996FD7}">
   <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -624,7 +624,7 @@
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="188" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="255.7109375" style="1" bestFit="1" customWidth="1"/>
@@ -648,69 +648,69 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="51" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="1">
-        <v>951</v>
+        <v>899</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="1">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="1">
-        <v>898</v>
+        <v>898.49</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="1">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="51" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="1">
-        <v>796</v>
+        <v>796.19</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D4" s="1">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="51" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="1">
-        <v>599</v>
+        <v>569.99</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D5" s="1">
-        <v>476</v>
+        <v>291</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>14</v>
@@ -721,98 +721,98 @@
         <v>15</v>
       </c>
       <c r="B6" s="1">
-        <v>569</v>
+        <v>441.85</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D6" s="1">
         <v>291</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="51" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="1">
+        <v>349.99</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="1">
-        <v>441</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="D7" s="1">
-        <v>291</v>
+        <v>478</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="51" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B8" s="1">
-        <v>349</v>
+        <v>349.99</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D8" s="1">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B9" s="1">
-        <v>349</v>
+        <v>349.99</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D9" s="1">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B10" s="1">
-        <v>291</v>
+        <v>291.99</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>25</v>
       </c>
       <c r="D10" s="1">
-        <v>7021</v>
+        <v>7032</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B11" s="1">
-        <v>268</v>
+        <v>268.98</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D11" s="1">
-        <v>1859</v>
+        <v>1860</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>28</v>
@@ -829,13 +829,13 @@
         <v>6</v>
       </c>
       <c r="D12" s="1">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>29</v>
       </c>
@@ -846,75 +846,75 @@
         <v>6</v>
       </c>
       <c r="D13" s="1">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="51" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B14" s="1">
-        <v>219</v>
+        <v>224.49</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="D14" s="1">
-        <v>442</v>
+        <v>18146</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="51" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B15" s="1">
-        <v>219</v>
+        <v>219.99</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D15" s="1">
-        <v>442</v>
+        <v>458</v>
       </c>
       <c r="E15" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" ht="51" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="B16" s="1">
-        <v>219</v>
+        <v>219.99</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D16" s="1">
-        <v>442</v>
+        <v>458</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="51" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B17" s="1">
-        <v>219</v>
+        <v>219.99</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="D17" s="1">
-        <v>18145</v>
+        <v>458</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>38</v>
@@ -925,13 +925,13 @@
         <v>39</v>
       </c>
       <c r="B18" s="1">
-        <v>219</v>
+        <v>219.99</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D18" s="1">
-        <v>442</v>
+        <v>458</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>40</v>
@@ -948,52 +948,52 @@
         <v>6</v>
       </c>
       <c r="D19" s="1">
-        <v>23026</v>
+        <v>23049</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B20" s="1">
-        <v>199</v>
+        <v>199.98</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D20" s="1">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B21" s="1">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D21" s="1">
-        <v>23026</v>
+        <v>23049</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B22" s="1">
-        <v>179</v>
+        <v>172.49</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>49</v>
@@ -1010,13 +1010,13 @@
         <v>51</v>
       </c>
       <c r="B23" s="1">
-        <v>169</v>
+        <v>169.99</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D23" s="1">
-        <v>442</v>
+        <v>458</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>52</v>
@@ -1027,7 +1027,7 @@
         <v>53</v>
       </c>
       <c r="B24" s="1">
-        <v>169</v>
+        <v>169.99</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>54</v>
@@ -1039,7 +1039,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>56</v>
       </c>
@@ -1056,15 +1056,15 @@
         <v>58</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>59</v>
       </c>
       <c r="B26" s="1">
-        <v>148</v>
+        <v>148.12</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D26" s="1">
         <v>10341</v>
@@ -1073,15 +1073,15 @@
         <v>60</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>61</v>
       </c>
       <c r="B27" s="1">
-        <v>99</v>
+        <v>99.99</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D27" s="1">
         <v>657</v>
@@ -1090,12 +1090,12 @@
         <v>62</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>63</v>
       </c>
       <c r="B28" s="1">
-        <v>94</v>
+        <v>94.99</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>64</v>
@@ -1107,7 +1107,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>66</v>
       </c>
@@ -1115,7 +1115,7 @@
         <v>6</v>
       </c>
       <c r="D29" s="1">
-        <v>3977</v>
+        <v>3978</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>67</v>
@@ -1127,7 +1127,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AC6A80D-95F4-4031-862C-D16DA029CE76}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB09FAC8-7842-4805-A800-58A60A55CAE7}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/Data/Output/Carl.xlsx
+++ b/Data/Output/Carl.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Panda\Documents\UiPath\Final Project\Data\Output\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\npanda5\Documents\UiPath\Activity\Final Project\Data\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2609E844-A950-4CC7-910D-C4DB1BFE2211}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD160850-896E-451E-883D-3B50112CCDBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1335" yWindow="2430" windowWidth="12120" windowHeight="15555" xr2:uid="{227EF3FB-ED64-4F81-838E-A70E0B973761}"/>
+    <workbookView xWindow="1680" yWindow="1980" windowWidth="21600" windowHeight="11475" xr2:uid="{9926D614-4E8C-486F-9FFE-45D3F364AA6A}"/>
   </bookViews>
   <sheets>
     <sheet name="Samsung tablet" sheetId="2" r:id="rId1"/>
@@ -28,6 +28,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -52,178 +54,160 @@
     <t>URL</t>
   </si>
   <si>
-    <t>SAMSUNG Galaxy Tab S9+ Plus 12.4” 256GB , WiFi 6E Android Tablet, Snapdragon 8 Gen 2 Processor, AMOLED Screen, S Pen, Long Battery Life, IP68 Rating,US Version,2023,Beige</t>
+    <t>Galaxy Tab S9+ Plus 12.4” 256GB , WiFi 6E Android Tablet, Snapdragon 8 Gen 2 Processor, AMOLED Screen,S Pen, IP68 Rating, US Version,2023,Graphite</t>
   </si>
   <si>
     <t>4.5 out of 5 stars</t>
   </si>
   <si>
-    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo1NjIzMTI2MTE4Mjk4MDgwOjE3MTEwMjQ1OTM6c3Bfc2VhcmNoX3RoZW1hdGljOjMwMDAxOTg0MTEyODAwMjo6Mjo6&amp;url=%2FSAMSUNG-Android-Snapdragon-Processor-Battery%2Fdp%2FB0C4B92LTJ%2Fref%3Dsxin_34_pa_sp_search_thematic_sspa%3Fcontent-id%3Damzn1.sym.d4fdc453-1595-4f7b-ba6a-eb2ac554591f%253Aamzn1.sym.d4fdc453-1595-4f7b-ba6a-eb2ac554591f%26crid%3D2TCNLNNT53CHD%26cv_ct_cx%3DSamsung%2Btablet%26dib%3DeyJ2IjoiMSJ9.H8IGP6LxMf_08154v6dn8UNDAiUG-IzZ4nBgpEHHsusV7Eox8qhxzh2jjalgw3pG.8fhnNTOnPIEXzWuHNeXjNSu0-XUsFRNcD9ie18YLcLI%26dib_tag%3Dse%26keywords%3DSamsung%2Btablet%26pd_rd_i%3DB0C4B92LTJ%26pd_rd_r%3Dbea877a3-a3a2-4ef3-9f36-33d8075765a5%26pd_rd_w%3DaGCgT%26pd_rd_wg%3DbMBg5%26pf_rd_p%3Dd4fdc453-1595-4f7b-ba6a-eb2ac554591f%26pf_rd_r%3D883RDQQ367SZD53Y2E2E%26qid%3D1711024593%26sbo%3DRZvfv%252F%252FHxDF%252BO5021pAnSA%253D%253D%26sprefix%3Dsams%252Caps%252C328%26sr%3D1-3-364cf978-ce2a-480a-9bb0-bdb96faa0f61-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9zZWFyY2hfdGhlbWF0aWM%26psc%3D1</t>
-  </si>
-  <si>
-    <t>Galaxy Tab S9+ Plus 12.4” 256GB , WiFi 6E Android Tablet, Snapdragon 8 Gen 2 Processor, AMOLED Screen,S Pen, IP68 Rating, US Version,2023,Graphite</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/SAMSUNG-Android-Snapdragon-Processor-Graphite/dp/B0C4BBNP7R/ref=sr_1_13?crid=2TCNLNNT53CHD&amp;dib=eyJ2IjoiMSJ9.jJO6Tdz4qWTToEKLv-21nMlRhZRnnIV14CeGv30l2dY6v-R8Cd3-iJlXZSzuifM-DGMFIF_S5ym-b8SN2mOsOl2hXg9AWBVFsqY5U-t9Y9TfF9lxUIJ4OKlb-wwzu6sxFF-FM54pEDc98gtFnxWlZ3KoxStnUPM071Nu9FSGW76wDZsAu6SwyxF7H8TETdX2z5RuFCH6fM6FOf0LUWFxR3jtG_tjzpzP9Dsq-GtlVoM.pU-9Fqm61UgkIuv8I9r2PkOvxfFujI4mEQtq-FhsYdI&amp;dib_tag=se&amp;keywords=Samsung+tablet&amp;qid=1711024593&amp;sprefix=sams%2Caps%2C328&amp;sr=8-13</t>
-  </si>
-  <si>
-    <t>Galaxy Tab S9 11” 256GB , WiFi 6E Android Tablet, Snapdragon 8 Gen 2 Processor, AMOLED Screen, S Pen, IP68 Rating, US Version, 2023, Beige</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo0MDY3NTcxMDY5NjM2MDgwOjE3MTEwMjQ1OTM6c3BfbXRmOjMwMDAzMjg5NjQ1MzUwMjo6MDo6&amp;url=%2FSAMSUNG-Android-Snapdragon-Processor-Version%2Fdp%2FB0C4BBF23F%2Fref%3Dsr_1_7_sspa%3Fcrid%3D2TCNLNNT53CHD%26dib%3DeyJ2IjoiMSJ9.jJO6Tdz4qWTToEKLv-21nMlRhZRnnIV14CeGv30l2dY6v-R8Cd3-iJlXZSzuifM-DGMFIF_S5ym-b8SN2mOsOl2hXg9AWBVFsqY5U-t9Y9TfF9lxUIJ4OKlb-wwzu6sxFF-FM54pEDc98gtFnxWlZ3KoxStnUPM071Nu9FSGW76wDZsAu6SwyxF7H8TETdX2z5RuFCH6fM6FOf0LUWFxR3jtG_tjzpzP9Dsq-GtlVoM.pU-9Fqm61UgkIuv8I9r2PkOvxfFujI4mEQtq-FhsYdI%26dib_tag%3Dse%26keywords%3DSamsung%2Btablet%26qid%3D1711024593%26sprefix%3Dsams%252Caps%252C328%26sr%3D8-7-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
-  </si>
-  <si>
-    <t>SAMSUNG Galaxy Tab Active3 Enterprise Edition 8” Rugged Multi Purpose Tablet |64GB &amp; WiFi &amp; LTE (Unlocked) | Biometric Security (SM-T577UZKDN14), Black</t>
+    <t>https://www.amazon.com/SAMSUNG-Android-Snapdragon-Processor-Graphite/dp/B0C4BBNP7R/ref=sr_1_13?crid=2UWVNQKW2KXQA&amp;dib=eyJ2IjoiMSJ9.jJO6Tdz4qWTToEKLv-21nMlRhZRnnIV14CeGv30l2dY6v-R8Cd3-iJlXZSzuifM-DGMFIF_S5ym-b8SN2mOsOl2hXg9AWBVFsqY5U-t9Y9TfF9lxUIJ4OKlb-wwzu6sxFF-FM54pEDc98gtFnxWlZz3uWs7pyYjM6DWWMoIHD3u6mGClxusiN551jgtN5Lvoz5RuFCH6fM6FOf0LUWFxR3jtG_tjzpzP9Dsq-GtlVoM.p8J7fROJl_ApV9yNYlNQbylBuVmXMGocWH8t4zT2SH4&amp;dib_tag=se&amp;keywords=Samsung+tablet&amp;qid=1711036166&amp;sprefix=s%2Caps%2C318&amp;sr=8-13</t>
+  </si>
+  <si>
+    <t>SAMSUNG Galaxy Tab S9 11” 256GB , WiFi 6E Android Tablet, Snapdragon 8 Gen 2 Processor, AMOLED Screen, S Pen, IP68 Rating, US Version, 2023, Graphite</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTozNjYxNzE3MjA5MTIwMDgwOjE3MTEwMzYxNjY6c3Bfc2VhcmNoX3RoZW1hdGljOjMwMDAzMjg5NjQ1MzYwMjo6Mjo6&amp;url=%2FSAMSUNG-Android-Snapdragon-Processor-Graphite%2Fdp%2FB0C4B9MWHY%2Fref%3Dsxin_34_pa_sp_search_thematic_sspa%3Fcontent-id%3Damzn1.sym.d4fdc453-1595-4f7b-ba6a-eb2ac554591f%253Aamzn1.sym.d4fdc453-1595-4f7b-ba6a-eb2ac554591f%26crid%3D2UWVNQKW2KXQA%26cv_ct_cx%3DSamsung%2Btablet%26dib%3DeyJ2IjoiMSJ9.J1aA1G1sFGS72ShOwoeyCELdCdkw5ytN6oNrFWX7HN-fIMR5XbvDe2aXzNCjQVP_.X3_qnlB9pPBqM1aO6Mxh42YnfRJPyR-sW9uOMjnxQFw%26dib_tag%3Dse%26keywords%3DSamsung%2Btablet%26pd_rd_i%3DB0C4B9MWHY%26pd_rd_r%3D0ee76c25-b045-4931-a6d5-4f65adc43698%26pd_rd_w%3DISpv7%26pd_rd_wg%3DWSGMX%26pf_rd_p%3Dd4fdc453-1595-4f7b-ba6a-eb2ac554591f%26pf_rd_r%3D039M0YP8J15ED6SRX450%26qid%3D1711036166%26sbo%3DRZvfv%252F%252FHxDF%252BO5021pAnSA%253D%253D%26sprefix%3Ds%252Caps%252C318%26sr%3D1-3-364cf978-ce2a-480a-9bb0-bdb96faa0f61-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9zZWFyY2hfdGhlbWF0aWM%26psc%3D1</t>
+  </si>
+  <si>
+    <t>Samsung Galaxy Tab Active3 Enterprise Edition 8” Rugged Multi Purpose Tablet |128GB &amp; WiFi | Biometric Security (SM-T570NZKEN20), Black</t>
   </si>
   <si>
     <t>4.4 out of 5 stars</t>
   </si>
   <si>
-    <t>https://www.amazon.com/Enterprise-Unlocked-Biometric-Security-SM-T577UZKDN14/dp/B08T7RMRY9/ref=sxin_12_recs_zoco_stores_brand_identity_bs?content-id=amzn1.sym.7d2e00dd-9358-4f89-aca0-04685eb73811%3Aamzn1.sym.7d2e00dd-9358-4f89-aca0-04685eb73811&amp;crid=2TCNLNNT53CHD&amp;cv_ct_cx=Samsung+tablet&amp;dib=eyJ2IjoiMSJ9.TK5JheCabegjh2M4Xyks79YxQdLqnYFiilT6GwHxoP1hkbj7CrUcTKLdNVWcDlKP8zA9vh7J1iegdDqk-EnNPA.GF4BNYM4dU3Gm_z6I9BtgNyEP9ewuOswhQ9uZaW8wRY&amp;dib_tag=se&amp;keywords=Samsung+tablet&amp;pd_rd_i=B08T7RMRY9&amp;pd_rd_r=bea877a3-a3a2-4ef3-9f36-33d8075765a5&amp;pd_rd_w=v1296&amp;pd_rd_wg=bMBg5&amp;pf_rd_p=7d2e00dd-9358-4f89-aca0-04685eb73811&amp;pf_rd_r=883RDQQ367SZD53Y2E2E&amp;qid=1711024593&amp;sbo=RZvfv%2F%2FHxDF%2BO5021pAnSA%3D%3D&amp;sprefix=sams%2Caps%2C328&amp;sr=1-5-5f457e4f-4cf5-45bd-948b-58563dcb013a</t>
-  </si>
-  <si>
-    <t>Samsung Galaxy Tab Active3 Enterprise Edition 8” Rugged Multi Purpose Tablet |128GB &amp; WiFi | Biometric Security (SM-T570NZKEN20), Black</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Samsung-Enterprise-Biometric-Security-SM-T570NZKEN20/dp/B08T7V27QJ/ref=sxin_12_recs_zoco_stores_brand_identity_bs?content-id=amzn1.sym.7d2e00dd-9358-4f89-aca0-04685eb73811%3Aamzn1.sym.7d2e00dd-9358-4f89-aca0-04685eb73811&amp;crid=2TCNLNNT53CHD&amp;cv_ct_cx=Samsung+tablet&amp;dib=eyJ2IjoiMSJ9.TK5JheCabegjh2M4Xyks79YxQdLqnYFiilT6GwHxoP1hkbj7CrUcTKLdNVWcDlKP8zA9vh7J1iegdDqk-EnNPA.GF4BNYM4dU3Gm_z6I9BtgNyEP9ewuOswhQ9uZaW8wRY&amp;dib_tag=se&amp;keywords=Samsung+tablet&amp;pd_rd_i=B08T7V27QJ&amp;pd_rd_r=bea877a3-a3a2-4ef3-9f36-33d8075765a5&amp;pd_rd_w=v1296&amp;pd_rd_wg=bMBg5&amp;pf_rd_p=7d2e00dd-9358-4f89-aca0-04685eb73811&amp;pf_rd_r=883RDQQ367SZD53Y2E2E&amp;qid=1711024593&amp;sbo=RZvfv%2F%2FHxDF%2BO5021pAnSA%3D%3D&amp;sprefix=sams%2Caps%2C328&amp;sr=1-4-5f457e4f-4cf5-45bd-948b-58563dcb013a</t>
+    <t>https://www.amazon.com/Samsung-Enterprise-Biometric-Security-SM-T570NZKEN20/dp/B08T7V27QJ/ref=sxin_12_recs_zoco_stores_brand_identity_bs?content-id=amzn1.sym.7d2e00dd-9358-4f89-aca0-04685eb73811%3Aamzn1.sym.7d2e00dd-9358-4f89-aca0-04685eb73811&amp;crid=2UWVNQKW2KXQA&amp;cv_ct_cx=Samsung+tablet&amp;dib=eyJ2IjoiMSJ9.TK5JheCabegjh2M4Xyks79YxQdLqnYFiilT6GwHxoP3mtbvj12xt6MJv1igTvbtW.Q-9I97avq0f-k3CJrqHX8WAR2vWyrJa_Vnmfk92VvXo&amp;dib_tag=se&amp;keywords=Samsung+tablet&amp;pd_rd_i=B08T7V27QJ&amp;pd_rd_r=0ee76c25-b045-4931-a6d5-4f65adc43698&amp;pd_rd_w=ZxNlo&amp;pd_rd_wg=WSGMX&amp;pf_rd_p=7d2e00dd-9358-4f89-aca0-04685eb73811&amp;pf_rd_r=039M0YP8J15ED6SRX450&amp;qid=1711036166&amp;sbo=RZvfv%2F%2FHxDF%2BO5021pAnSA%3D%3D&amp;sprefix=s%2Caps%2C318&amp;sr=1-4-5f457e4f-4cf5-45bd-948b-58563dcb013a</t>
   </si>
   <si>
     <t>Galaxy Tab S9 FE Wi-Fi 10.9” 128GB, Android Tablet, IP68 Water- and Dust-Resistant, Long Battery Life, Powerful Processor, S Pen, 8MP Camera, Lightweight Design, US Version, 2023, Mint</t>
   </si>
   <si>
+    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo3MjcyMDUwNTE2MDgwMDgwOjE3MTEwMzYxNjY6c3BfYXRmOjMwMDA5MDk3NjM5MDYwMjo6MDo6&amp;url=%2FSAMSUNG-Dust-Resistant-Powerful-Processor-Lightweight%2Fdp%2FB0CCBRP9FD%2Fref%3Dsr_1_2_sspa%3Fcrid%3D2UWVNQKW2KXQA%26dib%3DeyJ2IjoiMSJ9.jJO6Tdz4qWTToEKLv-21nMlRhZRnnIV14CeGv30l2dY6v-R8Cd3-iJlXZSzuifM-DGMFIF_S5ym-b8SN2mOsOl2hXg9AWBVFsqY5U-t9Y9TfF9lxUIJ4OKlb-wwzu6sxFF-FM54pEDc98gtFnxWlZz3uWs7pyYjM6DWWMoIHD3u6mGClxusiN551jgtN5Lvoz5RuFCH6fM6FOf0LUWFxR3jtG_tjzpzP9Dsq-GtlVoM.p8J7fROJl_ApV9yNYlNQbylBuVmXMGocWH8t4zT2SH4%26dib_tag%3Dse%26keywords%3DSamsung%2Btablet%26qid%3D1711036166%26sprefix%3Ds%252Caps%252C318%26sr%3D8-2-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGY%26psc%3D1</t>
+  </si>
+  <si>
+    <t>Galaxy Tab S9 FE Wi-Fi 10.9” 128GB Android Tablet, IP68 Water- and Dust-Resistant, Long Battery Life, Powerful Processor, S Pen, 8MP Camera, Lightweight Design, US Version, 2023, Gray</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/SAMSUNG-Dust-Resistant-Powerful-Processor-Lightweight/dp/B0CCX11JT6/ref=sr_1_4?crid=2UWVNQKW2KXQA&amp;dib=eyJ2IjoiMSJ9.jJO6Tdz4qWTToEKLv-21nMlRhZRnnIV14CeGv30l2dY6v-R8Cd3-iJlXZSzuifM-DGMFIF_S5ym-b8SN2mOsOl2hXg9AWBVFsqY5U-t9Y9TfF9lxUIJ4OKlb-wwzu6sxFF-FM54pEDc98gtFnxWlZz3uWs7pyYjM6DWWMoIHD3u6mGClxusiN551jgtN5Lvoz5RuFCH6fM6FOf0LUWFxR3jtG_tjzpzP9Dsq-GtlVoM.p8J7fROJl_ApV9yNYlNQbylBuVmXMGocWH8t4zT2SH4&amp;dib_tag=se&amp;keywords=Samsung+tablet&amp;qid=1711036166&amp;sprefix=s%2Caps%2C318&amp;sr=8-4</t>
+  </si>
+  <si>
+    <t>Samsung Galaxy Tab S9 FE Wi-Fi 10.9” 128GB Android Tablet, IP68 Water- and Dust-Resistant, Long Battery Life, Powerful Processor, S Pen, 8MP Camera, Lightweight Design, US Version, 2023, Silver</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTozNjYxNzE3MjA5MTIwMDgwOjE3MTEwMzYxNjY6c3Bfc2VhcmNoX3RoZW1hdGljOjMwMDA5MDk3NjM5MDUwMjo6MDo6&amp;url=%2FSAMSUNG-Dust-Resistant-Powerful-Processor-Lightweight%2Fdp%2FB0CCBS8NGX%2Fref%3Dsxin_34_pa_sp_search_thematic_sspa%3Fcontent-id%3Damzn1.sym.d4fdc453-1595-4f7b-ba6a-eb2ac554591f%253Aamzn1.sym.d4fdc453-1595-4f7b-ba6a-eb2ac554591f%26crid%3D2UWVNQKW2KXQA%26cv_ct_cx%3DSamsung%2Btablet%26dib%3DeyJ2IjoiMSJ9.J1aA1G1sFGS72ShOwoeyCELdCdkw5ytN6oNrFWX7HN-fIMR5XbvDe2aXzNCjQVP_.X3_qnlB9pPBqM1aO6Mxh42YnfRJPyR-sW9uOMjnxQFw%26dib_tag%3Dse%26keywords%3DSamsung%2Btablet%26pd_rd_i%3DB0CCBS8NGX%26pd_rd_r%3D0ee76c25-b045-4931-a6d5-4f65adc43698%26pd_rd_w%3DISpv7%26pd_rd_wg%3DWSGMX%26pf_rd_p%3Dd4fdc453-1595-4f7b-ba6a-eb2ac554591f%26pf_rd_r%3D039M0YP8J15ED6SRX450%26qid%3D1711036166%26sbo%3DRZvfv%252F%252FHxDF%252BO5021pAnSA%253D%253D%26sprefix%3Ds%252Caps%252C318%26sr%3D1-1-364cf978-ce2a-480a-9bb0-bdb96faa0f61-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9zZWFyY2hfdGhlbWF0aWM%26psc%3D1</t>
+  </si>
+  <si>
+    <t>SAMSUNG 2022 Galaxy Tab A8 10.5” Inch 128 GB Wi-Fi Android 11 Touchscreen International Tablet Bundle MDTec Hard Back Tri-Fold Stand Cover Case and 64GB microSD Card [Gray]</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTozNjYxNzE3MjA5MTIwMDgwOjE3MTEwMzYxNjY6c3Bfc2VhcmNoX3RoZW1hdGljOjMwMDEyOTExMjYyODgwMjo6NDo6&amp;url=%2FSAMSUNG-Android-Touchscreen-International-Tri-Fold%2Fdp%2FB0B69KRZRS%2Fref%3Dsxin_34_pa_sp_search_thematic_sspa%3Fcontent-id%3Damzn1.sym.d4fdc453-1595-4f7b-ba6a-eb2ac554591f%253Aamzn1.sym.d4fdc453-1595-4f7b-ba6a-eb2ac554591f%26crid%3D2UWVNQKW2KXQA%26cv_ct_cx%3DSamsung%2Btablet%26dib%3DeyJ2IjoiMSJ9.J1aA1G1sFGS72ShOwoeyCELdCdkw5ytN6oNrFWX7HN-fIMR5XbvDe2aXzNCjQVP_.X3_qnlB9pPBqM1aO6Mxh42YnfRJPyR-sW9uOMjnxQFw%26dib_tag%3Dse%26keywords%3DSamsung%2Btablet%26pd_rd_i%3DB0B69KRZRS%26pd_rd_r%3D0ee76c25-b045-4931-a6d5-4f65adc43698%26pd_rd_w%3DISpv7%26pd_rd_wg%3DWSGMX%26pf_rd_p%3Dd4fdc453-1595-4f7b-ba6a-eb2ac554591f%26pf_rd_r%3D039M0YP8J15ED6SRX450%26qid%3D1711036166%26sbo%3DRZvfv%252F%252FHxDF%252BO5021pAnSA%253D%253D%26sprefix%3Ds%252Caps%252C318%26sr%3D1-4-364cf978-ce2a-480a-9bb0-bdb96faa0f61-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9zZWFyY2hfdGhlbWF0aWM%26psc%3D1</t>
+  </si>
+  <si>
+    <t>Galaxy Tab S6 Lite 10.4" 128GB Android Tablet, LCD Screen, S Pen Included, Slim Metal Design, AKG Dual Speakers, 8MP Rear Camera, Long Lasting Battery, US Version, 2022, Angora Blue</t>
+  </si>
+  <si>
+    <t>4.7 out of 5 stars</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/SAMSUNG-Android-Lasting-Included-Speakers/dp/B09WYYW4TR/ref=sr_1_6?crid=2UWVNQKW2KXQA&amp;dib=eyJ2IjoiMSJ9.jJO6Tdz4qWTToEKLv-21nMlRhZRnnIV14CeGv30l2dY6v-R8Cd3-iJlXZSzuifM-DGMFIF_S5ym-b8SN2mOsOl2hXg9AWBVFsqY5U-t9Y9TfF9lxUIJ4OKlb-wwzu6sxFF-FM54pEDc98gtFnxWlZz3uWs7pyYjM6DWWMoIHD3u6mGClxusiN551jgtN5Lvoz5RuFCH6fM6FOf0LUWFxR3jtG_tjzpzP9Dsq-GtlVoM.p8J7fROJl_ApV9yNYlNQbylBuVmXMGocWH8t4zT2SH4&amp;dib_tag=se&amp;keywords=Samsung+tablet&amp;qid=1711036166&amp;sprefix=s%2Caps%2C318&amp;sr=8-6</t>
+  </si>
+  <si>
+    <t>Galaxy Tab A8 10.5-inch Touchscreen (1920x1200) Wi-Fi Tablet Bundle, Octa-Core Processor, 3GB RAM, 32GB Memory, Bluetooth, 128GB MicroSD Card, Android 11 OS</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Samsung-Galaxy-Tab-Touchscreen-Bundle/dp/B07VN76C78/ref=sr_1_21?crid=2UWVNQKW2KXQA&amp;dib=eyJ2IjoiMSJ9.jJO6Tdz4qWTToEKLv-21nMlRhZRnnIV14CeGv30l2dY6v-R8Cd3-iJlXZSzuifM-DGMFIF_S5ym-b8SN2mOsOl2hXg9AWBVFsqY5U-t9Y9TfF9lxUIJ4OKlb-wwzu6sxFF-FM54pEDc98gtFnxWlZz3uWs7pyYjM6DWWMoIHD3u6mGClxusiN551jgtN5Lvoz5RuFCH6fM6FOf0LUWFxR3jtG_tjzpzP9Dsq-GtlVoM.p8J7fROJl_ApV9yNYlNQbylBuVmXMGocWH8t4zT2SH4&amp;dib_tag=se&amp;keywords=Samsung+tablet&amp;qid=1711036166&amp;sprefix=s%2Caps%2C318&amp;sr=8-21</t>
+  </si>
+  <si>
+    <t>SAMSUNG Galaxy Tab S6 Lite 10.4" 64GB WiFi Android Tablet w/ S Pen Included, Slim Metal Design, Crystal Clear Display, Dual Speakers, Long Lasting Battery, SM-P610NZIAXAR, Chiffon Rose</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/SAMSUNG-Android-Included-Speakers-SM-P610NZIAXAR/dp/B086Z3QNBM/ref=sr_1_14?crid=2UWVNQKW2KXQA&amp;dib=eyJ2IjoiMSJ9.jJO6Tdz4qWTToEKLv-21nMlRhZRnnIV14CeGv30l2dY6v-R8Cd3-iJlXZSzuifM-DGMFIF_S5ym-b8SN2mOsOl2hXg9AWBVFsqY5U-t9Y9TfF9lxUIJ4OKlb-wwzu6sxFF-FM54pEDc98gtFnxWlZz3uWs7pyYjM6DWWMoIHD3u6mGClxusiN551jgtN5Lvoz5RuFCH6fM6FOf0LUWFxR3jtG_tjzpzP9Dsq-GtlVoM.p8J7fROJl_ApV9yNYlNQbylBuVmXMGocWH8t4zT2SH4&amp;dib_tag=se&amp;keywords=Samsung+tablet&amp;qid=1711036166&amp;sprefix=s%2Caps%2C318&amp;sr=8-14</t>
+  </si>
+  <si>
+    <t>Galaxy Tab A9+ Tablet 11” 128GB Android Tablet, Big Screen, Quad Speakers, Upgraded Chipset, Multi Window Display, Slim, Light, Durable Design, US Version, 2023, Graphite</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo3MjcyMDUwNTE2MDgwMDgwOjE3MTEwMzYxNjY6c3BfYXRmOjMwMDEyMDgzNjEyMjkwMjo6MDo6&amp;url=%2FSAMSUNG-Android-Speakers-Upgraded-Graphite%2Fdp%2FB0CLF2DNMV%2Fref%3Dsr_1_1_sspa%3Fcrid%3D2UWVNQKW2KXQA%26dib%3DeyJ2IjoiMSJ9.jJO6Tdz4qWTToEKLv-21nMlRhZRnnIV14CeGv30l2dY6v-R8Cd3-iJlXZSzuifM-DGMFIF_S5ym-b8SN2mOsOl2hXg9AWBVFsqY5U-t9Y9TfF9lxUIJ4OKlb-wwzu6sxFF-FM54pEDc98gtFnxWlZz3uWs7pyYjM6DWWMoIHD3u6mGClxusiN551jgtN5Lvoz5RuFCH6fM6FOf0LUWFxR3jtG_tjzpzP9Dsq-GtlVoM.p8J7fROJl_ApV9yNYlNQbylBuVmXMGocWH8t4zT2SH4%26dib_tag%3Dse%26keywords%3DSamsung%2Btablet%26qid%3D1711036166%26sprefix%3Ds%252Caps%252C318%26sr%3D8-1-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGY%26psc%3D1</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/SAMSUNG-Android-Speakers-Upgraded-Graphite/dp/B0CLF2DNMV/ref=sr_1_3?crid=2UWVNQKW2KXQA&amp;dib=eyJ2IjoiMSJ9.jJO6Tdz4qWTToEKLv-21nMlRhZRnnIV14CeGv30l2dY6v-R8Cd3-iJlXZSzuifM-DGMFIF_S5ym-b8SN2mOsOl2hXg9AWBVFsqY5U-t9Y9TfF9lxUIJ4OKlb-wwzu6sxFF-FM54pEDc98gtFnxWlZz3uWs7pyYjM6DWWMoIHD3u6mGClxusiN551jgtN5Lvoz5RuFCH6fM6FOf0LUWFxR3jtG_tjzpzP9Dsq-GtlVoM.p8J7fROJl_ApV9yNYlNQbylBuVmXMGocWH8t4zT2SH4&amp;dib_tag=se&amp;keywords=Samsung+tablet&amp;qid=1711036166&amp;sprefix=s%2Caps%2C318&amp;sr=8-3</t>
+  </si>
+  <si>
+    <t>SAMSUNG Galaxy Tab A9+ Tablet for Kids, 11” 128GB Android Tablet, Big Screen, Quad Speakers, Upgraded Chipset, Multi Window Display, Slim, Light, Durable Design, US Version, 2023, Silver</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/SAMSUNG-Android-Speakers-Upgraded-Chipset/dp/B0CLF4NVSL/ref=sxin_12_recs_zoco_stores_brand_identity_bs?content-id=amzn1.sym.7d2e00dd-9358-4f89-aca0-04685eb73811%3Aamzn1.sym.7d2e00dd-9358-4f89-aca0-04685eb73811&amp;crid=2UWVNQKW2KXQA&amp;cv_ct_cx=Samsung+tablet&amp;dib=eyJ2IjoiMSJ9.TK5JheCabegjh2M4Xyks79YxQdLqnYFiilT6GwHxoP3mtbvj12xt6MJv1igTvbtW.Q-9I97avq0f-k3CJrqHX8WAR2vWyrJa_Vnmfk92VvXo&amp;dib_tag=se&amp;keywords=Samsung+tablet&amp;pd_rd_i=B0CLF4NVSL&amp;pd_rd_r=0ee76c25-b045-4931-a6d5-4f65adc43698&amp;pd_rd_w=ZxNlo&amp;pd_rd_wg=WSGMX&amp;pf_rd_p=7d2e00dd-9358-4f89-aca0-04685eb73811&amp;pf_rd_r=039M0YP8J15ED6SRX450&amp;qid=1711036166&amp;sbo=RZvfv%2F%2FHxDF%2BO5021pAnSA%3D%3D&amp;sprefix=s%2Caps%2C318&amp;sr=1-2-5f457e4f-4cf5-45bd-948b-58563dcb013a</t>
+  </si>
+  <si>
+    <t>Samsung Galaxy Tab A8 10.5-in 128GB Tablet - Gray SM-X200NZAFXAR (2022)</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Samsung-Galaxy-10-5-128GB-Tablet/dp/B09N3ZC8FL/ref=sxin_12_recs_zoco_stores_brand_identity_bs?content-id=amzn1.sym.7d2e00dd-9358-4f89-aca0-04685eb73811%3Aamzn1.sym.7d2e00dd-9358-4f89-aca0-04685eb73811&amp;crid=2UWVNQKW2KXQA&amp;cv_ct_cx=Samsung+tablet&amp;dib=eyJ2IjoiMSJ9.TK5JheCabegjh2M4Xyks79YxQdLqnYFiilT6GwHxoP3mtbvj12xt6MJv1igTvbtW.Q-9I97avq0f-k3CJrqHX8WAR2vWyrJa_Vnmfk92VvXo&amp;dib_tag=se&amp;keywords=Samsung+tablet&amp;pd_rd_i=B09N3ZC8FL&amp;pd_rd_r=0ee76c25-b045-4931-a6d5-4f65adc43698&amp;pd_rd_w=ZxNlo&amp;pd_rd_wg=WSGMX&amp;pf_rd_p=7d2e00dd-9358-4f89-aca0-04685eb73811&amp;pf_rd_r=039M0YP8J15ED6SRX450&amp;qid=1711036166&amp;sbo=RZvfv%2F%2FHxDF%2BO5021pAnSA%3D%3D&amp;sprefix=s%2Caps%2C318&amp;sr=1-3-5f457e4f-4cf5-45bd-948b-58563dcb013a</t>
+  </si>
+  <si>
+    <t>2024 Newest Tablet Android 13 Tablets 10 Inch, Tablet 128GB ROM+16GB RAM (8+8 Virtual), 2 In 1 Tablet with keyboard, Powerful Octa-Core+13MP Camera, 1TB TF Expandable, FHD IPS Display WiFi Tablet PC</t>
+  </si>
+  <si>
+    <t>4.3 out of 5 stars</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Newest-Tablet-Tablet-keyboard-Octa-Core-Expandable/dp/B0C77MDDNL/ref=sr_1_10?crid=2UWVNQKW2KXQA&amp;dib=eyJ2IjoiMSJ9.jJO6Tdz4qWTToEKLv-21nMlRhZRnnIV14CeGv30l2dY6v-R8Cd3-iJlXZSzuifM-DGMFIF_S5ym-b8SN2mOsOl2hXg9AWBVFsqY5U-t9Y9TfF9lxUIJ4OKlb-wwzu6sxFF-FM54pEDc98gtFnxWlZz3uWs7pyYjM6DWWMoIHD3u6mGClxusiN551jgtN5Lvoz5RuFCH6fM6FOf0LUWFxR3jtG_tjzpzP9Dsq-GtlVoM.p8J7fROJl_ApV9yNYlNQbylBuVmXMGocWH8t4zT2SH4&amp;dib_tag=se&amp;keywords=Samsung+tablet&amp;qid=1711036166&amp;sprefix=s%2Caps%2C318&amp;sr=8-10</t>
+  </si>
+  <si>
+    <t>Galaxy Tab A8 10.5” 64GB Android Tablet, LCD Screen, Kids Content, Smart Switch, Expandable Memory, Long Lasting Battery, Fast Charging, US Version, 2022, Silver, Amazon Exclusive</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/SAMSUNG-Android-Long-Lasting-Expandable-Exclusive/dp/B09N3YS882/ref=sr_1_5?crid=2UWVNQKW2KXQA&amp;dib=eyJ2IjoiMSJ9.jJO6Tdz4qWTToEKLv-21nMlRhZRnnIV14CeGv30l2dY6v-R8Cd3-iJlXZSzuifM-DGMFIF_S5ym-b8SN2mOsOl2hXg9AWBVFsqY5U-t9Y9TfF9lxUIJ4OKlb-wwzu6sxFF-FM54pEDc98gtFnxWlZz3uWs7pyYjM6DWWMoIHD3u6mGClxusiN551jgtN5Lvoz5RuFCH6fM6FOf0LUWFxR3jtG_tjzpzP9Dsq-GtlVoM.p8J7fROJl_ApV9yNYlNQbylBuVmXMGocWH8t4zT2SH4&amp;dib_tag=se&amp;keywords=Samsung+tablet&amp;qid=1711036166&amp;sprefix=s%2Caps%2C318&amp;sr=8-5</t>
+  </si>
+  <si>
+    <t>Galaxy Tab A9 (64GB, 4GB, Wi-Fi Only) 8.7" Android Tablet, All Day Battery, Octa-core (6nm), Dual Speakers, International Model - X110 (256GB SD Bundle, Graphite)</t>
+  </si>
+  <si>
+    <t>1.0 out of 5 stars</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/SAMSUNG-Android-Octa-core-Speakers-International/dp/B0CVYYM57H/ref=sr_1_19?crid=2UWVNQKW2KXQA&amp;dib=eyJ2IjoiMSJ9.jJO6Tdz4qWTToEKLv-21nMlRhZRnnIV14CeGv30l2dY6v-R8Cd3-iJlXZSzuifM-DGMFIF_S5ym-b8SN2mOsOl2hXg9AWBVFsqY5U-t9Y9TfF9lxUIJ4OKlb-wwzu6sxFF-FM54pEDc98gtFnxWlZz3uWs7pyYjM6DWWMoIHD3u6mGClxusiN551jgtN5Lvoz5RuFCH6fM6FOf0LUWFxR3jtG_tjzpzP9Dsq-GtlVoM.p8J7fROJl_ApV9yNYlNQbylBuVmXMGocWH8t4zT2SH4&amp;dib_tag=se&amp;keywords=Samsung+tablet&amp;qid=1711036166&amp;sprefix=s%2Caps%2C318&amp;sr=8-19</t>
+  </si>
+  <si>
+    <t>SAMSUNG Galaxy Tab A9+ Tablet 11” 64GB Android Tablet, Big Screen, Quad Speakers, Upgraded Chipset, Multi Window Display, Slim, Light, Durable Design, US Version, 2023, Silver</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/SAMSUNG-Android-Speakers-Upgraded-Chipset/dp/B0CLFH7CCV/ref=sxin_12_recs_zoco_stores_brand_identity_bs?content-id=amzn1.sym.7d2e00dd-9358-4f89-aca0-04685eb73811%3Aamzn1.sym.7d2e00dd-9358-4f89-aca0-04685eb73811&amp;crid=2UWVNQKW2KXQA&amp;cv_ct_cx=Samsung+tablet&amp;dib=eyJ2IjoiMSJ9.TK5JheCabegjh2M4Xyks79YxQdLqnYFiilT6GwHxoP3mtbvj12xt6MJv1igTvbtW.Q-9I97avq0f-k3CJrqHX8WAR2vWyrJa_Vnmfk92VvXo&amp;dib_tag=se&amp;keywords=Samsung+tablet&amp;pd_rd_i=B0CLFH7CCV&amp;pd_rd_r=0ee76c25-b045-4931-a6d5-4f65adc43698&amp;pd_rd_w=ZxNlo&amp;pd_rd_wg=WSGMX&amp;pf_rd_p=7d2e00dd-9358-4f89-aca0-04685eb73811&amp;pf_rd_r=039M0YP8J15ED6SRX450&amp;qid=1711036166&amp;sbo=RZvfv%2F%2FHxDF%2BO5021pAnSA%3D%3D&amp;sprefix=s%2Caps%2C318&amp;sr=1-1-5f457e4f-4cf5-45bd-948b-58563dcb013a</t>
+  </si>
+  <si>
+    <t>Tablet 2024 Latest 10.1 Inch Android 12 Tablet with Keyboard, 8GB RAM, 256GB ROM, 1TB Expansion, 2 In 1 Octa-Core Tablet, 5G Wifi &amp; 2.4G Wifi, 6000 mAh Battery, Dual Cameras, Bluetooth/Mouse/Case/GPS</t>
+  </si>
+  <si>
+    <t>4.1 out of 5 stars</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo3MjcyMDUwNTE2MDgwMDgwOjE3MTEwMzYxNjY6c3BfbXRmOjMwMDEzNTgzMjQxMzgwMjo6MDo6&amp;url=%2FAndroid-Keyboard-Expansion-Octa-Core-Bluetooth%2Fdp%2FB0CP4XT8FX%2Fref%3Dsr_1_7_sspa%3Fcrid%3D2UWVNQKW2KXQA%26dib%3DeyJ2IjoiMSJ9.jJO6Tdz4qWTToEKLv-21nMlRhZRnnIV14CeGv30l2dY6v-R8Cd3-iJlXZSzuifM-DGMFIF_S5ym-b8SN2mOsOl2hXg9AWBVFsqY5U-t9Y9TfF9lxUIJ4OKlb-wwzu6sxFF-FM54pEDc98gtFnxWlZz3uWs7pyYjM6DWWMoIHD3u6mGClxusiN551jgtN5Lvoz5RuFCH6fM6FOf0LUWFxR3jtG_tjzpzP9Dsq-GtlVoM.p8J7fROJl_ApV9yNYlNQbylBuVmXMGocWH8t4zT2SH4%26dib_tag%3Dse%26keywords%3DSamsung%2Btablet%26qid%3D1711036166%26sprefix%3Ds%252Caps%252C318%26sr%3D8-7-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTozNjYxNzE3MjA5MTIwMDgwOjE3MTEwMzYxNjY6c3Bfc2VhcmNoX3RoZW1hdGljOjMwMDEyMDc2ODc4ODYwMjo6MTo6&amp;url=%2FSAMSUNG-Android-Speakers-Upgraded-Chipset%2Fdp%2FB0CLFH7CCV%2Fref%3Dsxin_34_pa_sp_search_thematic_sspa%3Fcontent-id%3Damzn1.sym.d4fdc453-1595-4f7b-ba6a-eb2ac554591f%253Aamzn1.sym.d4fdc453-1595-4f7b-ba6a-eb2ac554591f%26crid%3D2UWVNQKW2KXQA%26cv_ct_cx%3DSamsung%2Btablet%26dib%3DeyJ2IjoiMSJ9.J1aA1G1sFGS72ShOwoeyCELdCdkw5ytN6oNrFWX7HN-fIMR5XbvDe2aXzNCjQVP_.X3_qnlB9pPBqM1aO6Mxh42YnfRJPyR-sW9uOMjnxQFw%26dib_tag%3Dse%26keywords%3DSamsung%2Btablet%26pd_rd_i%3DB0CLFH7CCV%26pd_rd_r%3D0ee76c25-b045-4931-a6d5-4f65adc43698%26pd_rd_w%3DISpv7%26pd_rd_wg%3DWSGMX%26pf_rd_p%3Dd4fdc453-1595-4f7b-ba6a-eb2ac554591f%26pf_rd_r%3D039M0YP8J15ED6SRX450%26qid%3D1711036166%26sbo%3DRZvfv%252F%252FHxDF%252BO5021pAnSA%253D%253D%26sprefix%3Ds%252Caps%252C318%26sr%3D1-2-364cf978-ce2a-480a-9bb0-bdb96faa0f61-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9zZWFyY2hfdGhlbWF0aWM%26psc%3D1</t>
+  </si>
+  <si>
+    <t>Galaxy Tab A7 Lite (2021, 32GB, 3GB RAM) 8.7" (WiFi + Cellular) 5100mAh Battery, Android 11, 4G LTE Tablet GSM Unlocked, International Model - SM-T225 (Fast Car Charger Bundle, Gray)</t>
+  </si>
+  <si>
+    <t>4.2 out of 5 stars</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Samsung-Cellular-5100mAh-Unlocked-International/dp/B0973MR9XX/ref=sr_1_16?crid=2UWVNQKW2KXQA&amp;dib=eyJ2IjoiMSJ9.jJO6Tdz4qWTToEKLv-21nMlRhZRnnIV14CeGv30l2dY6v-R8Cd3-iJlXZSzuifM-DGMFIF_S5ym-b8SN2mOsOl2hXg9AWBVFsqY5U-t9Y9TfF9lxUIJ4OKlb-wwzu6sxFF-FM54pEDc98gtFnxWlZz3uWs7pyYjM6DWWMoIHD3u6mGClxusiN551jgtN5Lvoz5RuFCH6fM6FOf0LUWFxR3jtG_tjzpzP9Dsq-GtlVoM.p8J7fROJl_ApV9yNYlNQbylBuVmXMGocWH8t4zT2SH4&amp;dib_tag=se&amp;keywords=Samsung+tablet&amp;qid=1711036166&amp;sprefix=s%2Caps%2C318&amp;sr=8-16</t>
+  </si>
+  <si>
+    <t>SAMSUNG SM-T290NZKAXAR, Galaxy Tab A 8.0" 32 GB Wifi Android 9.0 Pie Tablet Black 2019</t>
+  </si>
+  <si>
     <t>4.6 out of 5 stars</t>
   </si>
   <si>
-    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo0MDY3NTcxMDY5NjM2MDgwOjE3MTEwMjQ1OTM6c3BfYXRmOjMwMDA5MDk3NjM5MDYwMjo6MDo6&amp;url=%2FSAMSUNG-Dust-Resistant-Powerful-Processor-Lightweight%2Fdp%2FB0CCBRP9FD%2Fref%3Dsr_1_2_sspa%3Fcrid%3D2TCNLNNT53CHD%26dib%3DeyJ2IjoiMSJ9.jJO6Tdz4qWTToEKLv-21nMlRhZRnnIV14CeGv30l2dY6v-R8Cd3-iJlXZSzuifM-DGMFIF_S5ym-b8SN2mOsOl2hXg9AWBVFsqY5U-t9Y9TfF9lxUIJ4OKlb-wwzu6sxFF-FM54pEDc98gtFnxWlZ3KoxStnUPM071Nu9FSGW76wDZsAu6SwyxF7H8TETdX2z5RuFCH6fM6FOf0LUWFxR3jtG_tjzpzP9Dsq-GtlVoM.pU-9Fqm61UgkIuv8I9r2PkOvxfFujI4mEQtq-FhsYdI%26dib_tag%3Dse%26keywords%3DSamsung%2Btablet%26qid%3D1711024593%26sprefix%3Dsams%252Caps%252C328%26sr%3D8-2-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGY%26psc%3D1</t>
-  </si>
-  <si>
-    <t>Galaxy Tab S9 FE Wi-Fi 10.9” 128GB Android Tablet, IP68 Water- and Dust-Resistant, Long Battery Life, Powerful Processor, S Pen, 8MP Camera, Lightweight Design, US Version, 2023, Gray</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/SAMSUNG-Dust-Resistant-Powerful-Processor-Lightweight/dp/B0CCX11JT6/ref=sr_1_4?crid=2TCNLNNT53CHD&amp;dib=eyJ2IjoiMSJ9.jJO6Tdz4qWTToEKLv-21nMlRhZRnnIV14CeGv30l2dY6v-R8Cd3-iJlXZSzuifM-DGMFIF_S5ym-b8SN2mOsOl2hXg9AWBVFsqY5U-t9Y9TfF9lxUIJ4OKlb-wwzu6sxFF-FM54pEDc98gtFnxWlZ3KoxStnUPM071Nu9FSGW76wDZsAu6SwyxF7H8TETdX2z5RuFCH6fM6FOf0LUWFxR3jtG_tjzpzP9Dsq-GtlVoM.pU-9Fqm61UgkIuv8I9r2PkOvxfFujI4mEQtq-FhsYdI&amp;dib_tag=se&amp;keywords=Samsung+tablet&amp;qid=1711024593&amp;sprefix=sams%2Caps%2C328&amp;sr=8-4</t>
-  </si>
-  <si>
-    <t>Samsung Galaxy Tab S9 FE Wi-Fi 10.9” 128GB, Android Tablet, IP68 Water- and Dust-Resistant, Long Battery Life, Powerful Processor, S Pen, 8MP Camera, Lightweight Design, US Version, 2023, Mint</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo1NjIzMTI2MTE4Mjk4MDgwOjE3MTEwMjQ1OTM6c3Bfc2VhcmNoX3RoZW1hdGljOjMwMDA5MDk3NjM5MDYwMjo6MTo6&amp;url=%2FSAMSUNG-Dust-Resistant-Powerful-Processor-Lightweight%2Fdp%2FB0CCBRP9FD%2Fref%3Dsxin_34_pa_sp_search_thematic_sspa%3Fcontent-id%3Damzn1.sym.d4fdc453-1595-4f7b-ba6a-eb2ac554591f%253Aamzn1.sym.d4fdc453-1595-4f7b-ba6a-eb2ac554591f%26crid%3D2TCNLNNT53CHD%26cv_ct_cx%3DSamsung%2Btablet%26dib%3DeyJ2IjoiMSJ9.H8IGP6LxMf_08154v6dn8UNDAiUG-IzZ4nBgpEHHsusV7Eox8qhxzh2jjalgw3pG.8fhnNTOnPIEXzWuHNeXjNSu0-XUsFRNcD9ie18YLcLI%26dib_tag%3Dse%26keywords%3DSamsung%2Btablet%26pd_rd_i%3DB0CCBRP9FD%26pd_rd_r%3Dbea877a3-a3a2-4ef3-9f36-33d8075765a5%26pd_rd_w%3DaGCgT%26pd_rd_wg%3DbMBg5%26pf_rd_p%3Dd4fdc453-1595-4f7b-ba6a-eb2ac554591f%26pf_rd_r%3D883RDQQ367SZD53Y2E2E%26qid%3D1711024593%26sbo%3DRZvfv%252F%252FHxDF%252BO5021pAnSA%253D%253D%26sprefix%3Dsams%252Caps%252C328%26sr%3D1-2-364cf978-ce2a-480a-9bb0-bdb96faa0f61-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9zZWFyY2hfdGhlbWF0aWM%26psc%3D1</t>
-  </si>
-  <si>
-    <t>Galaxy Tab S6 Lite 10.4" 128GB Android Tablet, LCD Screen, S Pen Included, Slim Metal Design, AKG Dual Speakers, 8MP Rear Camera, Long Lasting Battery, US Version, 2022, Angora Blue</t>
-  </si>
-  <si>
-    <t>4.7 out of 5 stars</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/SAMSUNG-Android-Lasting-Included-Speakers/dp/B09WYYW4TR/ref=sr_1_6?crid=2TCNLNNT53CHD&amp;dib=eyJ2IjoiMSJ9.jJO6Tdz4qWTToEKLv-21nMlRhZRnnIV14CeGv30l2dY6v-R8Cd3-iJlXZSzuifM-DGMFIF_S5ym-b8SN2mOsOl2hXg9AWBVFsqY5U-t9Y9TfF9lxUIJ4OKlb-wwzu6sxFF-FM54pEDc98gtFnxWlZ3KoxStnUPM071Nu9FSGW76wDZsAu6SwyxF7H8TETdX2z5RuFCH6fM6FOf0LUWFxR3jtG_tjzpzP9Dsq-GtlVoM.pU-9Fqm61UgkIuv8I9r2PkOvxfFujI4mEQtq-FhsYdI&amp;dib_tag=se&amp;keywords=Samsung+tablet&amp;qid=1711024593&amp;sprefix=sams%2Caps%2C328&amp;sr=8-6</t>
-  </si>
-  <si>
-    <t>SAMSUNG 2020 Galaxy Tab A7 10.4’’ (2000x1200) TFT Display Wi-Fi Tablet Bundle, Qualcomm Snapdragon 662, 3GB RAM, Bluetooth, Dolby Atmos Audio, Android 10 OS w/Tigology Accessories (64GB, Gray)</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo1NjIzMTI2MTE4Mjk4MDgwOjE3MTEwMjQ1OTM6c3Bfc2VhcmNoX3RoZW1hdGljOjIwMDA5OTAwNjc1NDkxMTo6NDo6&amp;url=%2FGalaxy-Tab-A7-Snapdragon-Accessories%2Fdp%2FB08NWQGG5B%2Fref%3Dsxin_34_pa_sp_search_thematic_sspa%3Fcontent-id%3Damzn1.sym.d4fdc453-1595-4f7b-ba6a-eb2ac554591f%253Aamzn1.sym.d4fdc453-1595-4f7b-ba6a-eb2ac554591f%26crid%3D2TCNLNNT53CHD%26cv_ct_cx%3DSamsung%2Btablet%26dib%3DeyJ2IjoiMSJ9.H8IGP6LxMf_08154v6dn8UNDAiUG-IzZ4nBgpEHHsusV7Eox8qhxzh2jjalgw3pG.8fhnNTOnPIEXzWuHNeXjNSu0-XUsFRNcD9ie18YLcLI%26dib_tag%3Dse%26keywords%3DSamsung%2Btablet%26pd_rd_i%3DB08NWQGG5B%26pd_rd_r%3Dbea877a3-a3a2-4ef3-9f36-33d8075765a5%26pd_rd_w%3DaGCgT%26pd_rd_wg%3DbMBg5%26pf_rd_p%3Dd4fdc453-1595-4f7b-ba6a-eb2ac554591f%26pf_rd_r%3D883RDQQ367SZD53Y2E2E%26qid%3D1711024593%26sbo%3DRZvfv%252F%252FHxDF%252BO5021pAnSA%253D%253D%26sprefix%3Dsams%252Caps%252C328%26sr%3D1-4-364cf978-ce2a-480a-9bb0-bdb96faa0f61-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9zZWFyY2hfdGhlbWF0aWM%26psc%3D1</t>
-  </si>
-  <si>
-    <t>Galaxy Tab A8 10.5-inch Touchscreen (1920x1200) Wi-Fi Tablet Bundle, Octa-Core Processor, 3GB RAM, 32GB Memory, Bluetooth, 128GB MicroSD Card, Android 11 OS</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo0MDY3NTcxMDY5NjM2MDgwOjE3MTEwMjQ1OTM6c3BfbXRmOjIwMDEwNjk2ODM2NDA5ODo6MDo6&amp;url=%2FSamsung-Galaxy-Tab-Touchscreen-Bundle%2Fdp%2FB07VN76C78%2Fref%3Dsr_1_17_sspa%3Fcrid%3D2TCNLNNT53CHD%26dib%3DeyJ2IjoiMSJ9.jJO6Tdz4qWTToEKLv-21nMlRhZRnnIV14CeGv30l2dY6v-R8Cd3-iJlXZSzuifM-DGMFIF_S5ym-b8SN2mOsOl2hXg9AWBVFsqY5U-t9Y9TfF9lxUIJ4OKlb-wwzu6sxFF-FM54pEDc98gtFnxWlZ3KoxStnUPM071Nu9FSGW76wDZsAu6SwyxF7H8TETdX2z5RuFCH6fM6FOf0LUWFxR3jtG_tjzpzP9Dsq-GtlVoM.pU-9Fqm61UgkIuv8I9r2PkOvxfFujI4mEQtq-FhsYdI%26dib_tag%3Dse%26keywords%3DSamsung%2Btablet%26qid%3D1711024593%26sprefix%3Dsams%252Caps%252C328%26sr%3D8-17-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Samsung-Galaxy-Tab-Touchscreen-Bundle/dp/B07VN76C78/ref=sr_1_21?crid=2TCNLNNT53CHD&amp;dib=eyJ2IjoiMSJ9.jJO6Tdz4qWTToEKLv-21nMlRhZRnnIV14CeGv30l2dY6v-R8Cd3-iJlXZSzuifM-DGMFIF_S5ym-b8SN2mOsOl2hXg9AWBVFsqY5U-t9Y9TfF9lxUIJ4OKlb-wwzu6sxFF-FM54pEDc98gtFnxWlZ3KoxStnUPM071Nu9FSGW76wDZsAu6SwyxF7H8TETdX2z5RuFCH6fM6FOf0LUWFxR3jtG_tjzpzP9Dsq-GtlVoM.pU-9Fqm61UgkIuv8I9r2PkOvxfFujI4mEQtq-FhsYdI&amp;dib_tag=se&amp;keywords=Samsung+tablet&amp;qid=1711024593&amp;sprefix=sams%2Caps%2C328&amp;sr=8-21</t>
-  </si>
-  <si>
-    <t>SAMSUNG Galaxy Tab S6 Lite 10.4" 64GB WiFi Android Tablet w/ S Pen Included, Slim Metal Design, Crystal Clear Display, Dual Speakers, Long Lasting Battery, SM-P610NZIAXAR, Chiffon Rose</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/SAMSUNG-Android-Included-Speakers-SM-P610NZIAXAR/dp/B086Z3QNBM/ref=sr_1_14?crid=2TCNLNNT53CHD&amp;dib=eyJ2IjoiMSJ9.jJO6Tdz4qWTToEKLv-21nMlRhZRnnIV14CeGv30l2dY6v-R8Cd3-iJlXZSzuifM-DGMFIF_S5ym-b8SN2mOsOl2hXg9AWBVFsqY5U-t9Y9TfF9lxUIJ4OKlb-wwzu6sxFF-FM54pEDc98gtFnxWlZ3KoxStnUPM071Nu9FSGW76wDZsAu6SwyxF7H8TETdX2z5RuFCH6fM6FOf0LUWFxR3jtG_tjzpzP9Dsq-GtlVoM.pU-9Fqm61UgkIuv8I9r2PkOvxfFujI4mEQtq-FhsYdI&amp;dib_tag=se&amp;keywords=Samsung+tablet&amp;qid=1711024593&amp;sprefix=sams%2Caps%2C328&amp;sr=8-14</t>
-  </si>
-  <si>
-    <t>Galaxy Tab A9+ Tablet 11” 128GB Android Tablet, Big Screen, Quad Speakers, Upgraded Chipset, Multi Window Display, Slim, Light, Durable Design, US Version, 2023, Graphite</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo0MDY3NTcxMDY5NjM2MDgwOjE3MTEwMjQ1OTM6c3BfYXRmOjMwMDEyMDgzNjEyMjkwMjo6MDo6&amp;url=%2FSAMSUNG-Android-Speakers-Upgraded-Graphite%2Fdp%2FB0CLF2DNMV%2Fref%3Dsr_1_1_sspa%3Fcrid%3D2TCNLNNT53CHD%26dib%3DeyJ2IjoiMSJ9.jJO6Tdz4qWTToEKLv-21nMlRhZRnnIV14CeGv30l2dY6v-R8Cd3-iJlXZSzuifM-DGMFIF_S5ym-b8SN2mOsOl2hXg9AWBVFsqY5U-t9Y9TfF9lxUIJ4OKlb-wwzu6sxFF-FM54pEDc98gtFnxWlZ3KoxStnUPM071Nu9FSGW76wDZsAu6SwyxF7H8TETdX2z5RuFCH6fM6FOf0LUWFxR3jtG_tjzpzP9Dsq-GtlVoM.pU-9Fqm61UgkIuv8I9r2PkOvxfFujI4mEQtq-FhsYdI%26dib_tag%3Dse%26keywords%3DSamsung%2Btablet%26qid%3D1711024593%26sprefix%3Dsams%252Caps%252C328%26sr%3D8-1-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGY%26psc%3D1</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/SAMSUNG-Android-Speakers-Upgraded-Graphite/dp/B0CLF2DNMV/ref=sr_1_3?crid=2TCNLNNT53CHD&amp;dib=eyJ2IjoiMSJ9.jJO6Tdz4qWTToEKLv-21nMlRhZRnnIV14CeGv30l2dY6v-R8Cd3-iJlXZSzuifM-DGMFIF_S5ym-b8SN2mOsOl2hXg9AWBVFsqY5U-t9Y9TfF9lxUIJ4OKlb-wwzu6sxFF-FM54pEDc98gtFnxWlZ3KoxStnUPM071Nu9FSGW76wDZsAu6SwyxF7H8TETdX2z5RuFCH6fM6FOf0LUWFxR3jtG_tjzpzP9Dsq-GtlVoM.pU-9Fqm61UgkIuv8I9r2PkOvxfFujI4mEQtq-FhsYdI&amp;dib_tag=se&amp;keywords=Samsung+tablet&amp;qid=1711024593&amp;sprefix=sams%2Caps%2C328&amp;sr=8-3</t>
-  </si>
-  <si>
-    <t>SAMSUNG Galaxy Tab A9+ Tablet for Kids, 11” 128GB Android Tablet, Big Screen, Quad Speakers, Upgraded Chipset, Multi Window Display, Slim, Light, Durable Design, US Version, 2023, Silver</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/SAMSUNG-Android-Speakers-Upgraded-Chipset/dp/B0CLF4NVSL/ref=sxin_12_recs_zoco_stores_brand_identity_bs?content-id=amzn1.sym.7d2e00dd-9358-4f89-aca0-04685eb73811%3Aamzn1.sym.7d2e00dd-9358-4f89-aca0-04685eb73811&amp;crid=2TCNLNNT53CHD&amp;cv_ct_cx=Samsung+tablet&amp;dib=eyJ2IjoiMSJ9.TK5JheCabegjh2M4Xyks79YxQdLqnYFiilT6GwHxoP1hkbj7CrUcTKLdNVWcDlKP8zA9vh7J1iegdDqk-EnNPA.GF4BNYM4dU3Gm_z6I9BtgNyEP9ewuOswhQ9uZaW8wRY&amp;dib_tag=se&amp;keywords=Samsung+tablet&amp;pd_rd_i=B0CLF4NVSL&amp;pd_rd_r=bea877a3-a3a2-4ef3-9f36-33d8075765a5&amp;pd_rd_w=v1296&amp;pd_rd_wg=bMBg5&amp;pf_rd_p=7d2e00dd-9358-4f89-aca0-04685eb73811&amp;pf_rd_r=883RDQQ367SZD53Y2E2E&amp;qid=1711024593&amp;sbo=RZvfv%2F%2FHxDF%2BO5021pAnSA%3D%3D&amp;sprefix=sams%2Caps%2C328&amp;sr=1-2-5f457e4f-4cf5-45bd-948b-58563dcb013a</t>
-  </si>
-  <si>
-    <t>SAMSUNG Galaxy Tab A9+ Tablet 11” 128GB Android Tablet, Big Screen, Quad Speakers, Upgraded Chipset, Multi Window Display, Slim, Light, Durable Design, US Version, 2023, Graphite</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo1NjIzMTI2MTE4Mjk4MDgwOjE3MTEwMjQ1OTM6c3Bfc2VhcmNoX3RoZW1hdGljOjMwMDEyMDgzNjEyMjkwMjo6MDo6&amp;url=%2FSAMSUNG-Android-Speakers-Upgraded-Graphite%2Fdp%2FB0CLF2DNMV%2Fref%3Dsxin_34_pa_sp_search_thematic_sspa%3Fcontent-id%3Damzn1.sym.d4fdc453-1595-4f7b-ba6a-eb2ac554591f%253Aamzn1.sym.d4fdc453-1595-4f7b-ba6a-eb2ac554591f%26crid%3D2TCNLNNT53CHD%26cv_ct_cx%3DSamsung%2Btablet%26dib%3DeyJ2IjoiMSJ9.H8IGP6LxMf_08154v6dn8UNDAiUG-IzZ4nBgpEHHsusV7Eox8qhxzh2jjalgw3pG.8fhnNTOnPIEXzWuHNeXjNSu0-XUsFRNcD9ie18YLcLI%26dib_tag%3Dse%26keywords%3DSamsung%2Btablet%26pd_rd_i%3DB0CLF2DNMV%26pd_rd_r%3Dbea877a3-a3a2-4ef3-9f36-33d8075765a5%26pd_rd_w%3DaGCgT%26pd_rd_wg%3DbMBg5%26pf_rd_p%3Dd4fdc453-1595-4f7b-ba6a-eb2ac554591f%26pf_rd_r%3D883RDQQ367SZD53Y2E2E%26qid%3D1711024593%26sbo%3DRZvfv%252F%252FHxDF%252BO5021pAnSA%253D%253D%26sprefix%3Dsams%252Caps%252C328%26sr%3D1-1-364cf978-ce2a-480a-9bb0-bdb96faa0f61-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9zZWFyY2hfdGhlbWF0aWM%26psc%3D1</t>
-  </si>
-  <si>
-    <t>Samsung Galaxy Tab A8 10.5-in 128GB Tablet - Gray SM-X200NZAFXAR (2022)</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Samsung-Galaxy-10-5-128GB-Tablet/dp/B09N3ZC8FL/ref=sxin_12_recs_zoco_stores_brand_identity_bs?content-id=amzn1.sym.7d2e00dd-9358-4f89-aca0-04685eb73811%3Aamzn1.sym.7d2e00dd-9358-4f89-aca0-04685eb73811&amp;crid=2TCNLNNT53CHD&amp;cv_ct_cx=Samsung+tablet&amp;dib=eyJ2IjoiMSJ9.TK5JheCabegjh2M4Xyks79YxQdLqnYFiilT6GwHxoP1hkbj7CrUcTKLdNVWcDlKP8zA9vh7J1iegdDqk-EnNPA.GF4BNYM4dU3Gm_z6I9BtgNyEP9ewuOswhQ9uZaW8wRY&amp;dib_tag=se&amp;keywords=Samsung+tablet&amp;pd_rd_i=B09N3ZC8FL&amp;pd_rd_r=bea877a3-a3a2-4ef3-9f36-33d8075765a5&amp;pd_rd_w=v1296&amp;pd_rd_wg=bMBg5&amp;pf_rd_p=7d2e00dd-9358-4f89-aca0-04685eb73811&amp;pf_rd_r=883RDQQ367SZD53Y2E2E&amp;qid=1711024593&amp;sbo=RZvfv%2F%2FHxDF%2BO5021pAnSA%3D%3D&amp;sprefix=sams%2Caps%2C328&amp;sr=1-3-5f457e4f-4cf5-45bd-948b-58563dcb013a</t>
-  </si>
-  <si>
-    <t>2024 Newest Tablet Android 13 Tablets 10 Inch, Tablet 128GB ROM+16GB RAM (8+8 Virtual), 2 In 1 Tablet with keyboard, Powerful Octa-Core+13MP Camera, 1TB TF Expandable, FHD IPS Display WiFi Tablet PC</t>
-  </si>
-  <si>
-    <t>4.3 out of 5 stars</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Newest-Tablet-Tablet-keyboard-Octa-Core-Expandable/dp/B0C77MDDNL/ref=sr_1_10?crid=2TCNLNNT53CHD&amp;dib=eyJ2IjoiMSJ9.jJO6Tdz4qWTToEKLv-21nMlRhZRnnIV14CeGv30l2dY6v-R8Cd3-iJlXZSzuifM-DGMFIF_S5ym-b8SN2mOsOl2hXg9AWBVFsqY5U-t9Y9TfF9lxUIJ4OKlb-wwzu6sxFF-FM54pEDc98gtFnxWlZ3KoxStnUPM071Nu9FSGW76wDZsAu6SwyxF7H8TETdX2z5RuFCH6fM6FOf0LUWFxR3jtG_tjzpzP9Dsq-GtlVoM.pU-9Fqm61UgkIuv8I9r2PkOvxfFujI4mEQtq-FhsYdI&amp;dib_tag=se&amp;keywords=Samsung+tablet&amp;qid=1711024593&amp;sprefix=sams%2Caps%2C328&amp;sr=8-10</t>
-  </si>
-  <si>
-    <t>Galaxy Tab A8 10.5” 64GB Android Tablet, LCD Screen, Kids Content, Smart Switch, Expandable Memory, Long Lasting Battery, Fast Charging, US Version, 2022, Silver, Amazon Exclusive</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/SAMSUNG-Android-Long-Lasting-Expandable-Exclusive/dp/B09N3YS882/ref=sr_1_5?crid=2TCNLNNT53CHD&amp;dib=eyJ2IjoiMSJ9.jJO6Tdz4qWTToEKLv-21nMlRhZRnnIV14CeGv30l2dY6v-R8Cd3-iJlXZSzuifM-DGMFIF_S5ym-b8SN2mOsOl2hXg9AWBVFsqY5U-t9Y9TfF9lxUIJ4OKlb-wwzu6sxFF-FM54pEDc98gtFnxWlZ3KoxStnUPM071Nu9FSGW76wDZsAu6SwyxF7H8TETdX2z5RuFCH6fM6FOf0LUWFxR3jtG_tjzpzP9Dsq-GtlVoM.pU-9Fqm61UgkIuv8I9r2PkOvxfFujI4mEQtq-FhsYdI&amp;dib_tag=se&amp;keywords=Samsung+tablet&amp;qid=1711024593&amp;sprefix=sams%2Caps%2C328&amp;sr=8-5</t>
-  </si>
-  <si>
-    <t>Galaxy Tab A9 (64GB, 4GB, Wi-Fi Only) 8.7" Android Tablet, All Day Battery, Octa-core (6nm), Dual Speakers, International Model - X110 (256GB SD Bundle, Graphite)</t>
-  </si>
-  <si>
-    <t>1.0 out of 5 stars</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/SAMSUNG-Android-Octa-core-Speakers-International/dp/B0CVYYM57H/ref=sr_1_19?crid=2TCNLNNT53CHD&amp;dib=eyJ2IjoiMSJ9.jJO6Tdz4qWTToEKLv-21nMlRhZRnnIV14CeGv30l2dY6v-R8Cd3-iJlXZSzuifM-DGMFIF_S5ym-b8SN2mOsOl2hXg9AWBVFsqY5U-t9Y9TfF9lxUIJ4OKlb-wwzu6sxFF-FM54pEDc98gtFnxWlZ3KoxStnUPM071Nu9FSGW76wDZsAu6SwyxF7H8TETdX2z5RuFCH6fM6FOf0LUWFxR3jtG_tjzpzP9Dsq-GtlVoM.pU-9Fqm61UgkIuv8I9r2PkOvxfFujI4mEQtq-FhsYdI&amp;dib_tag=se&amp;keywords=Samsung+tablet&amp;qid=1711024593&amp;sprefix=sams%2Caps%2C328&amp;sr=8-19</t>
-  </si>
-  <si>
-    <t>SAMSUNG Galaxy Tab A9+ Tablet 11” 64GB Android Tablet, Big Screen, Quad Speakers, Upgraded Chipset, Multi Window Display, Slim, Light, Durable Design, US Version, 2023, Silver</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/SAMSUNG-Android-Speakers-Upgraded-Chipset/dp/B0CLFH7CCV/ref=sxin_12_recs_zoco_stores_brand_identity_bs?content-id=amzn1.sym.7d2e00dd-9358-4f89-aca0-04685eb73811%3Aamzn1.sym.7d2e00dd-9358-4f89-aca0-04685eb73811&amp;crid=2TCNLNNT53CHD&amp;cv_ct_cx=Samsung+tablet&amp;dib=eyJ2IjoiMSJ9.TK5JheCabegjh2M4Xyks79YxQdLqnYFiilT6GwHxoP1hkbj7CrUcTKLdNVWcDlKP8zA9vh7J1iegdDqk-EnNPA.GF4BNYM4dU3Gm_z6I9BtgNyEP9ewuOswhQ9uZaW8wRY&amp;dib_tag=se&amp;keywords=Samsung+tablet&amp;pd_rd_i=B0CLFH7CCV&amp;pd_rd_r=bea877a3-a3a2-4ef3-9f36-33d8075765a5&amp;pd_rd_w=v1296&amp;pd_rd_wg=bMBg5&amp;pf_rd_p=7d2e00dd-9358-4f89-aca0-04685eb73811&amp;pf_rd_r=883RDQQ367SZD53Y2E2E&amp;qid=1711024593&amp;sbo=RZvfv%2F%2FHxDF%2BO5021pAnSA%3D%3D&amp;sprefix=sams%2Caps%2C328&amp;sr=1-1-5f457e4f-4cf5-45bd-948b-58563dcb013a</t>
-  </si>
-  <si>
-    <t>Tablet 2024 Latest 10.1 Inch Android 12 Tablet with Keyboard, 8GB RAM, 256GB ROM, 1TB Expansion, 2 In 1 Octa-Core Tablet, 5G Wifi &amp; 2.4G Wifi, 6000 mAh Battery, Dual Cameras, Bluetooth/Mouse/Case/GPS</t>
-  </si>
-  <si>
-    <t>4.1 out of 5 stars</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo0MDY3NTcxMDY5NjM2MDgwOjE3MTEwMjQ1OTM6c3BfbXRmOjMwMDEzNTgzMjQxMzgwMjo6MDo6&amp;url=%2FAndroid-Keyboard-Expansion-Octa-Core-Bluetooth%2Fdp%2FB0CP4XT8FX%2Fref%3Dsr_1_12_sspa%3Fcrid%3D2TCNLNNT53CHD%26dib%3DeyJ2IjoiMSJ9.jJO6Tdz4qWTToEKLv-21nMlRhZRnnIV14CeGv30l2dY6v-R8Cd3-iJlXZSzuifM-DGMFIF_S5ym-b8SN2mOsOl2hXg9AWBVFsqY5U-t9Y9TfF9lxUIJ4OKlb-wwzu6sxFF-FM54pEDc98gtFnxWlZ3KoxStnUPM071Nu9FSGW76wDZsAu6SwyxF7H8TETdX2z5RuFCH6fM6FOf0LUWFxR3jtG_tjzpzP9Dsq-GtlVoM.pU-9Fqm61UgkIuv8I9r2PkOvxfFujI4mEQtq-FhsYdI%26dib_tag%3Dse%26keywords%3DSamsung%2Btablet%26qid%3D1711024593%26sprefix%3Dsams%252Caps%252C328%26sr%3D8-12-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
-  </si>
-  <si>
-    <t>Galaxy Tab A7 Lite (2021, 32GB, 3GB RAM) 8.7" (WiFi + Cellular) 5100mAh Battery, Android 11, 4G LTE Tablet GSM Unlocked, International Model - SM-T225 (Fast Car Charger Bundle, Gray)</t>
-  </si>
-  <si>
-    <t>4.2 out of 5 stars</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Samsung-Cellular-5100mAh-Unlocked-International/dp/B0973MR9XX/ref=sr_1_15?crid=2TCNLNNT53CHD&amp;dib=eyJ2IjoiMSJ9.jJO6Tdz4qWTToEKLv-21nMlRhZRnnIV14CeGv30l2dY6v-R8Cd3-iJlXZSzuifM-DGMFIF_S5ym-b8SN2mOsOl2hXg9AWBVFsqY5U-t9Y9TfF9lxUIJ4OKlb-wwzu6sxFF-FM54pEDc98gtFnxWlZ3KoxStnUPM071Nu9FSGW76wDZsAu6SwyxF7H8TETdX2z5RuFCH6fM6FOf0LUWFxR3jtG_tjzpzP9Dsq-GtlVoM.pU-9Fqm61UgkIuv8I9r2PkOvxfFujI4mEQtq-FhsYdI&amp;dib_tag=se&amp;keywords=Samsung+tablet&amp;qid=1711024593&amp;sprefix=sams%2Caps%2C328&amp;sr=8-15</t>
-  </si>
-  <si>
-    <t>SAMSUNG SM-T290NZKAXAR, Galaxy Tab A 8.0" 32 GB Wifi Android 9.0 Pie Tablet Black 2019</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Samsung-Galaxy-Android-Tablet-Black/dp/B07VDB92RK/ref=sr_1_20?crid=2TCNLNNT53CHD&amp;dib=eyJ2IjoiMSJ9.jJO6Tdz4qWTToEKLv-21nMlRhZRnnIV14CeGv30l2dY6v-R8Cd3-iJlXZSzuifM-DGMFIF_S5ym-b8SN2mOsOl2hXg9AWBVFsqY5U-t9Y9TfF9lxUIJ4OKlb-wwzu6sxFF-FM54pEDc98gtFnxWlZ3KoxStnUPM071Nu9FSGW76wDZsAu6SwyxF7H8TETdX2z5RuFCH6fM6FOf0LUWFxR3jtG_tjzpzP9Dsq-GtlVoM.pU-9Fqm61UgkIuv8I9r2PkOvxfFujI4mEQtq-FhsYdI&amp;dib_tag=se&amp;keywords=Samsung+tablet&amp;qid=1711024593&amp;sprefix=sams%2Caps%2C328&amp;sr=8-20</t>
+    <t>https://www.amazon.com/Samsung-Galaxy-Android-Tablet-Black/dp/B07VDB92RK/ref=sr_1_20?crid=2UWVNQKW2KXQA&amp;dib=eyJ2IjoiMSJ9.jJO6Tdz4qWTToEKLv-21nMlRhZRnnIV14CeGv30l2dY6v-R8Cd3-iJlXZSzuifM-DGMFIF_S5ym-b8SN2mOsOl2hXg9AWBVFsqY5U-t9Y9TfF9lxUIJ4OKlb-wwzu6sxFF-FM54pEDc98gtFnxWlZz3uWs7pyYjM6DWWMoIHD3u6mGClxusiN551jgtN5Lvoz5RuFCH6fM6FOf0LUWFxR3jtG_tjzpzP9Dsq-GtlVoM.p8J7fROJl_ApV9yNYlNQbylBuVmXMGocWH8t4zT2SH4&amp;dib_tag=se&amp;keywords=Samsung+tablet&amp;qid=1711036166&amp;sprefix=s%2Caps%2C318&amp;sr=8-20</t>
   </si>
   <si>
     <t>Tab M9-2023 - Tablet - Long Battery Life - 9" HD - Front 2MP &amp; Rear 8MP Camera - 3GB Memory - 32GB Storage - Android 12 or Later - Folio Case Included,Gray</t>
   </si>
   <si>
-    <t>https://www.amazon.com/Lenovo-Tab-M9-2023-Battery-Included/dp/B0BYPHZWZK/ref=sr_1_11?crid=2TCNLNNT53CHD&amp;dib=eyJ2IjoiMSJ9.jJO6Tdz4qWTToEKLv-21nMlRhZRnnIV14CeGv30l2dY6v-R8Cd3-iJlXZSzuifM-DGMFIF_S5ym-b8SN2mOsOl2hXg9AWBVFsqY5U-t9Y9TfF9lxUIJ4OKlb-wwzu6sxFF-FM54pEDc98gtFnxWlZ3KoxStnUPM071Nu9FSGW76wDZsAu6SwyxF7H8TETdX2z5RuFCH6fM6FOf0LUWFxR3jtG_tjzpzP9Dsq-GtlVoM.pU-9Fqm61UgkIuv8I9r2PkOvxfFujI4mEQtq-FhsYdI&amp;dib_tag=se&amp;keywords=Samsung+tablet&amp;qid=1711024593&amp;sprefix=sams%2Caps%2C328&amp;sr=8-11</t>
+    <t>https://www.amazon.com/Lenovo-Tab-M9-2023-Battery-Included/dp/B0BYPHZWZK/ref=sr_1_11?crid=2UWVNQKW2KXQA&amp;dib=eyJ2IjoiMSJ9.jJO6Tdz4qWTToEKLv-21nMlRhZRnnIV14CeGv30l2dY6v-R8Cd3-iJlXZSzuifM-DGMFIF_S5ym-b8SN2mOsOl2hXg9AWBVFsqY5U-t9Y9TfF9lxUIJ4OKlb-wwzu6sxFF-FM54pEDc98gtFnxWlZz3uWs7pyYjM6DWWMoIHD3u6mGClxusiN551jgtN5Lvoz5RuFCH6fM6FOf0LUWFxR3jtG_tjzpzP9Dsq-GtlVoM.p8J7fROJl_ApV9yNYlNQbylBuVmXMGocWH8t4zT2SH4&amp;dib_tag=se&amp;keywords=Samsung+tablet&amp;qid=1711036166&amp;sprefix=s%2Caps%2C318&amp;sr=8-11</t>
   </si>
   <si>
     <t>Galaxy Tab A 8.0 T387A 32GB Unlocked AT&amp;T Tablet - Black</t>
@@ -232,13 +216,31 @@
     <t>3.9 out of 5 stars</t>
   </si>
   <si>
-    <t>https://www.amazon.com/Samsung-Galaxy-T387A-Unlocked-Tablet/dp/B07XDM26Z3/ref=sr_1_16?crid=2TCNLNNT53CHD&amp;dib=eyJ2IjoiMSJ9.jJO6Tdz4qWTToEKLv-21nMlRhZRnnIV14CeGv30l2dY6v-R8Cd3-iJlXZSzuifM-DGMFIF_S5ym-b8SN2mOsOl2hXg9AWBVFsqY5U-t9Y9TfF9lxUIJ4OKlb-wwzu6sxFF-FM54pEDc98gtFnxWlZ3KoxStnUPM071Nu9FSGW76wDZsAu6SwyxF7H8TETdX2z5RuFCH6fM6FOf0LUWFxR3jtG_tjzpzP9Dsq-GtlVoM.pU-9Fqm61UgkIuv8I9r2PkOvxfFujI4mEQtq-FhsYdI&amp;dib_tag=se&amp;keywords=Samsung+tablet&amp;qid=1711024593&amp;sprefix=sams%2Caps%2C328&amp;sr=8-16</t>
+    <t>https://www.amazon.com/Samsung-Galaxy-T387A-Unlocked-Tablet/dp/B07XDM26Z3/ref=sr_1_15?crid=2UWVNQKW2KXQA&amp;dib=eyJ2IjoiMSJ9.jJO6Tdz4qWTToEKLv-21nMlRhZRnnIV14CeGv30l2dY6v-R8Cd3-iJlXZSzuifM-DGMFIF_S5ym-b8SN2mOsOl2hXg9AWBVFsqY5U-t9Y9TfF9lxUIJ4OKlb-wwzu6sxFF-FM54pEDc98gtFnxWlZz3uWs7pyYjM6DWWMoIHD3u6mGClxusiN551jgtN5Lvoz5RuFCH6fM6FOf0LUWFxR3jtG_tjzpzP9Dsq-GtlVoM.p8J7fROJl_ApV9yNYlNQbylBuVmXMGocWH8t4zT2SH4&amp;dib_tag=se&amp;keywords=Samsung+tablet&amp;qid=1711036166&amp;sprefix=s%2Caps%2C318&amp;sr=8-15</t>
+  </si>
+  <si>
+    <t>Tablet, Android 13 Tablet, Octa-Core Android Tablet, 8 (4+4) RAM 128GB ROM (1TB TF) Tablet Android, 10 inch Tablet with WiFi 6, Bluetooth5.0, Dual Camera, Fast Charging (Black)</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo3MjcyMDUwNTE2MDgwMDgwOjE3MTEwMzYxNjY6c3BfbXRmOjMwMDE0Njk5MDkwNzAwMjo6MDo6&amp;url=%2FLville-Android-Octa-Core-Bluetooth5-0-Charging%2Fdp%2FB0CVWWQHBN%2Fref%3Dsr_1_17_sspa%3Fcrid%3D2UWVNQKW2KXQA%26dib%3DeyJ2IjoiMSJ9.jJO6Tdz4qWTToEKLv-21nMlRhZRnnIV14CeGv30l2dY6v-R8Cd3-iJlXZSzuifM-DGMFIF_S5ym-b8SN2mOsOl2hXg9AWBVFsqY5U-t9Y9TfF9lxUIJ4OKlb-wwzu6sxFF-FM54pEDc98gtFnxWlZz3uWs7pyYjM6DWWMoIHD3u6mGClxusiN551jgtN5Lvoz5RuFCH6fM6FOf0LUWFxR3jtG_tjzpzP9Dsq-GtlVoM.p8J7fROJl_ApV9yNYlNQbylBuVmXMGocWH8t4zT2SH4%26dib_tag%3Dse%26keywords%3DSamsung%2Btablet%26qid%3D1711036166%26sprefix%3Ds%252Caps%252C318%26sr%3D8-17-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
+  </si>
+  <si>
+    <t>Android 13 Tablet, Octa-Core Android Tablet, 8 (4+4) RAM 128GB ROM (1TB TF) Tablet Android, 10 inch Tablet with WiFi 6, Bluetooth5.0, Dual Camera, Fast Charging (Black)</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo3MjcyMDUwNTE2MDgwMDgwOjE3MTEwMzYxNjY6c3BfbXRmOjMwMDEwMDE4MjY5NjcwMjo6MDo6&amp;url=%2FLville-Android-Octa-Core-Bluetooth5-0-Charging%2Fdp%2FB0CHVFCS6J%2Fref%3Dsr_1_12_sspa%3Fcrid%3D2UWVNQKW2KXQA%26dib%3DeyJ2IjoiMSJ9.jJO6Tdz4qWTToEKLv-21nMlRhZRnnIV14CeGv30l2dY6v-R8Cd3-iJlXZSzuifM-DGMFIF_S5ym-b8SN2mOsOl2hXg9AWBVFsqY5U-t9Y9TfF9lxUIJ4OKlb-wwzu6sxFF-FM54pEDc98gtFnxWlZz3uWs7pyYjM6DWWMoIHD3u6mGClxusiN551jgtN5Lvoz5RuFCH6fM6FOf0LUWFxR3jtG_tjzpzP9Dsq-GtlVoM.p8J7fROJl_ApV9yNYlNQbylBuVmXMGocWH8t4zT2SH4%26dib_tag%3Dse%26keywords%3DSamsung%2Btablet%26qid%3D1711036166%26sprefix%3Ds%252Caps%252C318%26sr%3D8-12-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
+  </si>
+  <si>
+    <t>Timecity Case for Samsung Galaxy Tab A9+/ A9 Plus Case 11 inch 2023 (SM-X210/X216/X218), with Screen Protector, 360° Rotating Stand, Hand Strap&amp;Shoulder Strap Galaxy A9 Plus Tablet Case- Black</t>
+  </si>
+  <si>
+    <t>https://aax-us-iad.amazon.com/x/c/RFmJjCtqwA_e3gSN-NjC6DYAAAGOYbPwbAEAAAH2AQBvbm9fdHhuX2JpZDUgICBvbm9fdHhuX2ltcDEgICA_zkIP/https://www.amazon.com/Tab-Plus-SM-X210-X216-X218/dp/B0CLTZMSTN/ref=sxin_35_sbv_search_btf?content-id=amzn1.sym.c44d9f79-d706-4fe9-a72f-cc7d2fe3208f%3Aamzn1.sym.c44d9f79-d706-4fe9-a72f-cc7d2fe3208f&amp;crid=2UWVNQKW2KXQA&amp;cv_ct_cx=Samsung+tablet&amp;dib=eyJ2IjoiMSJ9.tREtTQgp27opcdWO-IRDBA.oYOh1g1ryyTeVtvLl8XmMYRWolERAtKBz_YEId-4KYA&amp;dib_tag=se&amp;keywords=Samsung+tablet&amp;pd_rd_i=B0CLTZMSTN&amp;pd_rd_r=0ee76c25-b045-4931-a6d5-4f65adc43698&amp;pd_rd_w=dXPMz&amp;pd_rd_wg=WSGMX&amp;pf_rd_p=c44d9f79-d706-4fe9-a72f-cc7d2fe3208f&amp;pf_rd_r=039M0YP8J15ED6SRX450&amp;qid=1711036166&amp;sbo=RZvfv%2F%2FHxDF%2BO5021pAnSA%3D%3D&amp;sprefix=s%2Caps%2C318&amp;sr=1-1-5190daf0-67e3-427c-bea6-c72c1df98776</t>
   </si>
   <si>
     <t>SAMSUNG Galaxy Tab A7 Lite 8.7" 32GB WiFi Android Tablet, Compact, Portable, Slim Design, Kid Friendly, Sturdy Metal Frame, Expandable Storage, Long Lasting Battery, US Version, 2021, Silver</t>
   </si>
   <si>
-    <t>https://www.amazon.com/SAMSUNG-Android-Compact-Lasting-Battery/dp/B094PXZMP6/ref=sr_1_8?crid=2TCNLNNT53CHD&amp;dib=eyJ2IjoiMSJ9.jJO6Tdz4qWTToEKLv-21nMlRhZRnnIV14CeGv30l2dY6v-R8Cd3-iJlXZSzuifM-DGMFIF_S5ym-b8SN2mOsOl2hXg9AWBVFsqY5U-t9Y9TfF9lxUIJ4OKlb-wwzu6sxFF-FM54pEDc98gtFnxWlZ3KoxStnUPM071Nu9FSGW76wDZsAu6SwyxF7H8TETdX2z5RuFCH6fM6FOf0LUWFxR3jtG_tjzpzP9Dsq-GtlVoM.pU-9Fqm61UgkIuv8I9r2PkOvxfFujI4mEQtq-FhsYdI&amp;dib_tag=se&amp;keywords=Samsung+tablet&amp;qid=1711024593&amp;sprefix=sams%2Caps%2C328&amp;sr=8-8</t>
+    <t>https://www.amazon.com/SAMSUNG-Android-Compact-Lasting-Battery/dp/B094PXZMP6/ref=sr_1_8?crid=2UWVNQKW2KXQA&amp;dib=eyJ2IjoiMSJ9.jJO6Tdz4qWTToEKLv-21nMlRhZRnnIV14CeGv30l2dY6v-R8Cd3-iJlXZSzuifM-DGMFIF_S5ym-b8SN2mOsOl2hXg9AWBVFsqY5U-t9Y9TfF9lxUIJ4OKlb-wwzu6sxFF-FM54pEDc98gtFnxWlZz3uWs7pyYjM6DWWMoIHD3u6mGClxusiN551jgtN5Lvoz5RuFCH6fM6FOf0LUWFxR3jtG_tjzpzP9Dsq-GtlVoM.p8J7fROJl_ApV9yNYlNQbylBuVmXMGocWH8t4zT2SH4&amp;dib_tag=se&amp;keywords=Samsung+tablet&amp;qid=1711036166&amp;sprefix=s%2Caps%2C318&amp;sr=8-8</t>
   </si>
 </sst>
 </file>
@@ -616,7 +618,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4F1B8DB-8A5B-4FF2-881C-3E40F2996FD7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07228EE5-04C0-4447-8046-5E9671E3A8C5}">
   <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -648,12 +650,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="1">
-        <v>899</v>
+        <v>898.49</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>6</v>
@@ -665,12 +667,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="1">
-        <v>898.49</v>
+        <v>796.19</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>6</v>
@@ -682,58 +684,58 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="51" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="1">
-        <v>796.19</v>
+        <v>441.94</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D4" s="1">
-        <v>400</v>
+        <v>291</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="51" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B5" s="1">
-        <v>569.99</v>
+        <v>349.99</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D5" s="1">
-        <v>291</v>
+        <v>479</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="51" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B6" s="1">
-        <v>441.85</v>
+        <v>349.99</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D6" s="1">
-        <v>291</v>
+        <v>479</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="51" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>17</v>
       </c>
@@ -741,44 +743,44 @@
         <v>349.99</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="1">
+        <v>479</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="1">
-        <v>478</v>
-      </c>
-      <c r="E7" s="1" t="s">
+    </row>
+    <row r="8" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="B8" s="1">
+        <v>319.99</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="1">
+        <v>683</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="1">
-        <v>349.99</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="1">
-        <v>478</v>
-      </c>
-      <c r="E8" s="1" t="s">
+    </row>
+    <row r="9" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="B9" s="1">
+        <v>291.94</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="1">
-        <v>349.99</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="D9" s="1">
-        <v>478</v>
+        <v>7033</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>23</v>
@@ -789,319 +791,319 @@
         <v>24</v>
       </c>
       <c r="B10" s="1">
-        <v>291.99</v>
+        <v>229</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="1">
+        <v>251</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="1">
-        <v>7032</v>
-      </c>
-      <c r="E10" s="1" t="s">
+    </row>
+    <row r="11" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="B11" s="1">
+        <v>224.49</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="1">
+        <v>18146</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="B11" s="1">
-        <v>268.98</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" s="1">
-        <v>1860</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="51" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="1">
+        <v>219.99</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="1">
+        <v>459</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="B12" s="1">
-        <v>229</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" s="1">
-        <v>251</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B13" s="1">
-        <v>229</v>
+        <v>219.99</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D13" s="1">
-        <v>251</v>
+        <v>459</v>
       </c>
       <c r="E13" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+      <c r="B14" s="1">
+        <v>219.99</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="1">
+        <v>459</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="1">
-        <v>224.49</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" s="1">
-        <v>18146</v>
-      </c>
-      <c r="E14" s="1" t="s">
+    </row>
+    <row r="15" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" ht="51" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+      <c r="B15" s="1">
+        <v>210</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="1">
+        <v>23049</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="B15" s="1">
-        <v>219.99</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15" s="1">
-        <v>458</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B16" s="1">
-        <v>219.99</v>
+        <v>199.98</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="D16" s="1">
-        <v>458</v>
+        <v>396</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="51" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B17" s="1">
-        <v>219.99</v>
+        <v>190</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D17" s="1">
-        <v>458</v>
+        <v>23049</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B18" s="1">
-        <v>219.99</v>
+        <v>172.49</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="D18" s="1">
-        <v>458</v>
+        <v>1</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="51" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B19" s="1">
-        <v>210</v>
+        <v>169.99</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D19" s="1">
-        <v>23049</v>
+        <v>459</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="51" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" s="1">
+        <v>169.99</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D20" s="1">
+        <v>11</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B20" s="1">
-        <v>199.98</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D20" s="1">
-        <v>396</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>46</v>
-      </c>
       <c r="B21" s="1">
-        <v>190</v>
+        <v>169.99</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D21" s="1">
-        <v>23049</v>
+        <v>459</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B22" s="1">
-        <v>172.49</v>
+        <v>157</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D22" s="1">
-        <v>1</v>
+        <v>422</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="51" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B23" s="1">
-        <v>169.99</v>
+        <v>148.11000000000001</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="D23" s="1">
-        <v>458</v>
+        <v>10341</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="51" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B24" s="1">
-        <v>169.99</v>
+        <v>99.99</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="D24" s="1">
-        <v>11</v>
+        <v>657</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B25" s="1">
-        <v>157</v>
+        <v>94.99</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D25" s="1">
-        <v>422</v>
+        <v>565</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="51" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B26" s="1">
-        <v>148.12</v>
+        <v>89.99</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="D26" s="1">
-        <v>10341</v>
+        <v>5</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="51" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B27" s="1">
-        <v>99.99</v>
+        <v>79.98</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="D27" s="1">
-        <v>657</v>
+        <v>110</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B28" s="1">
-        <v>94.99</v>
+        <v>29.99</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="D28" s="1">
-        <v>565</v>
+        <v>10344</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>65</v>
@@ -1123,11 +1125,12 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB09FAC8-7842-4805-A800-58A60A55CAE7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96E0B4F1-3ED7-45A7-A3C9-8063B43F2B06}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
